--- a/rtw_excel_report/report_quotation/quotation.xlsx
+++ b/rtw_excel_report/report_quotation/quotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_quotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71796513-57AB-419D-8632-8CA16FD77624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4EA3E1-5BBF-4D5A-8889-81B7899FDD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E9C89EF-36F0-4FE6-B8F9-DD354E317999}"/>
+    <workbookView xWindow="4110" yWindow="645" windowWidth="17535" windowHeight="13710" xr2:uid="{5E9C89EF-36F0-4FE6-B8F9-DD354E317999}"/>
   </bookViews>
   <sheets>
     <sheet name="御見積書" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -351,6 +351,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -773,8 +779,8 @@
   </sheetPr>
   <dimension ref="A1:I1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -861,11 +867,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
@@ -930,9 +936,9 @@
       <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="14"/>
       <c r="I10" s="6"/>
     </row>
@@ -943,9 +949,9 @@
       <c r="B11" s="28"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="14"/>
       <c r="I11" s="6"/>
     </row>
@@ -954,9 +960,9 @@
       <c r="B12" s="12"/>
       <c r="C12" s="16"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="14"/>
       <c r="I12" s="6"/>
     </row>
@@ -965,9 +971,9 @@
       <c r="B13" s="12"/>
       <c r="C13" s="4"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="14"/>
       <c r="I13" s="6"/>
     </row>
@@ -976,10 +982,10 @@
       <c r="B14" s="12"/>
       <c r="C14" s="4"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="9"/>
       <c r="H14" s="21" t="s">
         <v>22</v>
@@ -993,51 +999,51 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="34"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="32"/>
-      <c r="C19" s="24"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="24"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
@@ -1050,7 +1056,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="32"/>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="24" t="s">
@@ -1067,7 +1073,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="32"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="25" t="s">
@@ -1086,7 +1092,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="32"/>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -1103,7 +1109,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="32"/>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -1120,7 +1126,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="32"/>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -1137,7 +1143,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="32"/>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -1154,7 +1160,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="32"/>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -1171,7 +1177,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="32"/>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -1188,7 +1194,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="32"/>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -1205,7 +1211,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="32"/>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="25" t="s">
@@ -1222,7 +1228,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="32"/>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -1239,7 +1245,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="32"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -1256,7 +1262,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="32"/>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -1273,7 +1279,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="32"/>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="25" t="s">
@@ -1290,7 +1296,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="32"/>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="25" t="s">
@@ -1307,7 +1313,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="32"/>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="25" t="s">
@@ -1324,7 +1330,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="32"/>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -1341,7 +1347,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="32"/>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="25" t="s">
@@ -1358,7 +1364,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="32"/>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="25" t="s">
@@ -1375,7 +1381,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="32"/>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="25" t="s">
@@ -1392,7 +1398,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="32"/>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="25" t="s">
@@ -1409,7 +1415,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="32"/>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -1426,7 +1432,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="32"/>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -1443,7 +1449,7 @@
         <v>32</v>
       </c>
       <c r="B43" s="32"/>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="25" t="s">
@@ -1460,7 +1466,7 @@
         <v>32</v>
       </c>
       <c r="B44" s="32"/>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="25" t="s">
@@ -1477,7 +1483,7 @@
         <v>32</v>
       </c>
       <c r="B45" s="32"/>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="25" t="s">
@@ -1494,7 +1500,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="32"/>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="25" t="s">
@@ -1511,7 +1517,7 @@
         <v>32</v>
       </c>
       <c r="B47" s="32"/>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="25" t="s">
@@ -1528,7 +1534,7 @@
         <v>32</v>
       </c>
       <c r="B48" s="32"/>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="25" t="s">
@@ -1543,7 +1549,7 @@
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
       <c r="B49" s="32"/>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="25" t="s">
@@ -1560,7 +1566,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="32"/>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D50" s="25" t="s">
@@ -1577,7 +1583,7 @@
         <v>32</v>
       </c>
       <c r="B51" s="32"/>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="25" t="s">
@@ -1594,7 +1600,7 @@
         <v>32</v>
       </c>
       <c r="B52" s="32"/>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D52" s="24" t="s">
@@ -1611,7 +1617,7 @@
         <v>32</v>
       </c>
       <c r="B53" s="32"/>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="24" t="s">
@@ -1628,7 +1634,7 @@
         <v>32</v>
       </c>
       <c r="B54" s="32"/>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D54" s="25" t="s">
@@ -1645,7 +1651,7 @@
         <v>32</v>
       </c>
       <c r="B55" s="32"/>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D55" s="25" t="s">
@@ -1662,7 +1668,7 @@
         <v>32</v>
       </c>
       <c r="B56" s="32"/>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D56" s="25" t="s">
@@ -1679,7 +1685,7 @@
         <v>32</v>
       </c>
       <c r="B57" s="32"/>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -1696,7 +1702,7 @@
         <v>32</v>
       </c>
       <c r="B58" s="32"/>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D58" s="25" t="s">
@@ -1713,7 +1719,7 @@
         <v>32</v>
       </c>
       <c r="B59" s="32"/>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="25" t="s">
@@ -1730,7 +1736,7 @@
         <v>32</v>
       </c>
       <c r="B60" s="32"/>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D60" s="25" t="s">
@@ -1747,7 +1753,7 @@
         <v>32</v>
       </c>
       <c r="B61" s="32"/>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D61" s="25" t="s">
@@ -1764,7 +1770,7 @@
         <v>32</v>
       </c>
       <c r="B62" s="32"/>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="25" t="s">
@@ -1781,7 +1787,7 @@
         <v>32</v>
       </c>
       <c r="B63" s="32"/>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D63" s="24" t="s">
@@ -1798,7 +1804,7 @@
         <v>32</v>
       </c>
       <c r="B64" s="32"/>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D64" s="24" t="s">
@@ -1815,7 +1821,7 @@
         <v>32</v>
       </c>
       <c r="B65" s="32"/>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D65" s="25" t="s">
@@ -1832,7 +1838,7 @@
         <v>32</v>
       </c>
       <c r="B66" s="32"/>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D66" s="25" t="s">
@@ -1849,7 +1855,7 @@
         <v>32</v>
       </c>
       <c r="B67" s="32"/>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D67" s="25" t="s">
@@ -1866,7 +1872,7 @@
         <v>32</v>
       </c>
       <c r="B68" s="32"/>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D68" s="25" t="s">
@@ -1883,7 +1889,7 @@
         <v>32</v>
       </c>
       <c r="B69" s="32"/>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D69" s="25" t="s">
@@ -1900,7 +1906,7 @@
         <v>32</v>
       </c>
       <c r="B70" s="32"/>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D70" s="25" t="s">
@@ -1917,7 +1923,7 @@
         <v>32</v>
       </c>
       <c r="B71" s="32"/>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="25" t="s">
@@ -1934,7 +1940,7 @@
         <v>32</v>
       </c>
       <c r="B72" s="32"/>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D72" s="25" t="s">
@@ -1951,7 +1957,7 @@
         <v>32</v>
       </c>
       <c r="B73" s="32"/>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D73" s="25" t="s">
@@ -1968,7 +1974,7 @@
         <v>32</v>
       </c>
       <c r="B74" s="32"/>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D74" s="24" t="s">
@@ -1985,7 +1991,7 @@
         <v>32</v>
       </c>
       <c r="B75" s="32"/>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D75" s="24" t="s">
@@ -2002,7 +2008,7 @@
         <v>32</v>
       </c>
       <c r="B76" s="32"/>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D76" s="25" t="s">
@@ -2019,7 +2025,7 @@
         <v>32</v>
       </c>
       <c r="B77" s="32"/>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D77" s="25" t="s">
@@ -2036,7 +2042,7 @@
         <v>32</v>
       </c>
       <c r="B78" s="32"/>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D78" s="25" t="s">
@@ -2053,7 +2059,7 @@
         <v>32</v>
       </c>
       <c r="B79" s="32"/>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D79" s="25" t="s">
@@ -2068,7 +2074,7 @@
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
       <c r="B80" s="32"/>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D80" s="25" t="s">
@@ -2085,7 +2091,7 @@
         <v>32</v>
       </c>
       <c r="B81" s="32"/>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D81" s="25" t="s">
@@ -2102,7 +2108,7 @@
         <v>32</v>
       </c>
       <c r="B82" s="32"/>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D82" s="25" t="s">
@@ -2119,7 +2125,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="32"/>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D83" s="25" t="s">
@@ -2136,7 +2142,7 @@
         <v>32</v>
       </c>
       <c r="B84" s="32"/>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D84" s="25" t="s">
@@ -2153,7 +2159,7 @@
         <v>32</v>
       </c>
       <c r="B85" s="32"/>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D85" s="24" t="s">
@@ -2170,7 +2176,7 @@
         <v>32</v>
       </c>
       <c r="B86" s="32"/>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D86" s="24" t="s">
@@ -2187,7 +2193,7 @@
         <v>32</v>
       </c>
       <c r="B87" s="32"/>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D87" s="25" t="s">
@@ -2204,7 +2210,7 @@
         <v>32</v>
       </c>
       <c r="B88" s="32"/>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D88" s="25" t="s">
@@ -2221,7 +2227,7 @@
         <v>32</v>
       </c>
       <c r="B89" s="32"/>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D89" s="25" t="s">
@@ -2238,7 +2244,7 @@
         <v>32</v>
       </c>
       <c r="B90" s="32"/>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D90" s="25" t="s">
@@ -2255,7 +2261,7 @@
         <v>32</v>
       </c>
       <c r="B91" s="32"/>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D91" s="25" t="s">
@@ -2272,7 +2278,7 @@
         <v>32</v>
       </c>
       <c r="B92" s="32"/>
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D92" s="25" t="s">
@@ -2289,7 +2295,7 @@
         <v>32</v>
       </c>
       <c r="B93" s="32"/>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D93" s="25" t="s">
@@ -2306,7 +2312,7 @@
         <v>32</v>
       </c>
       <c r="B94" s="32"/>
-      <c r="C94" s="25" t="s">
+      <c r="C94" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D94" s="25" t="s">
@@ -2323,7 +2329,7 @@
         <v>32</v>
       </c>
       <c r="B95" s="32"/>
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D95" s="25" t="s">
@@ -2340,7 +2346,7 @@
         <v>32</v>
       </c>
       <c r="B96" s="32"/>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D96" s="24" t="s">
@@ -2357,7 +2363,7 @@
         <v>32</v>
       </c>
       <c r="B97" s="32"/>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D97" s="24" t="s">
@@ -2374,7 +2380,7 @@
         <v>32</v>
       </c>
       <c r="B98" s="32"/>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D98" s="25" t="s">
@@ -2391,7 +2397,7 @@
         <v>32</v>
       </c>
       <c r="B99" s="32"/>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D99" s="25" t="s">
@@ -2408,7 +2414,7 @@
         <v>32</v>
       </c>
       <c r="B100" s="32"/>
-      <c r="C100" s="25" t="s">
+      <c r="C100" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D100" s="25" t="s">
@@ -2425,7 +2431,7 @@
         <v>32</v>
       </c>
       <c r="B101" s="32"/>
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D101" s="25" t="s">
@@ -2442,7 +2448,7 @@
         <v>32</v>
       </c>
       <c r="B102" s="32"/>
-      <c r="C102" s="25" t="s">
+      <c r="C102" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D102" s="25" t="s">
@@ -2459,7 +2465,7 @@
         <v>32</v>
       </c>
       <c r="B103" s="32"/>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D103" s="25" t="s">
@@ -2476,7 +2482,7 @@
         <v>32</v>
       </c>
       <c r="B104" s="32"/>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D104" s="25" t="s">
@@ -2493,7 +2499,7 @@
         <v>32</v>
       </c>
       <c r="B105" s="32"/>
-      <c r="C105" s="25" t="s">
+      <c r="C105" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D105" s="25" t="s">
@@ -2510,7 +2516,7 @@
         <v>32</v>
       </c>
       <c r="B106" s="32"/>
-      <c r="C106" s="25" t="s">
+      <c r="C106" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D106" s="25" t="s">
@@ -2527,7 +2533,7 @@
         <v>32</v>
       </c>
       <c r="B107" s="32"/>
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D107" s="24" t="s">
@@ -2544,7 +2550,7 @@
         <v>32</v>
       </c>
       <c r="B108" s="32"/>
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D108" s="24" t="s">
@@ -2561,7 +2567,7 @@
         <v>32</v>
       </c>
       <c r="B109" s="32"/>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D109" s="25" t="s">
@@ -2578,7 +2584,7 @@
         <v>32</v>
       </c>
       <c r="B110" s="32"/>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D110" s="25" t="s">
@@ -2593,7 +2599,7 @@
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="22"/>
       <c r="B111" s="32"/>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D111" s="25" t="s">
@@ -2610,7 +2616,7 @@
         <v>32</v>
       </c>
       <c r="B112" s="32"/>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D112" s="25" t="s">
@@ -2627,7 +2633,7 @@
         <v>32</v>
       </c>
       <c r="B113" s="32"/>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D113" s="25" t="s">
@@ -2644,7 +2650,7 @@
         <v>32</v>
       </c>
       <c r="B114" s="32"/>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D114" s="25" t="s">
@@ -2661,7 +2667,7 @@
         <v>32</v>
       </c>
       <c r="B115" s="32"/>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D115" s="25" t="s">
@@ -2678,7 +2684,7 @@
         <v>32</v>
       </c>
       <c r="B116" s="32"/>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D116" s="25" t="s">
@@ -2695,7 +2701,7 @@
         <v>32</v>
       </c>
       <c r="B117" s="32"/>
-      <c r="C117" s="25" t="s">
+      <c r="C117" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D117" s="25" t="s">
@@ -2712,7 +2718,7 @@
         <v>32</v>
       </c>
       <c r="B118" s="32"/>
-      <c r="C118" s="24" t="s">
+      <c r="C118" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D118" s="24" t="s">
@@ -2729,7 +2735,7 @@
         <v>32</v>
       </c>
       <c r="B119" s="32"/>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D119" s="24" t="s">
@@ -2746,7 +2752,7 @@
         <v>32</v>
       </c>
       <c r="B120" s="32"/>
-      <c r="C120" s="25" t="s">
+      <c r="C120" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D120" s="25" t="s">
@@ -2763,7 +2769,7 @@
         <v>32</v>
       </c>
       <c r="B121" s="32"/>
-      <c r="C121" s="25" t="s">
+      <c r="C121" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D121" s="25" t="s">
@@ -2780,7 +2786,7 @@
         <v>32</v>
       </c>
       <c r="B122" s="32"/>
-      <c r="C122" s="25" t="s">
+      <c r="C122" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D122" s="25" t="s">
@@ -2797,7 +2803,7 @@
         <v>32</v>
       </c>
       <c r="B123" s="32"/>
-      <c r="C123" s="25" t="s">
+      <c r="C123" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D123" s="25" t="s">
@@ -2814,7 +2820,7 @@
         <v>32</v>
       </c>
       <c r="B124" s="32"/>
-      <c r="C124" s="25" t="s">
+      <c r="C124" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D124" s="25" t="s">
@@ -2831,7 +2837,7 @@
         <v>32</v>
       </c>
       <c r="B125" s="32"/>
-      <c r="C125" s="25" t="s">
+      <c r="C125" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D125" s="25" t="s">
@@ -2848,7 +2854,7 @@
         <v>32</v>
       </c>
       <c r="B126" s="32"/>
-      <c r="C126" s="25" t="s">
+      <c r="C126" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D126" s="25" t="s">
@@ -2865,7 +2871,7 @@
         <v>32</v>
       </c>
       <c r="B127" s="32"/>
-      <c r="C127" s="25" t="s">
+      <c r="C127" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D127" s="25" t="s">
@@ -2882,7 +2888,7 @@
         <v>32</v>
       </c>
       <c r="B128" s="32"/>
-      <c r="C128" s="25" t="s">
+      <c r="C128" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D128" s="25" t="s">
@@ -2899,7 +2905,7 @@
         <v>32</v>
       </c>
       <c r="B129" s="32"/>
-      <c r="C129" s="24" t="s">
+      <c r="C129" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D129" s="24" t="s">
@@ -2916,7 +2922,7 @@
         <v>32</v>
       </c>
       <c r="B130" s="32"/>
-      <c r="C130" s="24" t="s">
+      <c r="C130" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D130" s="24" t="s">
@@ -2933,7 +2939,7 @@
         <v>32</v>
       </c>
       <c r="B131" s="32"/>
-      <c r="C131" s="25" t="s">
+      <c r="C131" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D131" s="25" t="s">
@@ -2950,7 +2956,7 @@
         <v>32</v>
       </c>
       <c r="B132" s="32"/>
-      <c r="C132" s="25" t="s">
+      <c r="C132" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D132" s="25" t="s">
@@ -2967,7 +2973,7 @@
         <v>32</v>
       </c>
       <c r="B133" s="32"/>
-      <c r="C133" s="25" t="s">
+      <c r="C133" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D133" s="25" t="s">
@@ -2984,7 +2990,7 @@
         <v>32</v>
       </c>
       <c r="B134" s="32"/>
-      <c r="C134" s="25" t="s">
+      <c r="C134" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D134" s="25" t="s">
@@ -3001,7 +3007,7 @@
         <v>32</v>
       </c>
       <c r="B135" s="32"/>
-      <c r="C135" s="25" t="s">
+      <c r="C135" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D135" s="25" t="s">
@@ -3018,7 +3024,7 @@
         <v>32</v>
       </c>
       <c r="B136" s="32"/>
-      <c r="C136" s="25" t="s">
+      <c r="C136" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D136" s="25" t="s">
@@ -3035,7 +3041,7 @@
         <v>32</v>
       </c>
       <c r="B137" s="32"/>
-      <c r="C137" s="25" t="s">
+      <c r="C137" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D137" s="25" t="s">
@@ -3052,7 +3058,7 @@
         <v>32</v>
       </c>
       <c r="B138" s="32"/>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D138" s="25" t="s">
@@ -3069,7 +3075,7 @@
         <v>32</v>
       </c>
       <c r="B139" s="32"/>
-      <c r="C139" s="25" t="s">
+      <c r="C139" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D139" s="25" t="s">
@@ -3086,7 +3092,7 @@
         <v>32</v>
       </c>
       <c r="B140" s="32"/>
-      <c r="C140" s="24" t="s">
+      <c r="C140" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D140" s="24" t="s">
@@ -3103,7 +3109,7 @@
         <v>32</v>
       </c>
       <c r="B141" s="32"/>
-      <c r="C141" s="24" t="s">
+      <c r="C141" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D141" s="24" t="s">
@@ -3118,7 +3124,7 @@
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="22"/>
       <c r="B142" s="32"/>
-      <c r="C142" s="25" t="s">
+      <c r="C142" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D142" s="25" t="s">
@@ -3135,7 +3141,7 @@
         <v>32</v>
       </c>
       <c r="B143" s="32"/>
-      <c r="C143" s="25" t="s">
+      <c r="C143" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D143" s="25" t="s">
@@ -3152,7 +3158,7 @@
         <v>32</v>
       </c>
       <c r="B144" s="32"/>
-      <c r="C144" s="25" t="s">
+      <c r="C144" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D144" s="25" t="s">
@@ -3169,7 +3175,7 @@
         <v>32</v>
       </c>
       <c r="B145" s="32"/>
-      <c r="C145" s="25" t="s">
+      <c r="C145" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D145" s="25" t="s">
@@ -3186,7 +3192,7 @@
         <v>32</v>
       </c>
       <c r="B146" s="32"/>
-      <c r="C146" s="25" t="s">
+      <c r="C146" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D146" s="25" t="s">
@@ -3203,7 +3209,7 @@
         <v>32</v>
       </c>
       <c r="B147" s="32"/>
-      <c r="C147" s="25" t="s">
+      <c r="C147" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D147" s="25" t="s">
@@ -3220,7 +3226,7 @@
         <v>32</v>
       </c>
       <c r="B148" s="32"/>
-      <c r="C148" s="25" t="s">
+      <c r="C148" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D148" s="25" t="s">
@@ -3237,7 +3243,7 @@
         <v>32</v>
       </c>
       <c r="B149" s="32"/>
-      <c r="C149" s="25" t="s">
+      <c r="C149" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D149" s="25" t="s">
@@ -3254,7 +3260,7 @@
         <v>32</v>
       </c>
       <c r="B150" s="32"/>
-      <c r="C150" s="25" t="s">
+      <c r="C150" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D150" s="25" t="s">
@@ -3271,7 +3277,7 @@
         <v>32</v>
       </c>
       <c r="B151" s="32"/>
-      <c r="C151" s="24" t="s">
+      <c r="C151" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D151" s="24" t="s">
@@ -3288,7 +3294,7 @@
         <v>32</v>
       </c>
       <c r="B152" s="32"/>
-      <c r="C152" s="24" t="s">
+      <c r="C152" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D152" s="24" t="s">
@@ -3305,7 +3311,7 @@
         <v>32</v>
       </c>
       <c r="B153" s="32"/>
-      <c r="C153" s="25" t="s">
+      <c r="C153" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D153" s="25" t="s">
@@ -3322,7 +3328,7 @@
         <v>32</v>
       </c>
       <c r="B154" s="32"/>
-      <c r="C154" s="25" t="s">
+      <c r="C154" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D154" s="25" t="s">
@@ -3339,7 +3345,7 @@
         <v>32</v>
       </c>
       <c r="B155" s="32"/>
-      <c r="C155" s="25" t="s">
+      <c r="C155" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D155" s="25" t="s">
@@ -3356,7 +3362,7 @@
         <v>32</v>
       </c>
       <c r="B156" s="32"/>
-      <c r="C156" s="25" t="s">
+      <c r="C156" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D156" s="25" t="s">
@@ -3373,7 +3379,7 @@
         <v>32</v>
       </c>
       <c r="B157" s="32"/>
-      <c r="C157" s="25" t="s">
+      <c r="C157" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D157" s="25" t="s">
@@ -3390,7 +3396,7 @@
         <v>32</v>
       </c>
       <c r="B158" s="32"/>
-      <c r="C158" s="25" t="s">
+      <c r="C158" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D158" s="25" t="s">
@@ -3407,7 +3413,7 @@
         <v>32</v>
       </c>
       <c r="B159" s="32"/>
-      <c r="C159" s="25" t="s">
+      <c r="C159" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D159" s="25" t="s">
@@ -3424,7 +3430,7 @@
         <v>32</v>
       </c>
       <c r="B160" s="32"/>
-      <c r="C160" s="25" t="s">
+      <c r="C160" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D160" s="25" t="s">
@@ -3441,7 +3447,7 @@
         <v>32</v>
       </c>
       <c r="B161" s="32"/>
-      <c r="C161" s="25" t="s">
+      <c r="C161" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D161" s="25" t="s">
@@ -3458,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B162" s="32"/>
-      <c r="C162" s="24" t="s">
+      <c r="C162" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D162" s="24" t="s">
@@ -3475,7 +3481,7 @@
         <v>32</v>
       </c>
       <c r="B163" s="32"/>
-      <c r="C163" s="24" t="s">
+      <c r="C163" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D163" s="24" t="s">
@@ -3492,7 +3498,7 @@
         <v>32</v>
       </c>
       <c r="B164" s="32"/>
-      <c r="C164" s="25" t="s">
+      <c r="C164" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D164" s="25" t="s">
@@ -3509,7 +3515,7 @@
         <v>32</v>
       </c>
       <c r="B165" s="32"/>
-      <c r="C165" s="25" t="s">
+      <c r="C165" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D165" s="25" t="s">
@@ -3526,7 +3532,7 @@
         <v>32</v>
       </c>
       <c r="B166" s="32"/>
-      <c r="C166" s="25" t="s">
+      <c r="C166" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D166" s="25" t="s">
@@ -3543,7 +3549,7 @@
         <v>32</v>
       </c>
       <c r="B167" s="32"/>
-      <c r="C167" s="25" t="s">
+      <c r="C167" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D167" s="25" t="s">
@@ -3560,7 +3566,7 @@
         <v>32</v>
       </c>
       <c r="B168" s="32"/>
-      <c r="C168" s="25" t="s">
+      <c r="C168" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D168" s="25" t="s">
@@ -3577,7 +3583,7 @@
         <v>32</v>
       </c>
       <c r="B169" s="32"/>
-      <c r="C169" s="25" t="s">
+      <c r="C169" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D169" s="25" t="s">
@@ -3594,7 +3600,7 @@
         <v>32</v>
       </c>
       <c r="B170" s="32"/>
-      <c r="C170" s="25" t="s">
+      <c r="C170" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D170" s="25" t="s">
@@ -3611,7 +3617,7 @@
         <v>32</v>
       </c>
       <c r="B171" s="32"/>
-      <c r="C171" s="25" t="s">
+      <c r="C171" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D171" s="25" t="s">
@@ -3628,7 +3634,7 @@
         <v>32</v>
       </c>
       <c r="B172" s="32"/>
-      <c r="C172" s="25" t="s">
+      <c r="C172" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D172" s="25" t="s">
@@ -3643,7 +3649,7 @@
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="22"/>
       <c r="B173" s="32"/>
-      <c r="C173" s="24" t="s">
+      <c r="C173" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D173" s="24" t="s">
@@ -3660,7 +3666,7 @@
         <v>32</v>
       </c>
       <c r="B174" s="32"/>
-      <c r="C174" s="24" t="s">
+      <c r="C174" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D174" s="24" t="s">
@@ -3677,7 +3683,7 @@
         <v>32</v>
       </c>
       <c r="B175" s="32"/>
-      <c r="C175" s="25" t="s">
+      <c r="C175" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D175" s="25" t="s">
@@ -3694,7 +3700,7 @@
         <v>32</v>
       </c>
       <c r="B176" s="32"/>
-      <c r="C176" s="25" t="s">
+      <c r="C176" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D176" s="25" t="s">
@@ -3711,7 +3717,7 @@
         <v>32</v>
       </c>
       <c r="B177" s="32"/>
-      <c r="C177" s="25" t="s">
+      <c r="C177" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D177" s="25" t="s">
@@ -3728,7 +3734,7 @@
         <v>32</v>
       </c>
       <c r="B178" s="32"/>
-      <c r="C178" s="25" t="s">
+      <c r="C178" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D178" s="25" t="s">
@@ -3745,7 +3751,7 @@
         <v>32</v>
       </c>
       <c r="B179" s="32"/>
-      <c r="C179" s="25" t="s">
+      <c r="C179" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D179" s="25" t="s">
@@ -3762,7 +3768,7 @@
         <v>32</v>
       </c>
       <c r="B180" s="32"/>
-      <c r="C180" s="25" t="s">
+      <c r="C180" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D180" s="25" t="s">
@@ -3779,7 +3785,7 @@
         <v>32</v>
       </c>
       <c r="B181" s="32"/>
-      <c r="C181" s="25" t="s">
+      <c r="C181" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D181" s="25" t="s">
@@ -3796,7 +3802,7 @@
         <v>32</v>
       </c>
       <c r="B182" s="32"/>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D182" s="25" t="s">
@@ -3813,7 +3819,7 @@
         <v>32</v>
       </c>
       <c r="B183" s="32"/>
-      <c r="C183" s="25" t="s">
+      <c r="C183" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D183" s="25" t="s">
@@ -3830,7 +3836,7 @@
         <v>32</v>
       </c>
       <c r="B184" s="32"/>
-      <c r="C184" s="24" t="s">
+      <c r="C184" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D184" s="24" t="s">
@@ -3847,7 +3853,7 @@
         <v>32</v>
       </c>
       <c r="B185" s="32"/>
-      <c r="C185" s="24" t="s">
+      <c r="C185" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D185" s="24" t="s">
@@ -3864,7 +3870,7 @@
         <v>32</v>
       </c>
       <c r="B186" s="32"/>
-      <c r="C186" s="25" t="s">
+      <c r="C186" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D186" s="25" t="s">
@@ -3881,7 +3887,7 @@
         <v>32</v>
       </c>
       <c r="B187" s="32"/>
-      <c r="C187" s="25" t="s">
+      <c r="C187" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D187" s="25" t="s">
@@ -3898,7 +3904,7 @@
         <v>32</v>
       </c>
       <c r="B188" s="32"/>
-      <c r="C188" s="25" t="s">
+      <c r="C188" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D188" s="25" t="s">
@@ -3915,7 +3921,7 @@
         <v>32</v>
       </c>
       <c r="B189" s="32"/>
-      <c r="C189" s="25" t="s">
+      <c r="C189" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D189" s="25" t="s">
@@ -3932,7 +3938,7 @@
         <v>32</v>
       </c>
       <c r="B190" s="32"/>
-      <c r="C190" s="25" t="s">
+      <c r="C190" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D190" s="25" t="s">
@@ -3949,7 +3955,7 @@
         <v>32</v>
       </c>
       <c r="B191" s="32"/>
-      <c r="C191" s="25" t="s">
+      <c r="C191" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D191" s="25" t="s">
@@ -3966,7 +3972,7 @@
         <v>32</v>
       </c>
       <c r="B192" s="32"/>
-      <c r="C192" s="25" t="s">
+      <c r="C192" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D192" s="25" t="s">
@@ -3983,7 +3989,7 @@
         <v>32</v>
       </c>
       <c r="B193" s="32"/>
-      <c r="C193" s="25" t="s">
+      <c r="C193" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D193" s="25" t="s">
@@ -4000,7 +4006,7 @@
         <v>32</v>
       </c>
       <c r="B194" s="32"/>
-      <c r="C194" s="25" t="s">
+      <c r="C194" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D194" s="25" t="s">
@@ -4017,7 +4023,7 @@
         <v>32</v>
       </c>
       <c r="B195" s="32"/>
-      <c r="C195" s="24" t="s">
+      <c r="C195" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D195" s="24" t="s">
@@ -4034,7 +4040,7 @@
         <v>32</v>
       </c>
       <c r="B196" s="32"/>
-      <c r="C196" s="24" t="s">
+      <c r="C196" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D196" s="24" t="s">
@@ -4051,7 +4057,7 @@
         <v>32</v>
       </c>
       <c r="B197" s="32"/>
-      <c r="C197" s="25" t="s">
+      <c r="C197" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D197" s="25" t="s">
@@ -4068,7 +4074,7 @@
         <v>32</v>
       </c>
       <c r="B198" s="32"/>
-      <c r="C198" s="25" t="s">
+      <c r="C198" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D198" s="25" t="s">
@@ -4085,7 +4091,7 @@
         <v>32</v>
       </c>
       <c r="B199" s="32"/>
-      <c r="C199" s="25" t="s">
+      <c r="C199" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D199" s="25" t="s">
@@ -4102,7 +4108,7 @@
         <v>32</v>
       </c>
       <c r="B200" s="32"/>
-      <c r="C200" s="25" t="s">
+      <c r="C200" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D200" s="25" t="s">
@@ -4119,7 +4125,7 @@
         <v>32</v>
       </c>
       <c r="B201" s="32"/>
-      <c r="C201" s="25" t="s">
+      <c r="C201" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D201" s="25" t="s">
@@ -4136,7 +4142,7 @@
         <v>32</v>
       </c>
       <c r="B202" s="32"/>
-      <c r="C202" s="25" t="s">
+      <c r="C202" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D202" s="25" t="s">
@@ -4153,7 +4159,7 @@
         <v>32</v>
       </c>
       <c r="B203" s="32"/>
-      <c r="C203" s="25" t="s">
+      <c r="C203" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D203" s="25" t="s">
@@ -4170,7 +4176,7 @@
         <v>32</v>
       </c>
       <c r="B204" s="32"/>
-      <c r="C204" s="25" t="s">
+      <c r="C204" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D204" s="25" t="s">
@@ -4187,7 +4193,7 @@
         <v>32</v>
       </c>
       <c r="B205" s="32"/>
-      <c r="C205" s="25" t="s">
+      <c r="C205" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D205" s="25" t="s">
@@ -4204,7 +4210,7 @@
         <v>32</v>
       </c>
       <c r="B206" s="32"/>
-      <c r="C206" s="24" t="s">
+      <c r="C206" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D206" s="24" t="s">
@@ -4221,7 +4227,7 @@
         <v>32</v>
       </c>
       <c r="B207" s="32"/>
-      <c r="C207" s="24" t="s">
+      <c r="C207" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D207" s="24" t="s">
@@ -4238,7 +4244,7 @@
         <v>32</v>
       </c>
       <c r="B208" s="32"/>
-      <c r="C208" s="25" t="s">
+      <c r="C208" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D208" s="25" t="s">
@@ -4255,7 +4261,7 @@
         <v>32</v>
       </c>
       <c r="B209" s="32"/>
-      <c r="C209" s="25" t="s">
+      <c r="C209" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D209" s="25" t="s">
@@ -4272,7 +4278,7 @@
         <v>32</v>
       </c>
       <c r="B210" s="32"/>
-      <c r="C210" s="25" t="s">
+      <c r="C210" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D210" s="25" t="s">
@@ -4289,7 +4295,7 @@
         <v>32</v>
       </c>
       <c r="B211" s="32"/>
-      <c r="C211" s="25" t="s">
+      <c r="C211" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D211" s="25" t="s">
@@ -4306,7 +4312,7 @@
         <v>32</v>
       </c>
       <c r="B212" s="32"/>
-      <c r="C212" s="25" t="s">
+      <c r="C212" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D212" s="25" t="s">
@@ -4323,7 +4329,7 @@
         <v>32</v>
       </c>
       <c r="B213" s="32"/>
-      <c r="C213" s="25" t="s">
+      <c r="C213" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D213" s="25" t="s">
@@ -4340,7 +4346,7 @@
         <v>32</v>
       </c>
       <c r="B214" s="32"/>
-      <c r="C214" s="25" t="s">
+      <c r="C214" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D214" s="25" t="s">
@@ -4357,7 +4363,7 @@
         <v>32</v>
       </c>
       <c r="B215" s="32"/>
-      <c r="C215" s="25" t="s">
+      <c r="C215" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D215" s="25" t="s">
@@ -4374,7 +4380,7 @@
         <v>32</v>
       </c>
       <c r="B216" s="32"/>
-      <c r="C216" s="25" t="s">
+      <c r="C216" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D216" s="25" t="s">
@@ -4391,7 +4397,7 @@
         <v>32</v>
       </c>
       <c r="B217" s="32"/>
-      <c r="C217" s="24" t="s">
+      <c r="C217" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D217" s="24" t="s">
@@ -4408,7 +4414,7 @@
         <v>32</v>
       </c>
       <c r="B218" s="32"/>
-      <c r="C218" s="24" t="s">
+      <c r="C218" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D218" s="24" t="s">
@@ -4425,7 +4431,7 @@
         <v>32</v>
       </c>
       <c r="B219" s="32"/>
-      <c r="C219" s="25" t="s">
+      <c r="C219" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D219" s="25" t="s">
@@ -4442,7 +4448,7 @@
         <v>32</v>
       </c>
       <c r="B220" s="32"/>
-      <c r="C220" s="25" t="s">
+      <c r="C220" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D220" s="25" t="s">
@@ -4459,7 +4465,7 @@
         <v>32</v>
       </c>
       <c r="B221" s="32"/>
-      <c r="C221" s="25" t="s">
+      <c r="C221" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D221" s="25" t="s">
@@ -4476,7 +4482,7 @@
         <v>32</v>
       </c>
       <c r="B222" s="32"/>
-      <c r="C222" s="25" t="s">
+      <c r="C222" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D222" s="25" t="s">
@@ -4493,7 +4499,7 @@
         <v>32</v>
       </c>
       <c r="B223" s="32"/>
-      <c r="C223" s="25" t="s">
+      <c r="C223" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D223" s="25" t="s">
@@ -4510,7 +4516,7 @@
         <v>32</v>
       </c>
       <c r="B224" s="32"/>
-      <c r="C224" s="25" t="s">
+      <c r="C224" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D224" s="25" t="s">
@@ -4527,7 +4533,7 @@
         <v>32</v>
       </c>
       <c r="B225" s="32"/>
-      <c r="C225" s="25" t="s">
+      <c r="C225" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D225" s="25" t="s">
@@ -4544,7 +4550,7 @@
         <v>32</v>
       </c>
       <c r="B226" s="32"/>
-      <c r="C226" s="25" t="s">
+      <c r="C226" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D226" s="25" t="s">
@@ -4561,7 +4567,7 @@
         <v>32</v>
       </c>
       <c r="B227" s="32"/>
-      <c r="C227" s="25" t="s">
+      <c r="C227" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D227" s="25" t="s">
@@ -4578,7 +4584,7 @@
         <v>32</v>
       </c>
       <c r="B228" s="32"/>
-      <c r="C228" s="24" t="s">
+      <c r="C228" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D228" s="24" t="s">
@@ -4595,7 +4601,7 @@
         <v>32</v>
       </c>
       <c r="B229" s="32"/>
-      <c r="C229" s="24" t="s">
+      <c r="C229" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D229" s="24" t="s">
@@ -4612,7 +4618,7 @@
         <v>32</v>
       </c>
       <c r="B230" s="32"/>
-      <c r="C230" s="25" t="s">
+      <c r="C230" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D230" s="25" t="s">
@@ -4629,7 +4635,7 @@
         <v>32</v>
       </c>
       <c r="B231" s="32"/>
-      <c r="C231" s="25" t="s">
+      <c r="C231" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D231" s="25" t="s">
@@ -4646,7 +4652,7 @@
         <v>32</v>
       </c>
       <c r="B232" s="32"/>
-      <c r="C232" s="25" t="s">
+      <c r="C232" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D232" s="25" t="s">
@@ -4661,7 +4667,7 @@
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="22"/>
       <c r="B233" s="32"/>
-      <c r="C233" s="25" t="s">
+      <c r="C233" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D233" s="25" t="s">
@@ -4678,7 +4684,7 @@
         <v>32</v>
       </c>
       <c r="B234" s="32"/>
-      <c r="C234" s="25" t="s">
+      <c r="C234" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D234" s="25" t="s">
@@ -4695,7 +4701,7 @@
         <v>32</v>
       </c>
       <c r="B235" s="32"/>
-      <c r="C235" s="25" t="s">
+      <c r="C235" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D235" s="25" t="s">
@@ -4712,7 +4718,7 @@
         <v>32</v>
       </c>
       <c r="B236" s="32"/>
-      <c r="C236" s="25" t="s">
+      <c r="C236" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D236" s="25" t="s">
@@ -4729,7 +4735,7 @@
         <v>32</v>
       </c>
       <c r="B237" s="32"/>
-      <c r="C237" s="25" t="s">
+      <c r="C237" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D237" s="25" t="s">
@@ -4746,7 +4752,7 @@
         <v>32</v>
       </c>
       <c r="B238" s="32"/>
-      <c r="C238" s="25" t="s">
+      <c r="C238" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D238" s="25" t="s">
@@ -4763,7 +4769,7 @@
         <v>32</v>
       </c>
       <c r="B239" s="32"/>
-      <c r="C239" s="24" t="s">
+      <c r="C239" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D239" s="24" t="s">
@@ -4780,7 +4786,7 @@
         <v>32</v>
       </c>
       <c r="B240" s="32"/>
-      <c r="C240" s="24" t="s">
+      <c r="C240" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D240" s="24" t="s">
@@ -4797,7 +4803,7 @@
         <v>32</v>
       </c>
       <c r="B241" s="32"/>
-      <c r="C241" s="25" t="s">
+      <c r="C241" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D241" s="25" t="s">
@@ -4814,7 +4820,7 @@
         <v>32</v>
       </c>
       <c r="B242" s="32"/>
-      <c r="C242" s="25" t="s">
+      <c r="C242" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D242" s="25" t="s">
@@ -4831,7 +4837,7 @@
         <v>32</v>
       </c>
       <c r="B243" s="32"/>
-      <c r="C243" s="25" t="s">
+      <c r="C243" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D243" s="25" t="s">
@@ -4848,7 +4854,7 @@
         <v>32</v>
       </c>
       <c r="B244" s="32"/>
-      <c r="C244" s="25" t="s">
+      <c r="C244" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D244" s="25" t="s">
@@ -4865,7 +4871,7 @@
         <v>32</v>
       </c>
       <c r="B245" s="32"/>
-      <c r="C245" s="25" t="s">
+      <c r="C245" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D245" s="25" t="s">
@@ -4882,7 +4888,7 @@
         <v>32</v>
       </c>
       <c r="B246" s="32"/>
-      <c r="C246" s="25" t="s">
+      <c r="C246" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D246" s="25" t="s">
@@ -4899,7 +4905,7 @@
         <v>32</v>
       </c>
       <c r="B247" s="32"/>
-      <c r="C247" s="25" t="s">
+      <c r="C247" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D247" s="25" t="s">
@@ -4916,7 +4922,7 @@
         <v>32</v>
       </c>
       <c r="B248" s="32"/>
-      <c r="C248" s="25" t="s">
+      <c r="C248" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D248" s="25" t="s">
@@ -4933,7 +4939,7 @@
         <v>32</v>
       </c>
       <c r="B249" s="32"/>
-      <c r="C249" s="25" t="s">
+      <c r="C249" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D249" s="25" t="s">
@@ -4950,7 +4956,7 @@
         <v>32</v>
       </c>
       <c r="B250" s="32"/>
-      <c r="C250" s="24" t="s">
+      <c r="C250" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D250" s="24" t="s">
@@ -4967,7 +4973,7 @@
         <v>32</v>
       </c>
       <c r="B251" s="32"/>
-      <c r="C251" s="24" t="s">
+      <c r="C251" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D251" s="24" t="s">
@@ -4984,7 +4990,7 @@
         <v>32</v>
       </c>
       <c r="B252" s="32"/>
-      <c r="C252" s="25" t="s">
+      <c r="C252" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D252" s="25" t="s">
@@ -5001,7 +5007,7 @@
         <v>32</v>
       </c>
       <c r="B253" s="32"/>
-      <c r="C253" s="25" t="s">
+      <c r="C253" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D253" s="25" t="s">
@@ -5018,7 +5024,7 @@
         <v>32</v>
       </c>
       <c r="B254" s="32"/>
-      <c r="C254" s="25" t="s">
+      <c r="C254" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D254" s="25" t="s">
@@ -5035,7 +5041,7 @@
         <v>32</v>
       </c>
       <c r="B255" s="32"/>
-      <c r="C255" s="25" t="s">
+      <c r="C255" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D255" s="25" t="s">
@@ -5052,7 +5058,7 @@
         <v>32</v>
       </c>
       <c r="B256" s="32"/>
-      <c r="C256" s="25" t="s">
+      <c r="C256" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D256" s="25" t="s">
@@ -5069,7 +5075,7 @@
         <v>32</v>
       </c>
       <c r="B257" s="32"/>
-      <c r="C257" s="25" t="s">
+      <c r="C257" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D257" s="25" t="s">
@@ -5086,7 +5092,7 @@
         <v>32</v>
       </c>
       <c r="B258" s="32"/>
-      <c r="C258" s="25" t="s">
+      <c r="C258" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D258" s="25" t="s">
@@ -5103,7 +5109,7 @@
         <v>32</v>
       </c>
       <c r="B259" s="32"/>
-      <c r="C259" s="25" t="s">
+      <c r="C259" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D259" s="25" t="s">
@@ -5120,7 +5126,7 @@
         <v>32</v>
       </c>
       <c r="B260" s="32"/>
-      <c r="C260" s="25" t="s">
+      <c r="C260" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D260" s="25" t="s">
@@ -5137,7 +5143,7 @@
         <v>32</v>
       </c>
       <c r="B261" s="32"/>
-      <c r="C261" s="24" t="s">
+      <c r="C261" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D261" s="24" t="s">
@@ -5154,7 +5160,7 @@
         <v>32</v>
       </c>
       <c r="B262" s="32"/>
-      <c r="C262" s="24" t="s">
+      <c r="C262" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D262" s="24" t="s">
@@ -5171,7 +5177,7 @@
         <v>32</v>
       </c>
       <c r="B263" s="32"/>
-      <c r="C263" s="25" t="s">
+      <c r="C263" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D263" s="25" t="s">
@@ -5186,7 +5192,7 @@
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="22"/>
       <c r="B264" s="32"/>
-      <c r="C264" s="25" t="s">
+      <c r="C264" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D264" s="25" t="s">
@@ -5203,7 +5209,7 @@
         <v>32</v>
       </c>
       <c r="B265" s="32"/>
-      <c r="C265" s="25" t="s">
+      <c r="C265" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D265" s="25" t="s">
@@ -5220,7 +5226,7 @@
         <v>32</v>
       </c>
       <c r="B266" s="32"/>
-      <c r="C266" s="25" t="s">
+      <c r="C266" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D266" s="25" t="s">
@@ -5237,7 +5243,7 @@
         <v>32</v>
       </c>
       <c r="B267" s="32"/>
-      <c r="C267" s="25" t="s">
+      <c r="C267" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D267" s="25" t="s">
@@ -5254,7 +5260,7 @@
         <v>32</v>
       </c>
       <c r="B268" s="32"/>
-      <c r="C268" s="25" t="s">
+      <c r="C268" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D268" s="25" t="s">
@@ -5271,7 +5277,7 @@
         <v>32</v>
       </c>
       <c r="B269" s="32"/>
-      <c r="C269" s="25" t="s">
+      <c r="C269" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D269" s="25" t="s">
@@ -5288,7 +5294,7 @@
         <v>32</v>
       </c>
       <c r="B270" s="32"/>
-      <c r="C270" s="25" t="s">
+      <c r="C270" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D270" s="25" t="s">
@@ -5305,7 +5311,7 @@
         <v>32</v>
       </c>
       <c r="B271" s="32"/>
-      <c r="C271" s="25" t="s">
+      <c r="C271" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D271" s="25" t="s">
@@ -5322,7 +5328,7 @@
         <v>32</v>
       </c>
       <c r="B272" s="32"/>
-      <c r="C272" s="24" t="s">
+      <c r="C272" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D272" s="24" t="s">
@@ -5339,7 +5345,7 @@
         <v>32</v>
       </c>
       <c r="B273" s="32"/>
-      <c r="C273" s="24" t="s">
+      <c r="C273" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D273" s="24" t="s">
@@ -5356,7 +5362,7 @@
         <v>32</v>
       </c>
       <c r="B274" s="32"/>
-      <c r="C274" s="25" t="s">
+      <c r="C274" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D274" s="25" t="s">
@@ -5373,7 +5379,7 @@
         <v>32</v>
       </c>
       <c r="B275" s="32"/>
-      <c r="C275" s="25" t="s">
+      <c r="C275" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D275" s="25" t="s">
@@ -5390,7 +5396,7 @@
         <v>32</v>
       </c>
       <c r="B276" s="32"/>
-      <c r="C276" s="25" t="s">
+      <c r="C276" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D276" s="25" t="s">
@@ -5407,7 +5413,7 @@
         <v>32</v>
       </c>
       <c r="B277" s="32"/>
-      <c r="C277" s="25" t="s">
+      <c r="C277" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D277" s="25" t="s">
@@ -5424,7 +5430,7 @@
         <v>32</v>
       </c>
       <c r="B278" s="32"/>
-      <c r="C278" s="25" t="s">
+      <c r="C278" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D278" s="25" t="s">
@@ -5441,7 +5447,7 @@
         <v>32</v>
       </c>
       <c r="B279" s="32"/>
-      <c r="C279" s="25" t="s">
+      <c r="C279" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D279" s="25" t="s">
@@ -5458,7 +5464,7 @@
         <v>32</v>
       </c>
       <c r="B280" s="32"/>
-      <c r="C280" s="25" t="s">
+      <c r="C280" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D280" s="25" t="s">
@@ -5475,7 +5481,7 @@
         <v>32</v>
       </c>
       <c r="B281" s="32"/>
-      <c r="C281" s="25" t="s">
+      <c r="C281" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D281" s="25" t="s">
@@ -5492,7 +5498,7 @@
         <v>32</v>
       </c>
       <c r="B282" s="32"/>
-      <c r="C282" s="25" t="s">
+      <c r="C282" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D282" s="25" t="s">
@@ -5509,7 +5515,7 @@
         <v>32</v>
       </c>
       <c r="B283" s="32"/>
-      <c r="C283" s="24" t="s">
+      <c r="C283" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D283" s="24" t="s">
@@ -5526,7 +5532,7 @@
         <v>32</v>
       </c>
       <c r="B284" s="32"/>
-      <c r="C284" s="24" t="s">
+      <c r="C284" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D284" s="24" t="s">
@@ -5543,7 +5549,7 @@
         <v>32</v>
       </c>
       <c r="B285" s="32"/>
-      <c r="C285" s="25" t="s">
+      <c r="C285" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D285" s="25" t="s">
@@ -5560,7 +5566,7 @@
         <v>32</v>
       </c>
       <c r="B286" s="32"/>
-      <c r="C286" s="25" t="s">
+      <c r="C286" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D286" s="25" t="s">
@@ -5577,7 +5583,7 @@
         <v>32</v>
       </c>
       <c r="B287" s="32"/>
-      <c r="C287" s="25" t="s">
+      <c r="C287" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D287" s="25" t="s">
@@ -5594,7 +5600,7 @@
         <v>32</v>
       </c>
       <c r="B288" s="32"/>
-      <c r="C288" s="25" t="s">
+      <c r="C288" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D288" s="25" t="s">
@@ -5611,7 +5617,7 @@
         <v>32</v>
       </c>
       <c r="B289" s="32"/>
-      <c r="C289" s="25" t="s">
+      <c r="C289" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D289" s="25" t="s">
@@ -5628,7 +5634,7 @@
         <v>32</v>
       </c>
       <c r="B290" s="32"/>
-      <c r="C290" s="25" t="s">
+      <c r="C290" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D290" s="25" t="s">
@@ -5645,7 +5651,7 @@
         <v>32</v>
       </c>
       <c r="B291" s="32"/>
-      <c r="C291" s="25" t="s">
+      <c r="C291" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D291" s="25" t="s">
@@ -5662,7 +5668,7 @@
         <v>32</v>
       </c>
       <c r="B292" s="32"/>
-      <c r="C292" s="25" t="s">
+      <c r="C292" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D292" s="25" t="s">
@@ -5679,7 +5685,7 @@
         <v>32</v>
       </c>
       <c r="B293" s="32"/>
-      <c r="C293" s="25" t="s">
+      <c r="C293" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D293" s="25" t="s">
@@ -5696,7 +5702,7 @@
         <v>32</v>
       </c>
       <c r="B294" s="32"/>
-      <c r="C294" s="24" t="s">
+      <c r="C294" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D294" s="24" t="s">
@@ -5711,7 +5717,7 @@
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="22"/>
       <c r="B295" s="32"/>
-      <c r="C295" s="24" t="s">
+      <c r="C295" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D295" s="24" t="s">
@@ -5728,7 +5734,7 @@
         <v>32</v>
       </c>
       <c r="B296" s="32"/>
-      <c r="C296" s="25" t="s">
+      <c r="C296" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D296" s="25" t="s">
@@ -5745,7 +5751,7 @@
         <v>32</v>
       </c>
       <c r="B297" s="32"/>
-      <c r="C297" s="25" t="s">
+      <c r="C297" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D297" s="25" t="s">
@@ -5762,7 +5768,7 @@
         <v>32</v>
       </c>
       <c r="B298" s="32"/>
-      <c r="C298" s="25" t="s">
+      <c r="C298" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D298" s="25" t="s">
@@ -5779,7 +5785,7 @@
         <v>32</v>
       </c>
       <c r="B299" s="32"/>
-      <c r="C299" s="25" t="s">
+      <c r="C299" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D299" s="25" t="s">
@@ -5796,7 +5802,7 @@
         <v>32</v>
       </c>
       <c r="B300" s="32"/>
-      <c r="C300" s="25" t="s">
+      <c r="C300" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D300" s="25" t="s">
@@ -5813,7 +5819,7 @@
         <v>32</v>
       </c>
       <c r="B301" s="32"/>
-      <c r="C301" s="25" t="s">
+      <c r="C301" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D301" s="25" t="s">
@@ -5830,7 +5836,7 @@
         <v>32</v>
       </c>
       <c r="B302" s="32"/>
-      <c r="C302" s="25" t="s">
+      <c r="C302" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D302" s="25" t="s">
@@ -5847,7 +5853,7 @@
         <v>32</v>
       </c>
       <c r="B303" s="32"/>
-      <c r="C303" s="25" t="s">
+      <c r="C303" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D303" s="25" t="s">
@@ -5864,7 +5870,7 @@
         <v>32</v>
       </c>
       <c r="B304" s="32"/>
-      <c r="C304" s="25" t="s">
+      <c r="C304" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D304" s="25" t="s">
@@ -5881,7 +5887,7 @@
         <v>32</v>
       </c>
       <c r="B305" s="32"/>
-      <c r="C305" s="24" t="s">
+      <c r="C305" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D305" s="24" t="s">
@@ -5898,7 +5904,7 @@
         <v>32</v>
       </c>
       <c r="B306" s="32"/>
-      <c r="C306" s="24" t="s">
+      <c r="C306" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D306" s="24" t="s">
@@ -5915,7 +5921,7 @@
         <v>32</v>
       </c>
       <c r="B307" s="32"/>
-      <c r="C307" s="25" t="s">
+      <c r="C307" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D307" s="25" t="s">
@@ -5932,7 +5938,7 @@
         <v>32</v>
       </c>
       <c r="B308" s="32"/>
-      <c r="C308" s="25" t="s">
+      <c r="C308" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D308" s="25" t="s">
@@ -5949,7 +5955,7 @@
         <v>32</v>
       </c>
       <c r="B309" s="32"/>
-      <c r="C309" s="25" t="s">
+      <c r="C309" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D309" s="25" t="s">
@@ -5966,7 +5972,7 @@
         <v>32</v>
       </c>
       <c r="B310" s="32"/>
-      <c r="C310" s="25" t="s">
+      <c r="C310" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D310" s="25" t="s">
@@ -5983,7 +5989,7 @@
         <v>32</v>
       </c>
       <c r="B311" s="32"/>
-      <c r="C311" s="25" t="s">
+      <c r="C311" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D311" s="25" t="s">
@@ -6000,7 +6006,7 @@
         <v>32</v>
       </c>
       <c r="B312" s="32"/>
-      <c r="C312" s="25" t="s">
+      <c r="C312" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D312" s="25" t="s">
@@ -6017,7 +6023,7 @@
         <v>32</v>
       </c>
       <c r="B313" s="32"/>
-      <c r="C313" s="25" t="s">
+      <c r="C313" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D313" s="25" t="s">
@@ -6034,7 +6040,7 @@
         <v>32</v>
       </c>
       <c r="B314" s="32"/>
-      <c r="C314" s="25" t="s">
+      <c r="C314" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D314" s="25" t="s">
@@ -6051,7 +6057,7 @@
         <v>32</v>
       </c>
       <c r="B315" s="32"/>
-      <c r="C315" s="25" t="s">
+      <c r="C315" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D315" s="25" t="s">
@@ -6068,7 +6074,7 @@
         <v>32</v>
       </c>
       <c r="B316" s="32"/>
-      <c r="C316" s="24" t="s">
+      <c r="C316" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D316" s="24" t="s">
@@ -6085,7 +6091,7 @@
         <v>32</v>
       </c>
       <c r="B317" s="32"/>
-      <c r="C317" s="24" t="s">
+      <c r="C317" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D317" s="24" t="s">
@@ -6102,7 +6108,7 @@
         <v>32</v>
       </c>
       <c r="B318" s="32"/>
-      <c r="C318" s="25" t="s">
+      <c r="C318" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D318" s="25" t="s">
@@ -6119,7 +6125,7 @@
         <v>32</v>
       </c>
       <c r="B319" s="32"/>
-      <c r="C319" s="25" t="s">
+      <c r="C319" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D319" s="25" t="s">
@@ -6136,7 +6142,7 @@
         <v>32</v>
       </c>
       <c r="B320" s="32"/>
-      <c r="C320" s="25" t="s">
+      <c r="C320" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D320" s="25" t="s">
@@ -6153,7 +6159,7 @@
         <v>32</v>
       </c>
       <c r="B321" s="32"/>
-      <c r="C321" s="25" t="s">
+      <c r="C321" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D321" s="25" t="s">
@@ -6170,7 +6176,7 @@
         <v>32</v>
       </c>
       <c r="B322" s="32"/>
-      <c r="C322" s="25" t="s">
+      <c r="C322" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D322" s="25" t="s">
@@ -6187,7 +6193,7 @@
         <v>32</v>
       </c>
       <c r="B323" s="32"/>
-      <c r="C323" s="25" t="s">
+      <c r="C323" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D323" s="25" t="s">
@@ -6204,7 +6210,7 @@
         <v>32</v>
       </c>
       <c r="B324" s="32"/>
-      <c r="C324" s="25" t="s">
+      <c r="C324" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D324" s="25" t="s">
@@ -6221,7 +6227,7 @@
         <v>32</v>
       </c>
       <c r="B325" s="32"/>
-      <c r="C325" s="25" t="s">
+      <c r="C325" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D325" s="25" t="s">
@@ -6236,7 +6242,7 @@
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="22"/>
       <c r="B326" s="32"/>
-      <c r="C326" s="25" t="s">
+      <c r="C326" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D326" s="25" t="s">
@@ -6253,7 +6259,7 @@
         <v>32</v>
       </c>
       <c r="B327" s="32"/>
-      <c r="C327" s="24" t="s">
+      <c r="C327" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D327" s="24" t="s">
@@ -6270,7 +6276,7 @@
         <v>32</v>
       </c>
       <c r="B328" s="32"/>
-      <c r="C328" s="24" t="s">
+      <c r="C328" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D328" s="24" t="s">
@@ -6287,7 +6293,7 @@
         <v>32</v>
       </c>
       <c r="B329" s="32"/>
-      <c r="C329" s="25" t="s">
+      <c r="C329" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D329" s="25" t="s">
@@ -6304,7 +6310,7 @@
         <v>32</v>
       </c>
       <c r="B330" s="32"/>
-      <c r="C330" s="25" t="s">
+      <c r="C330" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D330" s="25" t="s">
@@ -6321,7 +6327,7 @@
         <v>32</v>
       </c>
       <c r="B331" s="32"/>
-      <c r="C331" s="25" t="s">
+      <c r="C331" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D331" s="25" t="s">
@@ -6338,7 +6344,7 @@
         <v>32</v>
       </c>
       <c r="B332" s="32"/>
-      <c r="C332" s="25" t="s">
+      <c r="C332" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D332" s="25" t="s">
@@ -6355,7 +6361,7 @@
         <v>32</v>
       </c>
       <c r="B333" s="32"/>
-      <c r="C333" s="25" t="s">
+      <c r="C333" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D333" s="25" t="s">
@@ -6372,7 +6378,7 @@
         <v>32</v>
       </c>
       <c r="B334" s="32"/>
-      <c r="C334" s="25" t="s">
+      <c r="C334" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D334" s="25" t="s">
@@ -6389,7 +6395,7 @@
         <v>32</v>
       </c>
       <c r="B335" s="32"/>
-      <c r="C335" s="25" t="s">
+      <c r="C335" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D335" s="25" t="s">
@@ -6406,7 +6412,7 @@
         <v>32</v>
       </c>
       <c r="B336" s="32"/>
-      <c r="C336" s="25" t="s">
+      <c r="C336" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D336" s="25" t="s">
@@ -6423,7 +6429,7 @@
         <v>32</v>
       </c>
       <c r="B337" s="32"/>
-      <c r="C337" s="25" t="s">
+      <c r="C337" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D337" s="25" t="s">
@@ -6440,7 +6446,7 @@
         <v>32</v>
       </c>
       <c r="B338" s="32"/>
-      <c r="C338" s="24" t="s">
+      <c r="C338" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D338" s="24" t="s">
@@ -6457,7 +6463,7 @@
         <v>32</v>
       </c>
       <c r="B339" s="32"/>
-      <c r="C339" s="24" t="s">
+      <c r="C339" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D339" s="24" t="s">
@@ -6474,7 +6480,7 @@
         <v>32</v>
       </c>
       <c r="B340" s="32"/>
-      <c r="C340" s="25" t="s">
+      <c r="C340" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D340" s="25" t="s">
@@ -6491,7 +6497,7 @@
         <v>32</v>
       </c>
       <c r="B341" s="32"/>
-      <c r="C341" s="25" t="s">
+      <c r="C341" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D341" s="25" t="s">
@@ -6508,7 +6514,7 @@
         <v>32</v>
       </c>
       <c r="B342" s="32"/>
-      <c r="C342" s="25" t="s">
+      <c r="C342" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D342" s="25" t="s">
@@ -6525,7 +6531,7 @@
         <v>32</v>
       </c>
       <c r="B343" s="32"/>
-      <c r="C343" s="25" t="s">
+      <c r="C343" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D343" s="25" t="s">
@@ -6542,7 +6548,7 @@
         <v>32</v>
       </c>
       <c r="B344" s="32"/>
-      <c r="C344" s="25" t="s">
+      <c r="C344" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D344" s="25" t="s">
@@ -6559,7 +6565,7 @@
         <v>32</v>
       </c>
       <c r="B345" s="32"/>
-      <c r="C345" s="25" t="s">
+      <c r="C345" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D345" s="25" t="s">
@@ -6576,7 +6582,7 @@
         <v>32</v>
       </c>
       <c r="B346" s="32"/>
-      <c r="C346" s="25" t="s">
+      <c r="C346" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D346" s="25" t="s">
@@ -6593,7 +6599,7 @@
         <v>32</v>
       </c>
       <c r="B347" s="32"/>
-      <c r="C347" s="25" t="s">
+      <c r="C347" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D347" s="25" t="s">
@@ -6610,7 +6616,7 @@
         <v>32</v>
       </c>
       <c r="B348" s="32"/>
-      <c r="C348" s="25" t="s">
+      <c r="C348" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D348" s="25" t="s">
@@ -6627,7 +6633,7 @@
         <v>32</v>
       </c>
       <c r="B349" s="32"/>
-      <c r="C349" s="24" t="s">
+      <c r="C349" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D349" s="24" t="s">
@@ -6644,7 +6650,7 @@
         <v>32</v>
       </c>
       <c r="B350" s="32"/>
-      <c r="C350" s="24" t="s">
+      <c r="C350" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D350" s="24" t="s">
@@ -6661,7 +6667,7 @@
         <v>32</v>
       </c>
       <c r="B351" s="32"/>
-      <c r="C351" s="25" t="s">
+      <c r="C351" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D351" s="25" t="s">
@@ -6678,7 +6684,7 @@
         <v>32</v>
       </c>
       <c r="B352" s="32"/>
-      <c r="C352" s="25" t="s">
+      <c r="C352" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D352" s="25" t="s">
@@ -6695,7 +6701,7 @@
         <v>32</v>
       </c>
       <c r="B353" s="32"/>
-      <c r="C353" s="25" t="s">
+      <c r="C353" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D353" s="25" t="s">
@@ -6712,7 +6718,7 @@
         <v>32</v>
       </c>
       <c r="B354" s="32"/>
-      <c r="C354" s="25" t="s">
+      <c r="C354" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D354" s="25" t="s">
@@ -6729,7 +6735,7 @@
         <v>32</v>
       </c>
       <c r="B355" s="32"/>
-      <c r="C355" s="25" t="s">
+      <c r="C355" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D355" s="25" t="s">
@@ -6746,7 +6752,7 @@
         <v>32</v>
       </c>
       <c r="B356" s="32"/>
-      <c r="C356" s="25" t="s">
+      <c r="C356" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D356" s="25" t="s">
@@ -6761,7 +6767,7 @@
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" s="22"/>
       <c r="B357" s="32"/>
-      <c r="C357" s="25" t="s">
+      <c r="C357" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D357" s="25" t="s">
@@ -6778,7 +6784,7 @@
         <v>32</v>
       </c>
       <c r="B358" s="32"/>
-      <c r="C358" s="25" t="s">
+      <c r="C358" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D358" s="25" t="s">
@@ -6795,7 +6801,7 @@
         <v>32</v>
       </c>
       <c r="B359" s="32"/>
-      <c r="C359" s="25" t="s">
+      <c r="C359" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D359" s="25" t="s">
@@ -6812,7 +6818,7 @@
         <v>32</v>
       </c>
       <c r="B360" s="32"/>
-      <c r="C360" s="24" t="s">
+      <c r="C360" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D360" s="24" t="s">
@@ -6829,7 +6835,7 @@
         <v>32</v>
       </c>
       <c r="B361" s="32"/>
-      <c r="C361" s="24" t="s">
+      <c r="C361" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D361" s="24" t="s">
@@ -6846,7 +6852,7 @@
         <v>32</v>
       </c>
       <c r="B362" s="32"/>
-      <c r="C362" s="25" t="s">
+      <c r="C362" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D362" s="25" t="s">
@@ -6863,7 +6869,7 @@
         <v>32</v>
       </c>
       <c r="B363" s="32"/>
-      <c r="C363" s="24"/>
+      <c r="C363" s="32"/>
       <c r="D363" s="24"/>
       <c r="E363" s="22"/>
       <c r="F363" s="22"/>
@@ -6876,7 +6882,7 @@
         <v>32</v>
       </c>
       <c r="B364" s="32"/>
-      <c r="C364" s="24" t="s">
+      <c r="C364" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D364" s="24" t="s">
@@ -6893,7 +6899,7 @@
         <v>32</v>
       </c>
       <c r="B365" s="32"/>
-      <c r="C365" s="25" t="s">
+      <c r="C365" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D365" s="25" t="s">
@@ -6910,7 +6916,7 @@
         <v>32</v>
       </c>
       <c r="B366" s="32"/>
-      <c r="C366" s="25" t="s">
+      <c r="C366" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D366" s="25" t="s">
@@ -6927,7 +6933,7 @@
         <v>32</v>
       </c>
       <c r="B367" s="32"/>
-      <c r="C367" s="25" t="s">
+      <c r="C367" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D367" s="25" t="s">
@@ -6944,7 +6950,7 @@
         <v>32</v>
       </c>
       <c r="B368" s="32"/>
-      <c r="C368" s="25" t="s">
+      <c r="C368" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D368" s="25" t="s">
@@ -6961,7 +6967,7 @@
         <v>32</v>
       </c>
       <c r="B369" s="32"/>
-      <c r="C369" s="25" t="s">
+      <c r="C369" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D369" s="25" t="s">
@@ -6978,7 +6984,7 @@
         <v>32</v>
       </c>
       <c r="B370" s="32"/>
-      <c r="C370" s="25" t="s">
+      <c r="C370" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D370" s="25" t="s">
@@ -6995,7 +7001,7 @@
         <v>32</v>
       </c>
       <c r="B371" s="32"/>
-      <c r="C371" s="25" t="s">
+      <c r="C371" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D371" s="25" t="s">
@@ -7012,7 +7018,7 @@
         <v>32</v>
       </c>
       <c r="B372" s="32"/>
-      <c r="C372" s="25" t="s">
+      <c r="C372" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D372" s="25" t="s">
@@ -7029,7 +7035,7 @@
         <v>32</v>
       </c>
       <c r="B373" s="32"/>
-      <c r="C373" s="25" t="s">
+      <c r="C373" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D373" s="25" t="s">
@@ -7046,7 +7052,7 @@
         <v>32</v>
       </c>
       <c r="B374" s="32"/>
-      <c r="C374" s="24" t="s">
+      <c r="C374" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D374" s="24" t="s">
@@ -7063,7 +7069,7 @@
         <v>32</v>
       </c>
       <c r="B375" s="32"/>
-      <c r="C375" s="24" t="s">
+      <c r="C375" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D375" s="24" t="s">
@@ -7080,7 +7086,7 @@
         <v>32</v>
       </c>
       <c r="B376" s="32"/>
-      <c r="C376" s="25" t="s">
+      <c r="C376" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D376" s="25" t="s">
@@ -7097,7 +7103,7 @@
         <v>32</v>
       </c>
       <c r="B377" s="32"/>
-      <c r="C377" s="25" t="s">
+      <c r="C377" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D377" s="25" t="s">
@@ -7114,7 +7120,7 @@
         <v>32</v>
       </c>
       <c r="B378" s="32"/>
-      <c r="C378" s="25" t="s">
+      <c r="C378" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D378" s="25" t="s">
@@ -7131,7 +7137,7 @@
         <v>32</v>
       </c>
       <c r="B379" s="32"/>
-      <c r="C379" s="25" t="s">
+      <c r="C379" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D379" s="25" t="s">
@@ -7148,7 +7154,7 @@
         <v>32</v>
       </c>
       <c r="B380" s="32"/>
-      <c r="C380" s="25" t="s">
+      <c r="C380" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D380" s="25" t="s">
@@ -7165,7 +7171,7 @@
         <v>32</v>
       </c>
       <c r="B381" s="32"/>
-      <c r="C381" s="25" t="s">
+      <c r="C381" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D381" s="25" t="s">
@@ -7182,7 +7188,7 @@
         <v>32</v>
       </c>
       <c r="B382" s="32"/>
-      <c r="C382" s="25" t="s">
+      <c r="C382" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D382" s="25" t="s">
@@ -7199,7 +7205,7 @@
         <v>32</v>
       </c>
       <c r="B383" s="32"/>
-      <c r="C383" s="25" t="s">
+      <c r="C383" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D383" s="25" t="s">
@@ -7216,7 +7222,7 @@
         <v>32</v>
       </c>
       <c r="B384" s="32"/>
-      <c r="C384" s="25" t="s">
+      <c r="C384" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D384" s="25" t="s">
@@ -7233,7 +7239,7 @@
         <v>32</v>
       </c>
       <c r="B385" s="32"/>
-      <c r="C385" s="24" t="s">
+      <c r="C385" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D385" s="24" t="s">
@@ -7250,7 +7256,7 @@
         <v>32</v>
       </c>
       <c r="B386" s="32"/>
-      <c r="C386" s="24" t="s">
+      <c r="C386" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D386" s="24" t="s">
@@ -7267,7 +7273,7 @@
         <v>32</v>
       </c>
       <c r="B387" s="32"/>
-      <c r="C387" s="25" t="s">
+      <c r="C387" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D387" s="25" t="s">
@@ -7284,7 +7290,7 @@
         <v>32</v>
       </c>
       <c r="B388" s="32"/>
-      <c r="C388" s="25" t="s">
+      <c r="C388" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D388" s="25" t="s">
@@ -7301,7 +7307,7 @@
         <v>32</v>
       </c>
       <c r="B389" s="32"/>
-      <c r="C389" s="25" t="s">
+      <c r="C389" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D389" s="25" t="s">
@@ -7318,7 +7324,7 @@
         <v>32</v>
       </c>
       <c r="B390" s="32"/>
-      <c r="C390" s="25" t="s">
+      <c r="C390" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D390" s="25" t="s">
@@ -7335,7 +7341,7 @@
         <v>32</v>
       </c>
       <c r="B391" s="32"/>
-      <c r="C391" s="25" t="s">
+      <c r="C391" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D391" s="25" t="s">
@@ -7352,7 +7358,7 @@
         <v>32</v>
       </c>
       <c r="B392" s="32"/>
-      <c r="C392" s="25" t="s">
+      <c r="C392" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D392" s="25" t="s">
@@ -7369,7 +7375,7 @@
         <v>32</v>
       </c>
       <c r="B393" s="32"/>
-      <c r="C393" s="25" t="s">
+      <c r="C393" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D393" s="25" t="s">
@@ -7386,7 +7392,7 @@
         <v>32</v>
       </c>
       <c r="B394" s="32"/>
-      <c r="C394" s="25" t="s">
+      <c r="C394" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D394" s="25" t="s">
@@ -7403,7 +7409,7 @@
         <v>32</v>
       </c>
       <c r="B395" s="32"/>
-      <c r="C395" s="25" t="s">
+      <c r="C395" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D395" s="25" t="s">
@@ -7420,7 +7426,7 @@
         <v>32</v>
       </c>
       <c r="B396" s="32"/>
-      <c r="C396" s="24" t="s">
+      <c r="C396" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D396" s="24" t="s">
@@ -7437,7 +7443,7 @@
         <v>32</v>
       </c>
       <c r="B397" s="32"/>
-      <c r="C397" s="24" t="s">
+      <c r="C397" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D397" s="24" t="s">
@@ -7454,7 +7460,7 @@
         <v>32</v>
       </c>
       <c r="B398" s="32"/>
-      <c r="C398" s="25" t="s">
+      <c r="C398" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D398" s="25" t="s">
@@ -7471,7 +7477,7 @@
         <v>32</v>
       </c>
       <c r="B399" s="32"/>
-      <c r="C399" s="25" t="s">
+      <c r="C399" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D399" s="25" t="s">
@@ -7488,7 +7494,7 @@
         <v>32</v>
       </c>
       <c r="B400" s="32"/>
-      <c r="C400" s="25" t="s">
+      <c r="C400" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D400" s="25" t="s">
@@ -7505,7 +7511,7 @@
         <v>32</v>
       </c>
       <c r="B401" s="32"/>
-      <c r="C401" s="25" t="s">
+      <c r="C401" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D401" s="25" t="s">
@@ -7522,7 +7528,7 @@
         <v>32</v>
       </c>
       <c r="B402" s="32"/>
-      <c r="C402" s="25" t="s">
+      <c r="C402" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D402" s="25" t="s">
@@ -7539,7 +7545,7 @@
         <v>32</v>
       </c>
       <c r="B403" s="32"/>
-      <c r="C403" s="25" t="s">
+      <c r="C403" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D403" s="25" t="s">
@@ -7556,7 +7562,7 @@
         <v>32</v>
       </c>
       <c r="B404" s="32"/>
-      <c r="C404" s="25" t="s">
+      <c r="C404" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D404" s="25" t="s">
@@ -7573,7 +7579,7 @@
         <v>32</v>
       </c>
       <c r="B405" s="32"/>
-      <c r="C405" s="25" t="s">
+      <c r="C405" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D405" s="25" t="s">
@@ -7590,7 +7596,7 @@
         <v>32</v>
       </c>
       <c r="B406" s="32"/>
-      <c r="C406" s="25" t="s">
+      <c r="C406" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D406" s="25" t="s">
@@ -7607,7 +7613,7 @@
         <v>32</v>
       </c>
       <c r="B407" s="32"/>
-      <c r="C407" s="24" t="s">
+      <c r="C407" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D407" s="24" t="s">
@@ -7624,7 +7630,7 @@
         <v>32</v>
       </c>
       <c r="B408" s="32"/>
-      <c r="C408" s="24" t="s">
+      <c r="C408" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D408" s="24" t="s">
@@ -7641,7 +7647,7 @@
         <v>32</v>
       </c>
       <c r="B409" s="32"/>
-      <c r="C409" s="25" t="s">
+      <c r="C409" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D409" s="25" t="s">
@@ -7658,7 +7664,7 @@
         <v>32</v>
       </c>
       <c r="B410" s="32"/>
-      <c r="C410" s="25" t="s">
+      <c r="C410" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D410" s="25" t="s">
@@ -7675,7 +7681,7 @@
         <v>32</v>
       </c>
       <c r="B411" s="32"/>
-      <c r="C411" s="25" t="s">
+      <c r="C411" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D411" s="25" t="s">
@@ -7692,7 +7698,7 @@
         <v>32</v>
       </c>
       <c r="B412" s="32"/>
-      <c r="C412" s="25" t="s">
+      <c r="C412" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D412" s="25" t="s">
@@ -7709,7 +7715,7 @@
         <v>32</v>
       </c>
       <c r="B413" s="32"/>
-      <c r="C413" s="25" t="s">
+      <c r="C413" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D413" s="25" t="s">
@@ -7726,7 +7732,7 @@
         <v>32</v>
       </c>
       <c r="B414" s="32"/>
-      <c r="C414" s="25" t="s">
+      <c r="C414" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D414" s="25" t="s">
@@ -7743,7 +7749,7 @@
         <v>32</v>
       </c>
       <c r="B415" s="32"/>
-      <c r="C415" s="25" t="s">
+      <c r="C415" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D415" s="25" t="s">
@@ -7760,7 +7766,7 @@
         <v>32</v>
       </c>
       <c r="B416" s="32"/>
-      <c r="C416" s="25" t="s">
+      <c r="C416" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D416" s="25" t="s">
@@ -7775,7 +7781,7 @@
     <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" s="22"/>
       <c r="B417" s="32"/>
-      <c r="C417" s="25" t="s">
+      <c r="C417" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D417" s="25" t="s">
@@ -7792,7 +7798,7 @@
         <v>32</v>
       </c>
       <c r="B418" s="32"/>
-      <c r="C418" s="24" t="s">
+      <c r="C418" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D418" s="24" t="s">
@@ -7809,7 +7815,7 @@
         <v>32</v>
       </c>
       <c r="B419" s="32"/>
-      <c r="C419" s="24" t="s">
+      <c r="C419" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D419" s="24" t="s">
@@ -7826,7 +7832,7 @@
         <v>32</v>
       </c>
       <c r="B420" s="32"/>
-      <c r="C420" s="25" t="s">
+      <c r="C420" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D420" s="25" t="s">
@@ -7843,7 +7849,7 @@
         <v>32</v>
       </c>
       <c r="B421" s="32"/>
-      <c r="C421" s="25" t="s">
+      <c r="C421" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D421" s="25" t="s">
@@ -7860,7 +7866,7 @@
         <v>32</v>
       </c>
       <c r="B422" s="32"/>
-      <c r="C422" s="25" t="s">
+      <c r="C422" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D422" s="25" t="s">
@@ -7877,7 +7883,7 @@
         <v>32</v>
       </c>
       <c r="B423" s="32"/>
-      <c r="C423" s="25" t="s">
+      <c r="C423" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D423" s="25" t="s">
@@ -7894,7 +7900,7 @@
         <v>32</v>
       </c>
       <c r="B424" s="32"/>
-      <c r="C424" s="25" t="s">
+      <c r="C424" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D424" s="25" t="s">
@@ -7911,7 +7917,7 @@
         <v>32</v>
       </c>
       <c r="B425" s="32"/>
-      <c r="C425" s="25" t="s">
+      <c r="C425" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D425" s="25" t="s">
@@ -7928,7 +7934,7 @@
         <v>32</v>
       </c>
       <c r="B426" s="32"/>
-      <c r="C426" s="25" t="s">
+      <c r="C426" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D426" s="25" t="s">
@@ -7945,7 +7951,7 @@
         <v>32</v>
       </c>
       <c r="B427" s="32"/>
-      <c r="C427" s="25" t="s">
+      <c r="C427" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D427" s="25" t="s">
@@ -7962,7 +7968,7 @@
         <v>32</v>
       </c>
       <c r="B428" s="32"/>
-      <c r="C428" s="25" t="s">
+      <c r="C428" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D428" s="25" t="s">
@@ -7979,7 +7985,7 @@
         <v>32</v>
       </c>
       <c r="B429" s="32"/>
-      <c r="C429" s="24" t="s">
+      <c r="C429" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D429" s="24" t="s">
@@ -7996,7 +8002,7 @@
         <v>32</v>
       </c>
       <c r="B430" s="32"/>
-      <c r="C430" s="24" t="s">
+      <c r="C430" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D430" s="24" t="s">
@@ -8013,7 +8019,7 @@
         <v>32</v>
       </c>
       <c r="B431" s="32"/>
-      <c r="C431" s="25" t="s">
+      <c r="C431" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D431" s="25" t="s">
@@ -8030,7 +8036,7 @@
         <v>32</v>
       </c>
       <c r="B432" s="32"/>
-      <c r="C432" s="25" t="s">
+      <c r="C432" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D432" s="25" t="s">
@@ -8047,7 +8053,7 @@
         <v>32</v>
       </c>
       <c r="B433" s="32"/>
-      <c r="C433" s="25" t="s">
+      <c r="C433" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D433" s="25" t="s">
@@ -8064,7 +8070,7 @@
         <v>32</v>
       </c>
       <c r="B434" s="32"/>
-      <c r="C434" s="25" t="s">
+      <c r="C434" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D434" s="25" t="s">
@@ -8081,7 +8087,7 @@
         <v>32</v>
       </c>
       <c r="B435" s="32"/>
-      <c r="C435" s="25" t="s">
+      <c r="C435" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D435" s="25" t="s">
@@ -8098,7 +8104,7 @@
         <v>32</v>
       </c>
       <c r="B436" s="32"/>
-      <c r="C436" s="25" t="s">
+      <c r="C436" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D436" s="25" t="s">
@@ -8115,7 +8121,7 @@
         <v>32</v>
       </c>
       <c r="B437" s="32"/>
-      <c r="C437" s="25" t="s">
+      <c r="C437" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D437" s="25" t="s">
@@ -8132,7 +8138,7 @@
         <v>32</v>
       </c>
       <c r="B438" s="32"/>
-      <c r="C438" s="25" t="s">
+      <c r="C438" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D438" s="25" t="s">
@@ -8149,7 +8155,7 @@
         <v>32</v>
       </c>
       <c r="B439" s="32"/>
-      <c r="C439" s="25" t="s">
+      <c r="C439" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D439" s="25" t="s">
@@ -8166,7 +8172,7 @@
         <v>32</v>
       </c>
       <c r="B440" s="32"/>
-      <c r="C440" s="24" t="s">
+      <c r="C440" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D440" s="24" t="s">
@@ -8183,7 +8189,7 @@
         <v>32</v>
       </c>
       <c r="B441" s="32"/>
-      <c r="C441" s="24" t="s">
+      <c r="C441" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D441" s="24" t="s">
@@ -8200,7 +8206,7 @@
         <v>32</v>
       </c>
       <c r="B442" s="32"/>
-      <c r="C442" s="25" t="s">
+      <c r="C442" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D442" s="25" t="s">
@@ -8217,7 +8223,7 @@
         <v>32</v>
       </c>
       <c r="B443" s="32"/>
-      <c r="C443" s="25" t="s">
+      <c r="C443" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D443" s="25" t="s">
@@ -8234,7 +8240,7 @@
         <v>32</v>
       </c>
       <c r="B444" s="32"/>
-      <c r="C444" s="25" t="s">
+      <c r="C444" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D444" s="25" t="s">
@@ -8251,7 +8257,7 @@
         <v>32</v>
       </c>
       <c r="B445" s="32"/>
-      <c r="C445" s="25" t="s">
+      <c r="C445" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D445" s="25" t="s">
@@ -8268,7 +8274,7 @@
         <v>32</v>
       </c>
       <c r="B446" s="32"/>
-      <c r="C446" s="25" t="s">
+      <c r="C446" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D446" s="25" t="s">
@@ -8285,7 +8291,7 @@
         <v>32</v>
       </c>
       <c r="B447" s="32"/>
-      <c r="C447" s="25" t="s">
+      <c r="C447" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D447" s="25" t="s">
@@ -8300,7 +8306,7 @@
     <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" s="22"/>
       <c r="B448" s="32"/>
-      <c r="C448" s="25" t="s">
+      <c r="C448" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D448" s="25" t="s">
@@ -8317,7 +8323,7 @@
         <v>32</v>
       </c>
       <c r="B449" s="32"/>
-      <c r="C449" s="25" t="s">
+      <c r="C449" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D449" s="25" t="s">
@@ -8334,7 +8340,7 @@
         <v>32</v>
       </c>
       <c r="B450" s="32"/>
-      <c r="C450" s="25" t="s">
+      <c r="C450" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D450" s="25" t="s">
@@ -8351,7 +8357,7 @@
         <v>32</v>
       </c>
       <c r="B451" s="32"/>
-      <c r="C451" s="24" t="s">
+      <c r="C451" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D451" s="24" t="s">
@@ -8368,7 +8374,7 @@
         <v>32</v>
       </c>
       <c r="B452" s="32"/>
-      <c r="C452" s="24" t="s">
+      <c r="C452" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D452" s="24" t="s">
@@ -8385,7 +8391,7 @@
         <v>32</v>
       </c>
       <c r="B453" s="32"/>
-      <c r="C453" s="25" t="s">
+      <c r="C453" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D453" s="25" t="s">
@@ -8402,7 +8408,7 @@
         <v>32</v>
       </c>
       <c r="B454" s="32"/>
-      <c r="C454" s="25" t="s">
+      <c r="C454" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D454" s="25" t="s">
@@ -8419,7 +8425,7 @@
         <v>32</v>
       </c>
       <c r="B455" s="32"/>
-      <c r="C455" s="25" t="s">
+      <c r="C455" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D455" s="25" t="s">
@@ -8436,7 +8442,7 @@
         <v>32</v>
       </c>
       <c r="B456" s="32"/>
-      <c r="C456" s="25" t="s">
+      <c r="C456" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D456" s="25" t="s">
@@ -8453,7 +8459,7 @@
         <v>32</v>
       </c>
       <c r="B457" s="32"/>
-      <c r="C457" s="25" t="s">
+      <c r="C457" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D457" s="25" t="s">
@@ -8470,7 +8476,7 @@
         <v>32</v>
       </c>
       <c r="B458" s="32"/>
-      <c r="C458" s="25" t="s">
+      <c r="C458" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D458" s="25" t="s">
@@ -8487,7 +8493,7 @@
         <v>32</v>
       </c>
       <c r="B459" s="32"/>
-      <c r="C459" s="25" t="s">
+      <c r="C459" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D459" s="25" t="s">
@@ -8504,7 +8510,7 @@
         <v>32</v>
       </c>
       <c r="B460" s="32"/>
-      <c r="C460" s="25" t="s">
+      <c r="C460" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D460" s="25" t="s">
@@ -8521,7 +8527,7 @@
         <v>32</v>
       </c>
       <c r="B461" s="32"/>
-      <c r="C461" s="25" t="s">
+      <c r="C461" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D461" s="25" t="s">
@@ -8538,7 +8544,7 @@
         <v>32</v>
       </c>
       <c r="B462" s="32"/>
-      <c r="C462" s="24" t="s">
+      <c r="C462" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D462" s="24" t="s">
@@ -8555,7 +8561,7 @@
         <v>32</v>
       </c>
       <c r="B463" s="32"/>
-      <c r="C463" s="24" t="s">
+      <c r="C463" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D463" s="24" t="s">
@@ -8572,7 +8578,7 @@
         <v>32</v>
       </c>
       <c r="B464" s="32"/>
-      <c r="C464" s="25" t="s">
+      <c r="C464" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D464" s="25" t="s">
@@ -8589,7 +8595,7 @@
         <v>32</v>
       </c>
       <c r="B465" s="32"/>
-      <c r="C465" s="25" t="s">
+      <c r="C465" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D465" s="25" t="s">
@@ -8606,7 +8612,7 @@
         <v>32</v>
       </c>
       <c r="B466" s="32"/>
-      <c r="C466" s="25" t="s">
+      <c r="C466" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D466" s="25" t="s">
@@ -8623,7 +8629,7 @@
         <v>32</v>
       </c>
       <c r="B467" s="32"/>
-      <c r="C467" s="25" t="s">
+      <c r="C467" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D467" s="25" t="s">
@@ -8640,7 +8646,7 @@
         <v>32</v>
       </c>
       <c r="B468" s="32"/>
-      <c r="C468" s="25" t="s">
+      <c r="C468" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D468" s="25" t="s">
@@ -8657,7 +8663,7 @@
         <v>32</v>
       </c>
       <c r="B469" s="32"/>
-      <c r="C469" s="25" t="s">
+      <c r="C469" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D469" s="25" t="s">
@@ -8674,7 +8680,7 @@
         <v>32</v>
       </c>
       <c r="B470" s="32"/>
-      <c r="C470" s="25" t="s">
+      <c r="C470" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D470" s="25" t="s">
@@ -8691,7 +8697,7 @@
         <v>32</v>
       </c>
       <c r="B471" s="32"/>
-      <c r="C471" s="25" t="s">
+      <c r="C471" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D471" s="25" t="s">
@@ -8708,7 +8714,7 @@
         <v>32</v>
       </c>
       <c r="B472" s="32"/>
-      <c r="C472" s="25" t="s">
+      <c r="C472" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D472" s="25" t="s">
@@ -8725,7 +8731,7 @@
         <v>32</v>
       </c>
       <c r="B473" s="32"/>
-      <c r="C473" s="24" t="s">
+      <c r="C473" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D473" s="24" t="s">
@@ -8742,7 +8748,7 @@
         <v>32</v>
       </c>
       <c r="B474" s="32"/>
-      <c r="C474" s="24" t="s">
+      <c r="C474" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D474" s="24" t="s">
@@ -8759,7 +8765,7 @@
         <v>32</v>
       </c>
       <c r="B475" s="32"/>
-      <c r="C475" s="25" t="s">
+      <c r="C475" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D475" s="25" t="s">
@@ -8776,7 +8782,7 @@
         <v>32</v>
       </c>
       <c r="B476" s="32"/>
-      <c r="C476" s="25" t="s">
+      <c r="C476" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D476" s="25" t="s">
@@ -8793,7 +8799,7 @@
         <v>32</v>
       </c>
       <c r="B477" s="32"/>
-      <c r="C477" s="25" t="s">
+      <c r="C477" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D477" s="25" t="s">
@@ -8810,7 +8816,7 @@
         <v>32</v>
       </c>
       <c r="B478" s="32"/>
-      <c r="C478" s="25" t="s">
+      <c r="C478" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D478" s="25" t="s">
@@ -8825,7 +8831,7 @@
     <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" s="22"/>
       <c r="B479" s="32"/>
-      <c r="C479" s="25" t="s">
+      <c r="C479" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D479" s="25" t="s">
@@ -8842,7 +8848,7 @@
         <v>32</v>
       </c>
       <c r="B480" s="32"/>
-      <c r="C480" s="25" t="s">
+      <c r="C480" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D480" s="25" t="s">
@@ -8859,7 +8865,7 @@
         <v>32</v>
       </c>
       <c r="B481" s="32"/>
-      <c r="C481" s="25" t="s">
+      <c r="C481" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D481" s="25" t="s">
@@ -8876,7 +8882,7 @@
         <v>32</v>
       </c>
       <c r="B482" s="32"/>
-      <c r="C482" s="25" t="s">
+      <c r="C482" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D482" s="25" t="s">
@@ -8893,7 +8899,7 @@
         <v>32</v>
       </c>
       <c r="B483" s="32"/>
-      <c r="C483" s="25" t="s">
+      <c r="C483" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D483" s="25" t="s">
@@ -8910,7 +8916,7 @@
         <v>32</v>
       </c>
       <c r="B484" s="32"/>
-      <c r="C484" s="24" t="s">
+      <c r="C484" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D484" s="24" t="s">
@@ -8927,7 +8933,7 @@
         <v>32</v>
       </c>
       <c r="B485" s="32"/>
-      <c r="C485" s="24" t="s">
+      <c r="C485" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D485" s="24" t="s">
@@ -8944,7 +8950,7 @@
         <v>32</v>
       </c>
       <c r="B486" s="32"/>
-      <c r="C486" s="25" t="s">
+      <c r="C486" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D486" s="25" t="s">
@@ -8961,7 +8967,7 @@
         <v>32</v>
       </c>
       <c r="B487" s="32"/>
-      <c r="C487" s="25" t="s">
+      <c r="C487" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D487" s="25" t="s">
@@ -8978,7 +8984,7 @@
         <v>32</v>
       </c>
       <c r="B488" s="32"/>
-      <c r="C488" s="25" t="s">
+      <c r="C488" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D488" s="25" t="s">
@@ -8995,7 +9001,7 @@
         <v>32</v>
       </c>
       <c r="B489" s="32"/>
-      <c r="C489" s="25" t="s">
+      <c r="C489" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D489" s="25" t="s">
@@ -9012,7 +9018,7 @@
         <v>32</v>
       </c>
       <c r="B490" s="32"/>
-      <c r="C490" s="25" t="s">
+      <c r="C490" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D490" s="25" t="s">
@@ -9029,7 +9035,7 @@
         <v>32</v>
       </c>
       <c r="B491" s="32"/>
-      <c r="C491" s="25" t="s">
+      <c r="C491" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D491" s="25" t="s">
@@ -9046,7 +9052,7 @@
         <v>32</v>
       </c>
       <c r="B492" s="32"/>
-      <c r="C492" s="25" t="s">
+      <c r="C492" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D492" s="25" t="s">
@@ -9063,7 +9069,7 @@
         <v>32</v>
       </c>
       <c r="B493" s="32"/>
-      <c r="C493" s="25" t="s">
+      <c r="C493" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D493" s="25" t="s">
@@ -9080,7 +9086,7 @@
         <v>32</v>
       </c>
       <c r="B494" s="32"/>
-      <c r="C494" s="25" t="s">
+      <c r="C494" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D494" s="25" t="s">
@@ -9097,7 +9103,7 @@
         <v>32</v>
       </c>
       <c r="B495" s="32"/>
-      <c r="C495" s="24" t="s">
+      <c r="C495" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D495" s="24" t="s">
@@ -9114,7 +9120,7 @@
         <v>32</v>
       </c>
       <c r="B496" s="32"/>
-      <c r="C496" s="24" t="s">
+      <c r="C496" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D496" s="24" t="s">
@@ -9131,7 +9137,7 @@
         <v>32</v>
       </c>
       <c r="B497" s="32"/>
-      <c r="C497" s="25" t="s">
+      <c r="C497" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D497" s="25" t="s">
@@ -9148,7 +9154,7 @@
         <v>32</v>
       </c>
       <c r="B498" s="32"/>
-      <c r="C498" s="25" t="s">
+      <c r="C498" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D498" s="25" t="s">
@@ -9165,7 +9171,7 @@
         <v>32</v>
       </c>
       <c r="B499" s="32"/>
-      <c r="C499" s="25" t="s">
+      <c r="C499" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D499" s="25" t="s">
@@ -9182,7 +9188,7 @@
         <v>32</v>
       </c>
       <c r="B500" s="32"/>
-      <c r="C500" s="25" t="s">
+      <c r="C500" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D500" s="25" t="s">
@@ -9199,7 +9205,7 @@
         <v>32</v>
       </c>
       <c r="B501" s="32"/>
-      <c r="C501" s="25" t="s">
+      <c r="C501" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D501" s="25" t="s">
@@ -9216,7 +9222,7 @@
         <v>32</v>
       </c>
       <c r="B502" s="32"/>
-      <c r="C502" s="25" t="s">
+      <c r="C502" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D502" s="25" t="s">
@@ -9233,7 +9239,7 @@
         <v>32</v>
       </c>
       <c r="B503" s="32"/>
-      <c r="C503" s="25" t="s">
+      <c r="C503" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D503" s="25" t="s">
@@ -9250,7 +9256,7 @@
         <v>32</v>
       </c>
       <c r="B504" s="32"/>
-      <c r="C504" s="25" t="s">
+      <c r="C504" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D504" s="25" t="s">
@@ -9267,7 +9273,7 @@
         <v>32</v>
       </c>
       <c r="B505" s="32"/>
-      <c r="C505" s="25" t="s">
+      <c r="C505" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D505" s="25" t="s">
@@ -9284,7 +9290,7 @@
         <v>32</v>
       </c>
       <c r="B506" s="32"/>
-      <c r="C506" s="24" t="s">
+      <c r="C506" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D506" s="24" t="s">
@@ -9301,7 +9307,7 @@
         <v>32</v>
       </c>
       <c r="B507" s="32"/>
-      <c r="C507" s="24" t="s">
+      <c r="C507" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D507" s="24" t="s">
@@ -9318,7 +9324,7 @@
         <v>32</v>
       </c>
       <c r="B508" s="32"/>
-      <c r="C508" s="25" t="s">
+      <c r="C508" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D508" s="25" t="s">
@@ -9335,7 +9341,7 @@
         <v>32</v>
       </c>
       <c r="B509" s="32"/>
-      <c r="C509" s="25" t="s">
+      <c r="C509" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D509" s="25" t="s">
@@ -9350,7 +9356,7 @@
     <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" s="22"/>
       <c r="B510" s="32"/>
-      <c r="C510" s="25" t="s">
+      <c r="C510" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D510" s="25" t="s">
@@ -9367,7 +9373,7 @@
         <v>32</v>
       </c>
       <c r="B511" s="32"/>
-      <c r="C511" s="25" t="s">
+      <c r="C511" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D511" s="25" t="s">
@@ -9384,7 +9390,7 @@
         <v>32</v>
       </c>
       <c r="B512" s="32"/>
-      <c r="C512" s="25" t="s">
+      <c r="C512" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D512" s="25" t="s">
@@ -9401,7 +9407,7 @@
         <v>32</v>
       </c>
       <c r="B513" s="32"/>
-      <c r="C513" s="25" t="s">
+      <c r="C513" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D513" s="25" t="s">
@@ -9418,7 +9424,7 @@
         <v>32</v>
       </c>
       <c r="B514" s="32"/>
-      <c r="C514" s="25" t="s">
+      <c r="C514" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D514" s="25" t="s">
@@ -9435,7 +9441,7 @@
         <v>32</v>
       </c>
       <c r="B515" s="32"/>
-      <c r="C515" s="25" t="s">
+      <c r="C515" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D515" s="25" t="s">
@@ -9452,7 +9458,7 @@
         <v>32</v>
       </c>
       <c r="B516" s="32"/>
-      <c r="C516" s="25" t="s">
+      <c r="C516" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D516" s="25" t="s">
@@ -9469,7 +9475,7 @@
         <v>32</v>
       </c>
       <c r="B517" s="32"/>
-      <c r="C517" s="24" t="s">
+      <c r="C517" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D517" s="24" t="s">
@@ -9486,7 +9492,7 @@
         <v>32</v>
       </c>
       <c r="B518" s="32"/>
-      <c r="C518" s="24" t="s">
+      <c r="C518" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D518" s="24" t="s">
@@ -9503,7 +9509,7 @@
         <v>32</v>
       </c>
       <c r="B519" s="32"/>
-      <c r="C519" s="25" t="s">
+      <c r="C519" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D519" s="25" t="s">
@@ -9520,7 +9526,7 @@
         <v>32</v>
       </c>
       <c r="B520" s="32"/>
-      <c r="C520" s="25" t="s">
+      <c r="C520" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D520" s="25" t="s">
@@ -9537,7 +9543,7 @@
         <v>32</v>
       </c>
       <c r="B521" s="32"/>
-      <c r="C521" s="25" t="s">
+      <c r="C521" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D521" s="25" t="s">
@@ -9554,7 +9560,7 @@
         <v>32</v>
       </c>
       <c r="B522" s="32"/>
-      <c r="C522" s="25" t="s">
+      <c r="C522" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D522" s="25" t="s">
@@ -9571,7 +9577,7 @@
         <v>32</v>
       </c>
       <c r="B523" s="32"/>
-      <c r="C523" s="25" t="s">
+      <c r="C523" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D523" s="25" t="s">
@@ -9588,7 +9594,7 @@
         <v>32</v>
       </c>
       <c r="B524" s="32"/>
-      <c r="C524" s="25" t="s">
+      <c r="C524" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D524" s="25" t="s">
@@ -9605,7 +9611,7 @@
         <v>32</v>
       </c>
       <c r="B525" s="32"/>
-      <c r="C525" s="25" t="s">
+      <c r="C525" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D525" s="25" t="s">
@@ -9622,7 +9628,7 @@
         <v>32</v>
       </c>
       <c r="B526" s="32"/>
-      <c r="C526" s="25" t="s">
+      <c r="C526" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D526" s="25" t="s">
@@ -9639,7 +9645,7 @@
         <v>32</v>
       </c>
       <c r="B527" s="32"/>
-      <c r="C527" s="25" t="s">
+      <c r="C527" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D527" s="25" t="s">
@@ -9656,7 +9662,7 @@
         <v>32</v>
       </c>
       <c r="B528" s="32"/>
-      <c r="C528" s="24" t="s">
+      <c r="C528" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D528" s="24" t="s">
@@ -9673,7 +9679,7 @@
         <v>32</v>
       </c>
       <c r="B529" s="32"/>
-      <c r="C529" s="24" t="s">
+      <c r="C529" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D529" s="24" t="s">
@@ -9690,7 +9696,7 @@
         <v>32</v>
       </c>
       <c r="B530" s="32"/>
-      <c r="C530" s="25" t="s">
+      <c r="C530" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D530" s="25" t="s">
@@ -9707,7 +9713,7 @@
         <v>32</v>
       </c>
       <c r="B531" s="32"/>
-      <c r="C531" s="25" t="s">
+      <c r="C531" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D531" s="25" t="s">
@@ -9724,7 +9730,7 @@
         <v>32</v>
       </c>
       <c r="B532" s="32"/>
-      <c r="C532" s="25" t="s">
+      <c r="C532" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D532" s="25" t="s">
@@ -9741,7 +9747,7 @@
         <v>32</v>
       </c>
       <c r="B533" s="32"/>
-      <c r="C533" s="25" t="s">
+      <c r="C533" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D533" s="25" t="s">
@@ -9758,7 +9764,7 @@
         <v>32</v>
       </c>
       <c r="B534" s="32"/>
-      <c r="C534" s="25" t="s">
+      <c r="C534" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D534" s="25" t="s">
@@ -9775,7 +9781,7 @@
         <v>32</v>
       </c>
       <c r="B535" s="32"/>
-      <c r="C535" s="25" t="s">
+      <c r="C535" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D535" s="25" t="s">
@@ -9792,7 +9798,7 @@
         <v>32</v>
       </c>
       <c r="B536" s="32"/>
-      <c r="C536" s="25" t="s">
+      <c r="C536" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D536" s="25" t="s">
@@ -9809,7 +9815,7 @@
         <v>32</v>
       </c>
       <c r="B537" s="32"/>
-      <c r="C537" s="25" t="s">
+      <c r="C537" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D537" s="25" t="s">
@@ -9826,7 +9832,7 @@
         <v>32</v>
       </c>
       <c r="B538" s="32"/>
-      <c r="C538" s="25" t="s">
+      <c r="C538" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D538" s="25" t="s">
@@ -9843,7 +9849,7 @@
         <v>32</v>
       </c>
       <c r="B539" s="32"/>
-      <c r="C539" s="24" t="s">
+      <c r="C539" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D539" s="24" t="s">
@@ -9860,7 +9866,7 @@
         <v>32</v>
       </c>
       <c r="B540" s="32"/>
-      <c r="C540" s="24" t="s">
+      <c r="C540" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D540" s="24" t="s">
@@ -9875,7 +9881,7 @@
     <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541" s="22"/>
       <c r="B541" s="32"/>
-      <c r="C541" s="25" t="s">
+      <c r="C541" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D541" s="25" t="s">
@@ -9892,7 +9898,7 @@
         <v>32</v>
       </c>
       <c r="B542" s="32"/>
-      <c r="C542" s="25" t="s">
+      <c r="C542" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D542" s="25" t="s">
@@ -9909,7 +9915,7 @@
         <v>32</v>
       </c>
       <c r="B543" s="32"/>
-      <c r="C543" s="25" t="s">
+      <c r="C543" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D543" s="25" t="s">
@@ -9926,7 +9932,7 @@
         <v>32</v>
       </c>
       <c r="B544" s="32"/>
-      <c r="C544" s="25" t="s">
+      <c r="C544" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D544" s="25" t="s">
@@ -9943,7 +9949,7 @@
         <v>32</v>
       </c>
       <c r="B545" s="32"/>
-      <c r="C545" s="25" t="s">
+      <c r="C545" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D545" s="25" t="s">
@@ -9960,7 +9966,7 @@
         <v>32</v>
       </c>
       <c r="B546" s="32"/>
-      <c r="C546" s="25" t="s">
+      <c r="C546" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D546" s="25" t="s">
@@ -9977,7 +9983,7 @@
         <v>32</v>
       </c>
       <c r="B547" s="32"/>
-      <c r="C547" s="25" t="s">
+      <c r="C547" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D547" s="25" t="s">
@@ -9994,7 +10000,7 @@
         <v>32</v>
       </c>
       <c r="B548" s="32"/>
-      <c r="C548" s="25" t="s">
+      <c r="C548" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D548" s="25" t="s">
@@ -10011,7 +10017,7 @@
         <v>32</v>
       </c>
       <c r="B549" s="32"/>
-      <c r="C549" s="25" t="s">
+      <c r="C549" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D549" s="25" t="s">
@@ -10028,7 +10034,7 @@
         <v>32</v>
       </c>
       <c r="B550" s="32"/>
-      <c r="C550" s="24" t="s">
+      <c r="C550" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D550" s="24" t="s">
@@ -10045,7 +10051,7 @@
         <v>32</v>
       </c>
       <c r="B551" s="32"/>
-      <c r="C551" s="24" t="s">
+      <c r="C551" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D551" s="24" t="s">
@@ -10062,7 +10068,7 @@
         <v>32</v>
       </c>
       <c r="B552" s="32"/>
-      <c r="C552" s="25" t="s">
+      <c r="C552" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D552" s="25" t="s">
@@ -10079,7 +10085,7 @@
         <v>32</v>
       </c>
       <c r="B553" s="32"/>
-      <c r="C553" s="25" t="s">
+      <c r="C553" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D553" s="25" t="s">
@@ -10096,7 +10102,7 @@
         <v>32</v>
       </c>
       <c r="B554" s="32"/>
-      <c r="C554" s="25" t="s">
+      <c r="C554" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D554" s="25" t="s">
@@ -10113,7 +10119,7 @@
         <v>32</v>
       </c>
       <c r="B555" s="32"/>
-      <c r="C555" s="25" t="s">
+      <c r="C555" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D555" s="25" t="s">
@@ -10130,7 +10136,7 @@
         <v>32</v>
       </c>
       <c r="B556" s="32"/>
-      <c r="C556" s="25" t="s">
+      <c r="C556" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D556" s="25" t="s">
@@ -10147,7 +10153,7 @@
         <v>32</v>
       </c>
       <c r="B557" s="32"/>
-      <c r="C557" s="25" t="s">
+      <c r="C557" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D557" s="25" t="s">
@@ -10164,7 +10170,7 @@
         <v>32</v>
       </c>
       <c r="B558" s="32"/>
-      <c r="C558" s="25" t="s">
+      <c r="C558" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D558" s="25" t="s">
@@ -10181,7 +10187,7 @@
         <v>32</v>
       </c>
       <c r="B559" s="32"/>
-      <c r="C559" s="25" t="s">
+      <c r="C559" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D559" s="25" t="s">
@@ -10198,7 +10204,7 @@
         <v>32</v>
       </c>
       <c r="B560" s="32"/>
-      <c r="C560" s="25" t="s">
+      <c r="C560" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D560" s="25" t="s">
@@ -10215,7 +10221,7 @@
         <v>32</v>
       </c>
       <c r="B561" s="32"/>
-      <c r="C561" s="24" t="s">
+      <c r="C561" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D561" s="24" t="s">
@@ -10232,7 +10238,7 @@
         <v>32</v>
       </c>
       <c r="B562" s="32"/>
-      <c r="C562" s="24" t="s">
+      <c r="C562" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D562" s="24" t="s">
@@ -10249,7 +10255,7 @@
         <v>32</v>
       </c>
       <c r="B563" s="32"/>
-      <c r="C563" s="25" t="s">
+      <c r="C563" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D563" s="25" t="s">
@@ -10266,7 +10272,7 @@
         <v>32</v>
       </c>
       <c r="B564" s="32"/>
-      <c r="C564" s="25" t="s">
+      <c r="C564" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D564" s="25" t="s">
@@ -10283,7 +10289,7 @@
         <v>32</v>
       </c>
       <c r="B565" s="32"/>
-      <c r="C565" s="25" t="s">
+      <c r="C565" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D565" s="25" t="s">
@@ -10300,7 +10306,7 @@
         <v>32</v>
       </c>
       <c r="B566" s="32"/>
-      <c r="C566" s="25" t="s">
+      <c r="C566" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D566" s="25" t="s">
@@ -10317,7 +10323,7 @@
         <v>32</v>
       </c>
       <c r="B567" s="32"/>
-      <c r="C567" s="25" t="s">
+      <c r="C567" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D567" s="25" t="s">
@@ -10334,7 +10340,7 @@
         <v>32</v>
       </c>
       <c r="B568" s="32"/>
-      <c r="C568" s="25" t="s">
+      <c r="C568" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D568" s="25" t="s">
@@ -10351,7 +10357,7 @@
         <v>32</v>
       </c>
       <c r="B569" s="32"/>
-      <c r="C569" s="25" t="s">
+      <c r="C569" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D569" s="25" t="s">
@@ -10368,7 +10374,7 @@
         <v>32</v>
       </c>
       <c r="B570" s="32"/>
-      <c r="C570" s="25" t="s">
+      <c r="C570" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D570" s="25" t="s">
@@ -10385,7 +10391,7 @@
         <v>32</v>
       </c>
       <c r="B571" s="32"/>
-      <c r="C571" s="25" t="s">
+      <c r="C571" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D571" s="25" t="s">
@@ -10402,7 +10408,7 @@
         <v>32</v>
       </c>
       <c r="B572" s="32"/>
-      <c r="C572" s="24" t="s">
+      <c r="C572" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D572" s="24" t="s">
@@ -10419,7 +10425,7 @@
         <v>32</v>
       </c>
       <c r="B573" s="32"/>
-      <c r="C573" s="24" t="s">
+      <c r="C573" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D573" s="24" t="s">
@@ -10436,7 +10442,7 @@
         <v>32</v>
       </c>
       <c r="B574" s="32"/>
-      <c r="C574" s="25" t="s">
+      <c r="C574" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D574" s="25" t="s">
@@ -10453,7 +10459,7 @@
         <v>32</v>
       </c>
       <c r="B575" s="32"/>
-      <c r="C575" s="25" t="s">
+      <c r="C575" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D575" s="25" t="s">
@@ -10470,7 +10476,7 @@
         <v>32</v>
       </c>
       <c r="B576" s="32"/>
-      <c r="C576" s="25" t="s">
+      <c r="C576" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D576" s="25" t="s">
@@ -10487,7 +10493,7 @@
         <v>32</v>
       </c>
       <c r="B577" s="32"/>
-      <c r="C577" s="25" t="s">
+      <c r="C577" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D577" s="25" t="s">
@@ -10504,7 +10510,7 @@
         <v>32</v>
       </c>
       <c r="B578" s="32"/>
-      <c r="C578" s="25" t="s">
+      <c r="C578" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D578" s="25" t="s">
@@ -10521,7 +10527,7 @@
         <v>32</v>
       </c>
       <c r="B579" s="32"/>
-      <c r="C579" s="25" t="s">
+      <c r="C579" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D579" s="25" t="s">
@@ -10538,7 +10544,7 @@
         <v>32</v>
       </c>
       <c r="B580" s="32"/>
-      <c r="C580" s="25" t="s">
+      <c r="C580" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D580" s="25" t="s">
@@ -10555,7 +10561,7 @@
         <v>32</v>
       </c>
       <c r="B581" s="32"/>
-      <c r="C581" s="25" t="s">
+      <c r="C581" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D581" s="25" t="s">
@@ -10572,7 +10578,7 @@
         <v>32</v>
       </c>
       <c r="B582" s="32"/>
-      <c r="C582" s="25" t="s">
+      <c r="C582" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D582" s="25" t="s">
@@ -10589,7 +10595,7 @@
         <v>32</v>
       </c>
       <c r="B583" s="32"/>
-      <c r="C583" s="24" t="s">
+      <c r="C583" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D583" s="24" t="s">
@@ -10606,7 +10612,7 @@
         <v>32</v>
       </c>
       <c r="B584" s="32"/>
-      <c r="C584" s="24" t="s">
+      <c r="C584" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D584" s="24" t="s">
@@ -10623,7 +10629,7 @@
         <v>32</v>
       </c>
       <c r="B585" s="32"/>
-      <c r="C585" s="25" t="s">
+      <c r="C585" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D585" s="25" t="s">
@@ -10640,7 +10646,7 @@
         <v>32</v>
       </c>
       <c r="B586" s="32"/>
-      <c r="C586" s="25" t="s">
+      <c r="C586" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D586" s="25" t="s">
@@ -10657,7 +10663,7 @@
         <v>32</v>
       </c>
       <c r="B587" s="32"/>
-      <c r="C587" s="25" t="s">
+      <c r="C587" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D587" s="25" t="s">
@@ -10674,7 +10680,7 @@
         <v>32</v>
       </c>
       <c r="B588" s="32"/>
-      <c r="C588" s="25" t="s">
+      <c r="C588" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D588" s="25" t="s">
@@ -10691,7 +10697,7 @@
         <v>32</v>
       </c>
       <c r="B589" s="32"/>
-      <c r="C589" s="25" t="s">
+      <c r="C589" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D589" s="25" t="s">
@@ -10708,7 +10714,7 @@
         <v>32</v>
       </c>
       <c r="B590" s="32"/>
-      <c r="C590" s="25" t="s">
+      <c r="C590" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D590" s="25" t="s">
@@ -10725,7 +10731,7 @@
         <v>32</v>
       </c>
       <c r="B591" s="32"/>
-      <c r="C591" s="25" t="s">
+      <c r="C591" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D591" s="25" t="s">
@@ -10742,7 +10748,7 @@
         <v>32</v>
       </c>
       <c r="B592" s="32"/>
-      <c r="C592" s="25" t="s">
+      <c r="C592" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D592" s="25" t="s">
@@ -10759,7 +10765,7 @@
         <v>32</v>
       </c>
       <c r="B593" s="32"/>
-      <c r="C593" s="25" t="s">
+      <c r="C593" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D593" s="25" t="s">
@@ -10776,7 +10782,7 @@
         <v>32</v>
       </c>
       <c r="B594" s="32"/>
-      <c r="C594" s="24" t="s">
+      <c r="C594" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D594" s="24" t="s">
@@ -10793,7 +10799,7 @@
         <v>32</v>
       </c>
       <c r="B595" s="32"/>
-      <c r="C595" s="24" t="s">
+      <c r="C595" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D595" s="24" t="s">
@@ -10810,7 +10816,7 @@
         <v>32</v>
       </c>
       <c r="B596" s="32"/>
-      <c r="C596" s="25" t="s">
+      <c r="C596" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D596" s="25" t="s">
@@ -10827,7 +10833,7 @@
         <v>32</v>
       </c>
       <c r="B597" s="32"/>
-      <c r="C597" s="25" t="s">
+      <c r="C597" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D597" s="25" t="s">
@@ -10844,7 +10850,7 @@
         <v>32</v>
       </c>
       <c r="B598" s="32"/>
-      <c r="C598" s="25" t="s">
+      <c r="C598" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D598" s="25" t="s">
@@ -10861,7 +10867,7 @@
         <v>32</v>
       </c>
       <c r="B599" s="32"/>
-      <c r="C599" s="25" t="s">
+      <c r="C599" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D599" s="25" t="s">
@@ -10878,7 +10884,7 @@
         <v>32</v>
       </c>
       <c r="B600" s="32"/>
-      <c r="C600" s="25" t="s">
+      <c r="C600" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D600" s="25" t="s">
@@ -10893,7 +10899,7 @@
     <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601" s="22"/>
       <c r="B601" s="32"/>
-      <c r="C601" s="25" t="s">
+      <c r="C601" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D601" s="25" t="s">
@@ -10910,7 +10916,7 @@
         <v>32</v>
       </c>
       <c r="B602" s="32"/>
-      <c r="C602" s="25" t="s">
+      <c r="C602" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D602" s="25" t="s">
@@ -10927,7 +10933,7 @@
         <v>32</v>
       </c>
       <c r="B603" s="32"/>
-      <c r="C603" s="25" t="s">
+      <c r="C603" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D603" s="25" t="s">
@@ -10944,7 +10950,7 @@
         <v>32</v>
       </c>
       <c r="B604" s="32"/>
-      <c r="C604" s="25" t="s">
+      <c r="C604" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D604" s="25" t="s">
@@ -10961,7 +10967,7 @@
         <v>32</v>
       </c>
       <c r="B605" s="32"/>
-      <c r="C605" s="24" t="s">
+      <c r="C605" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D605" s="24" t="s">
@@ -10978,7 +10984,7 @@
         <v>32</v>
       </c>
       <c r="B606" s="32"/>
-      <c r="C606" s="24" t="s">
+      <c r="C606" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D606" s="24" t="s">
@@ -10995,7 +11001,7 @@
         <v>32</v>
       </c>
       <c r="B607" s="32"/>
-      <c r="C607" s="25" t="s">
+      <c r="C607" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D607" s="25" t="s">
@@ -11012,7 +11018,7 @@
         <v>32</v>
       </c>
       <c r="B608" s="32"/>
-      <c r="C608" s="25" t="s">
+      <c r="C608" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D608" s="25" t="s">
@@ -11029,7 +11035,7 @@
         <v>32</v>
       </c>
       <c r="B609" s="32"/>
-      <c r="C609" s="25" t="s">
+      <c r="C609" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D609" s="25" t="s">
@@ -11046,7 +11052,7 @@
         <v>32</v>
       </c>
       <c r="B610" s="32"/>
-      <c r="C610" s="25" t="s">
+      <c r="C610" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D610" s="25" t="s">
@@ -11063,7 +11069,7 @@
         <v>32</v>
       </c>
       <c r="B611" s="32"/>
-      <c r="C611" s="25" t="s">
+      <c r="C611" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D611" s="25" t="s">
@@ -11080,7 +11086,7 @@
         <v>32</v>
       </c>
       <c r="B612" s="32"/>
-      <c r="C612" s="25" t="s">
+      <c r="C612" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D612" s="25" t="s">
@@ -11097,7 +11103,7 @@
         <v>32</v>
       </c>
       <c r="B613" s="32"/>
-      <c r="C613" s="25" t="s">
+      <c r="C613" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D613" s="25" t="s">
@@ -11114,7 +11120,7 @@
         <v>32</v>
       </c>
       <c r="B614" s="32"/>
-      <c r="C614" s="25" t="s">
+      <c r="C614" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D614" s="25" t="s">
@@ -11131,7 +11137,7 @@
         <v>32</v>
       </c>
       <c r="B615" s="32"/>
-      <c r="C615" s="25" t="s">
+      <c r="C615" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D615" s="25" t="s">
@@ -11148,7 +11154,7 @@
         <v>32</v>
       </c>
       <c r="B616" s="32"/>
-      <c r="C616" s="24" t="s">
+      <c r="C616" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D616" s="24" t="s">
@@ -11165,7 +11171,7 @@
         <v>32</v>
       </c>
       <c r="B617" s="32"/>
-      <c r="C617" s="24" t="s">
+      <c r="C617" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D617" s="24" t="s">
@@ -11182,7 +11188,7 @@
         <v>32</v>
       </c>
       <c r="B618" s="32"/>
-      <c r="C618" s="25" t="s">
+      <c r="C618" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D618" s="25" t="s">
@@ -11199,7 +11205,7 @@
         <v>32</v>
       </c>
       <c r="B619" s="32"/>
-      <c r="C619" s="25" t="s">
+      <c r="C619" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D619" s="25" t="s">
@@ -11216,7 +11222,7 @@
         <v>32</v>
       </c>
       <c r="B620" s="32"/>
-      <c r="C620" s="25" t="s">
+      <c r="C620" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D620" s="25" t="s">
@@ -11233,7 +11239,7 @@
         <v>32</v>
       </c>
       <c r="B621" s="32"/>
-      <c r="C621" s="25" t="s">
+      <c r="C621" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D621" s="25" t="s">
@@ -11250,7 +11256,7 @@
         <v>32</v>
       </c>
       <c r="B622" s="32"/>
-      <c r="C622" s="25" t="s">
+      <c r="C622" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D622" s="25" t="s">
@@ -11267,7 +11273,7 @@
         <v>32</v>
       </c>
       <c r="B623" s="32"/>
-      <c r="C623" s="25" t="s">
+      <c r="C623" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D623" s="25" t="s">
@@ -11284,7 +11290,7 @@
         <v>32</v>
       </c>
       <c r="B624" s="32"/>
-      <c r="C624" s="25" t="s">
+      <c r="C624" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D624" s="25" t="s">
@@ -11301,7 +11307,7 @@
         <v>32</v>
       </c>
       <c r="B625" s="32"/>
-      <c r="C625" s="25" t="s">
+      <c r="C625" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D625" s="25" t="s">
@@ -11318,7 +11324,7 @@
         <v>32</v>
       </c>
       <c r="B626" s="32"/>
-      <c r="C626" s="25" t="s">
+      <c r="C626" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D626" s="25" t="s">
@@ -11335,7 +11341,7 @@
         <v>32</v>
       </c>
       <c r="B627" s="32"/>
-      <c r="C627" s="24" t="s">
+      <c r="C627" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D627" s="24" t="s">
@@ -11352,7 +11358,7 @@
         <v>32</v>
       </c>
       <c r="B628" s="32"/>
-      <c r="C628" s="24" t="s">
+      <c r="C628" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D628" s="24" t="s">
@@ -11369,7 +11375,7 @@
         <v>32</v>
       </c>
       <c r="B629" s="32"/>
-      <c r="C629" s="25" t="s">
+      <c r="C629" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D629" s="25" t="s">
@@ -11386,7 +11392,7 @@
         <v>32</v>
       </c>
       <c r="B630" s="32"/>
-      <c r="C630" s="25" t="s">
+      <c r="C630" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D630" s="25" t="s">
@@ -11403,7 +11409,7 @@
         <v>32</v>
       </c>
       <c r="B631" s="32"/>
-      <c r="C631" s="25" t="s">
+      <c r="C631" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D631" s="25" t="s">
@@ -11418,7 +11424,7 @@
     <row r="632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A632" s="22"/>
       <c r="B632" s="32"/>
-      <c r="C632" s="25" t="s">
+      <c r="C632" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D632" s="25" t="s">
@@ -11435,7 +11441,7 @@
         <v>32</v>
       </c>
       <c r="B633" s="32"/>
-      <c r="C633" s="25" t="s">
+      <c r="C633" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D633" s="25" t="s">
@@ -11452,7 +11458,7 @@
         <v>32</v>
       </c>
       <c r="B634" s="32"/>
-      <c r="C634" s="25" t="s">
+      <c r="C634" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D634" s="25" t="s">
@@ -11469,7 +11475,7 @@
         <v>32</v>
       </c>
       <c r="B635" s="32"/>
-      <c r="C635" s="25" t="s">
+      <c r="C635" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D635" s="25" t="s">
@@ -11486,7 +11492,7 @@
         <v>32</v>
       </c>
       <c r="B636" s="32"/>
-      <c r="C636" s="25" t="s">
+      <c r="C636" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D636" s="25" t="s">
@@ -11503,7 +11509,7 @@
         <v>32</v>
       </c>
       <c r="B637" s="32"/>
-      <c r="C637" s="25" t="s">
+      <c r="C637" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D637" s="25" t="s">
@@ -11520,7 +11526,7 @@
         <v>32</v>
       </c>
       <c r="B638" s="32"/>
-      <c r="C638" s="24" t="s">
+      <c r="C638" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D638" s="24" t="s">
@@ -11537,7 +11543,7 @@
         <v>32</v>
       </c>
       <c r="B639" s="32"/>
-      <c r="C639" s="24" t="s">
+      <c r="C639" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D639" s="24" t="s">
@@ -11554,7 +11560,7 @@
         <v>32</v>
       </c>
       <c r="B640" s="32"/>
-      <c r="C640" s="25" t="s">
+      <c r="C640" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D640" s="25" t="s">
@@ -11571,7 +11577,7 @@
         <v>32</v>
       </c>
       <c r="B641" s="32"/>
-      <c r="C641" s="25" t="s">
+      <c r="C641" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D641" s="25" t="s">
@@ -11588,7 +11594,7 @@
         <v>32</v>
       </c>
       <c r="B642" s="32"/>
-      <c r="C642" s="25" t="s">
+      <c r="C642" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D642" s="25" t="s">
@@ -11605,7 +11611,7 @@
         <v>32</v>
       </c>
       <c r="B643" s="32"/>
-      <c r="C643" s="25" t="s">
+      <c r="C643" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D643" s="25" t="s">
@@ -11622,7 +11628,7 @@
         <v>32</v>
       </c>
       <c r="B644" s="32"/>
-      <c r="C644" s="25" t="s">
+      <c r="C644" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D644" s="25" t="s">
@@ -11639,7 +11645,7 @@
         <v>32</v>
       </c>
       <c r="B645" s="32"/>
-      <c r="C645" s="25" t="s">
+      <c r="C645" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D645" s="25" t="s">
@@ -11656,7 +11662,7 @@
         <v>32</v>
       </c>
       <c r="B646" s="32"/>
-      <c r="C646" s="25" t="s">
+      <c r="C646" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D646" s="25" t="s">
@@ -11673,7 +11679,7 @@
         <v>32</v>
       </c>
       <c r="B647" s="32"/>
-      <c r="C647" s="25" t="s">
+      <c r="C647" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D647" s="25" t="s">
@@ -11690,7 +11696,7 @@
         <v>32</v>
       </c>
       <c r="B648" s="32"/>
-      <c r="C648" s="25" t="s">
+      <c r="C648" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D648" s="25" t="s">
@@ -11707,7 +11713,7 @@
         <v>32</v>
       </c>
       <c r="B649" s="32"/>
-      <c r="C649" s="24" t="s">
+      <c r="C649" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D649" s="24" t="s">
@@ -11724,7 +11730,7 @@
         <v>32</v>
       </c>
       <c r="B650" s="32"/>
-      <c r="C650" s="24" t="s">
+      <c r="C650" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D650" s="24" t="s">
@@ -11741,7 +11747,7 @@
         <v>32</v>
       </c>
       <c r="B651" s="32"/>
-      <c r="C651" s="25" t="s">
+      <c r="C651" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D651" s="25" t="s">
@@ -11758,7 +11764,7 @@
         <v>32</v>
       </c>
       <c r="B652" s="32"/>
-      <c r="C652" s="25" t="s">
+      <c r="C652" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D652" s="25" t="s">
@@ -11775,7 +11781,7 @@
         <v>32</v>
       </c>
       <c r="B653" s="32"/>
-      <c r="C653" s="25" t="s">
+      <c r="C653" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D653" s="25" t="s">
@@ -11792,7 +11798,7 @@
         <v>32</v>
       </c>
       <c r="B654" s="32"/>
-      <c r="C654" s="25" t="s">
+      <c r="C654" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D654" s="25" t="s">
@@ -11809,7 +11815,7 @@
         <v>32</v>
       </c>
       <c r="B655" s="32"/>
-      <c r="C655" s="25" t="s">
+      <c r="C655" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D655" s="25" t="s">
@@ -11826,7 +11832,7 @@
         <v>32</v>
       </c>
       <c r="B656" s="32"/>
-      <c r="C656" s="25" t="s">
+      <c r="C656" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D656" s="25" t="s">
@@ -11843,7 +11849,7 @@
         <v>32</v>
       </c>
       <c r="B657" s="32"/>
-      <c r="C657" s="25" t="s">
+      <c r="C657" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D657" s="25" t="s">
@@ -11860,7 +11866,7 @@
         <v>32</v>
       </c>
       <c r="B658" s="32"/>
-      <c r="C658" s="25" t="s">
+      <c r="C658" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D658" s="25" t="s">
@@ -11877,7 +11883,7 @@
         <v>32</v>
       </c>
       <c r="B659" s="32"/>
-      <c r="C659" s="25" t="s">
+      <c r="C659" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D659" s="25" t="s">
@@ -11894,7 +11900,7 @@
         <v>32</v>
       </c>
       <c r="B660" s="32"/>
-      <c r="C660" s="24" t="s">
+      <c r="C660" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D660" s="24" t="s">
@@ -11911,7 +11917,7 @@
         <v>32</v>
       </c>
       <c r="B661" s="32"/>
-      <c r="C661" s="24" t="s">
+      <c r="C661" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D661" s="24" t="s">
@@ -11928,7 +11934,7 @@
         <v>32</v>
       </c>
       <c r="B662" s="32"/>
-      <c r="C662" s="25" t="s">
+      <c r="C662" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D662" s="25" t="s">
@@ -11943,7 +11949,7 @@
     <row r="663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A663" s="22"/>
       <c r="B663" s="32"/>
-      <c r="C663" s="25" t="s">
+      <c r="C663" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D663" s="25" t="s">
@@ -11960,7 +11966,7 @@
         <v>32</v>
       </c>
       <c r="B664" s="32"/>
-      <c r="C664" s="25" t="s">
+      <c r="C664" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D664" s="25" t="s">
@@ -11977,7 +11983,7 @@
         <v>32</v>
       </c>
       <c r="B665" s="32"/>
-      <c r="C665" s="25" t="s">
+      <c r="C665" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D665" s="25" t="s">
@@ -11994,7 +12000,7 @@
         <v>32</v>
       </c>
       <c r="B666" s="32"/>
-      <c r="C666" s="25" t="s">
+      <c r="C666" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D666" s="25" t="s">
@@ -12011,7 +12017,7 @@
         <v>32</v>
       </c>
       <c r="B667" s="32"/>
-      <c r="C667" s="25" t="s">
+      <c r="C667" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D667" s="25" t="s">
@@ -12028,7 +12034,7 @@
         <v>32</v>
       </c>
       <c r="B668" s="32"/>
-      <c r="C668" s="25" t="s">
+      <c r="C668" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D668" s="25" t="s">
@@ -12045,7 +12051,7 @@
         <v>32</v>
       </c>
       <c r="B669" s="32"/>
-      <c r="C669" s="25" t="s">
+      <c r="C669" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D669" s="25" t="s">
@@ -12062,7 +12068,7 @@
         <v>32</v>
       </c>
       <c r="B670" s="32"/>
-      <c r="C670" s="25" t="s">
+      <c r="C670" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D670" s="25" t="s">
@@ -12079,7 +12085,7 @@
         <v>32</v>
       </c>
       <c r="B671" s="32"/>
-      <c r="C671" s="24" t="s">
+      <c r="C671" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D671" s="24" t="s">
@@ -12096,7 +12102,7 @@
         <v>32</v>
       </c>
       <c r="B672" s="32"/>
-      <c r="C672" s="24" t="s">
+      <c r="C672" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D672" s="24" t="s">
@@ -12113,7 +12119,7 @@
         <v>32</v>
       </c>
       <c r="B673" s="32"/>
-      <c r="C673" s="25" t="s">
+      <c r="C673" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D673" s="25" t="s">
@@ -12130,7 +12136,7 @@
         <v>32</v>
       </c>
       <c r="B674" s="32"/>
-      <c r="C674" s="25" t="s">
+      <c r="C674" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D674" s="25" t="s">
@@ -12147,7 +12153,7 @@
         <v>32</v>
       </c>
       <c r="B675" s="32"/>
-      <c r="C675" s="25" t="s">
+      <c r="C675" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D675" s="25" t="s">
@@ -12164,7 +12170,7 @@
         <v>32</v>
       </c>
       <c r="B676" s="32"/>
-      <c r="C676" s="25" t="s">
+      <c r="C676" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D676" s="25" t="s">
@@ -12181,7 +12187,7 @@
         <v>32</v>
       </c>
       <c r="B677" s="32"/>
-      <c r="C677" s="25" t="s">
+      <c r="C677" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D677" s="25" t="s">
@@ -12198,7 +12204,7 @@
         <v>32</v>
       </c>
       <c r="B678" s="32"/>
-      <c r="C678" s="25" t="s">
+      <c r="C678" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D678" s="25" t="s">
@@ -12215,7 +12221,7 @@
         <v>32</v>
       </c>
       <c r="B679" s="32"/>
-      <c r="C679" s="25" t="s">
+      <c r="C679" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D679" s="25" t="s">
@@ -12232,7 +12238,7 @@
         <v>32</v>
       </c>
       <c r="B680" s="32"/>
-      <c r="C680" s="25" t="s">
+      <c r="C680" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D680" s="25" t="s">
@@ -12249,7 +12255,7 @@
         <v>32</v>
       </c>
       <c r="B681" s="32"/>
-      <c r="C681" s="25" t="s">
+      <c r="C681" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D681" s="25" t="s">
@@ -12266,7 +12272,7 @@
         <v>32</v>
       </c>
       <c r="B682" s="32"/>
-      <c r="C682" s="24" t="s">
+      <c r="C682" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D682" s="24" t="s">
@@ -12283,7 +12289,7 @@
         <v>32</v>
       </c>
       <c r="B683" s="32"/>
-      <c r="C683" s="24" t="s">
+      <c r="C683" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D683" s="24" t="s">
@@ -12300,7 +12306,7 @@
         <v>32</v>
       </c>
       <c r="B684" s="32"/>
-      <c r="C684" s="25" t="s">
+      <c r="C684" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D684" s="25" t="s">
@@ -12317,7 +12323,7 @@
         <v>32</v>
       </c>
       <c r="B685" s="32"/>
-      <c r="C685" s="25" t="s">
+      <c r="C685" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D685" s="25" t="s">
@@ -12334,7 +12340,7 @@
         <v>32</v>
       </c>
       <c r="B686" s="32"/>
-      <c r="C686" s="25" t="s">
+      <c r="C686" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D686" s="25" t="s">
@@ -12351,7 +12357,7 @@
         <v>32</v>
       </c>
       <c r="B687" s="32"/>
-      <c r="C687" s="25" t="s">
+      <c r="C687" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D687" s="25" t="s">
@@ -12368,7 +12374,7 @@
         <v>32</v>
       </c>
       <c r="B688" s="32"/>
-      <c r="C688" s="25" t="s">
+      <c r="C688" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D688" s="25" t="s">
@@ -12385,7 +12391,7 @@
         <v>32</v>
       </c>
       <c r="B689" s="32"/>
-      <c r="C689" s="25" t="s">
+      <c r="C689" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D689" s="25" t="s">
@@ -12402,7 +12408,7 @@
         <v>32</v>
       </c>
       <c r="B690" s="32"/>
-      <c r="C690" s="25" t="s">
+      <c r="C690" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D690" s="25" t="s">
@@ -12419,7 +12425,7 @@
         <v>32</v>
       </c>
       <c r="B691" s="32"/>
-      <c r="C691" s="25" t="s">
+      <c r="C691" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D691" s="25" t="s">
@@ -12436,7 +12442,7 @@
         <v>32</v>
       </c>
       <c r="B692" s="32"/>
-      <c r="C692" s="25" t="s">
+      <c r="C692" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D692" s="25" t="s">
@@ -12453,7 +12459,7 @@
         <v>32</v>
       </c>
       <c r="B693" s="32"/>
-      <c r="C693" s="24" t="s">
+      <c r="C693" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D693" s="24" t="s">
@@ -12468,7 +12474,7 @@
     <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" s="22"/>
       <c r="B694" s="32"/>
-      <c r="C694" s="24" t="s">
+      <c r="C694" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D694" s="24" t="s">
@@ -12485,7 +12491,7 @@
         <v>32</v>
       </c>
       <c r="B695" s="32"/>
-      <c r="C695" s="25" t="s">
+      <c r="C695" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D695" s="25" t="s">
@@ -12502,7 +12508,7 @@
         <v>32</v>
       </c>
       <c r="B696" s="32"/>
-      <c r="C696" s="25" t="s">
+      <c r="C696" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D696" s="25" t="s">
@@ -12519,7 +12525,7 @@
         <v>32</v>
       </c>
       <c r="B697" s="32"/>
-      <c r="C697" s="25" t="s">
+      <c r="C697" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D697" s="25" t="s">
@@ -12536,7 +12542,7 @@
         <v>32</v>
       </c>
       <c r="B698" s="32"/>
-      <c r="C698" s="25" t="s">
+      <c r="C698" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D698" s="25" t="s">
@@ -12553,7 +12559,7 @@
         <v>32</v>
       </c>
       <c r="B699" s="32"/>
-      <c r="C699" s="25" t="s">
+      <c r="C699" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D699" s="25" t="s">
@@ -12570,7 +12576,7 @@
         <v>32</v>
       </c>
       <c r="B700" s="32"/>
-      <c r="C700" s="25" t="s">
+      <c r="C700" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D700" s="25" t="s">
@@ -12587,7 +12593,7 @@
         <v>32</v>
       </c>
       <c r="B701" s="32"/>
-      <c r="C701" s="25" t="s">
+      <c r="C701" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D701" s="25" t="s">
@@ -12604,7 +12610,7 @@
         <v>32</v>
       </c>
       <c r="B702" s="32"/>
-      <c r="C702" s="25" t="s">
+      <c r="C702" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D702" s="25" t="s">
@@ -12621,7 +12627,7 @@
         <v>32</v>
       </c>
       <c r="B703" s="32"/>
-      <c r="C703" s="25" t="s">
+      <c r="C703" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D703" s="25" t="s">
@@ -12638,7 +12644,7 @@
         <v>32</v>
       </c>
       <c r="B704" s="32"/>
-      <c r="C704" s="24" t="s">
+      <c r="C704" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D704" s="24" t="s">
@@ -12655,7 +12661,7 @@
         <v>32</v>
       </c>
       <c r="B705" s="32"/>
-      <c r="C705" s="24" t="s">
+      <c r="C705" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D705" s="24" t="s">
@@ -12672,7 +12678,7 @@
         <v>32</v>
       </c>
       <c r="B706" s="32"/>
-      <c r="C706" s="25" t="s">
+      <c r="C706" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D706" s="25" t="s">
@@ -12689,7 +12695,7 @@
         <v>32</v>
       </c>
       <c r="B707" s="32"/>
-      <c r="C707" s="24"/>
+      <c r="C707" s="32"/>
       <c r="D707" s="24"/>
       <c r="E707" s="22"/>
       <c r="F707" s="22"/>
@@ -12702,7 +12708,7 @@
         <v>32</v>
       </c>
       <c r="B708" s="32"/>
-      <c r="C708" s="24" t="s">
+      <c r="C708" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D708" s="24" t="s">
@@ -12719,7 +12725,7 @@
         <v>32</v>
       </c>
       <c r="B709" s="32"/>
-      <c r="C709" s="25" t="s">
+      <c r="C709" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D709" s="25" t="s">
@@ -12736,7 +12742,7 @@
         <v>32</v>
       </c>
       <c r="B710" s="32"/>
-      <c r="C710" s="25" t="s">
+      <c r="C710" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D710" s="25" t="s">
@@ -12753,7 +12759,7 @@
         <v>32</v>
       </c>
       <c r="B711" s="32"/>
-      <c r="C711" s="25" t="s">
+      <c r="C711" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D711" s="25" t="s">
@@ -12770,7 +12776,7 @@
         <v>32</v>
       </c>
       <c r="B712" s="32"/>
-      <c r="C712" s="25" t="s">
+      <c r="C712" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D712" s="25" t="s">
@@ -12787,7 +12793,7 @@
         <v>32</v>
       </c>
       <c r="B713" s="32"/>
-      <c r="C713" s="25" t="s">
+      <c r="C713" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D713" s="25" t="s">
@@ -12804,7 +12810,7 @@
         <v>32</v>
       </c>
       <c r="B714" s="32"/>
-      <c r="C714" s="25" t="s">
+      <c r="C714" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D714" s="25" t="s">
@@ -12821,7 +12827,7 @@
         <v>32</v>
       </c>
       <c r="B715" s="32"/>
-      <c r="C715" s="25" t="s">
+      <c r="C715" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D715" s="25" t="s">
@@ -12838,7 +12844,7 @@
         <v>32</v>
       </c>
       <c r="B716" s="32"/>
-      <c r="C716" s="25" t="s">
+      <c r="C716" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D716" s="25" t="s">
@@ -12855,7 +12861,7 @@
         <v>32</v>
       </c>
       <c r="B717" s="32"/>
-      <c r="C717" s="25" t="s">
+      <c r="C717" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D717" s="25" t="s">
@@ -12872,7 +12878,7 @@
         <v>32</v>
       </c>
       <c r="B718" s="32"/>
-      <c r="C718" s="24" t="s">
+      <c r="C718" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D718" s="24" t="s">
@@ -12889,7 +12895,7 @@
         <v>32</v>
       </c>
       <c r="B719" s="32"/>
-      <c r="C719" s="24" t="s">
+      <c r="C719" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D719" s="24" t="s">
@@ -12906,7 +12912,7 @@
         <v>32</v>
       </c>
       <c r="B720" s="32"/>
-      <c r="C720" s="25" t="s">
+      <c r="C720" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D720" s="25" t="s">
@@ -12923,7 +12929,7 @@
         <v>32</v>
       </c>
       <c r="B721" s="32"/>
-      <c r="C721" s="25" t="s">
+      <c r="C721" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D721" s="25" t="s">
@@ -12940,7 +12946,7 @@
         <v>32</v>
       </c>
       <c r="B722" s="32"/>
-      <c r="C722" s="25" t="s">
+      <c r="C722" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D722" s="25" t="s">
@@ -12957,7 +12963,7 @@
         <v>32</v>
       </c>
       <c r="B723" s="32"/>
-      <c r="C723" s="25" t="s">
+      <c r="C723" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D723" s="25" t="s">
@@ -12974,7 +12980,7 @@
         <v>32</v>
       </c>
       <c r="B724" s="32"/>
-      <c r="C724" s="25" t="s">
+      <c r="C724" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D724" s="25" t="s">
@@ -12989,7 +12995,7 @@
     <row r="725" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A725" s="22"/>
       <c r="B725" s="32"/>
-      <c r="C725" s="25" t="s">
+      <c r="C725" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D725" s="25" t="s">
@@ -13006,7 +13012,7 @@
         <v>32</v>
       </c>
       <c r="B726" s="32"/>
-      <c r="C726" s="25" t="s">
+      <c r="C726" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D726" s="25" t="s">
@@ -13023,7 +13029,7 @@
         <v>32</v>
       </c>
       <c r="B727" s="32"/>
-      <c r="C727" s="25" t="s">
+      <c r="C727" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D727" s="25" t="s">
@@ -13040,7 +13046,7 @@
         <v>32</v>
       </c>
       <c r="B728" s="32"/>
-      <c r="C728" s="25" t="s">
+      <c r="C728" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D728" s="25" t="s">
@@ -13057,7 +13063,7 @@
         <v>32</v>
       </c>
       <c r="B729" s="32"/>
-      <c r="C729" s="24" t="s">
+      <c r="C729" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D729" s="24" t="s">
@@ -13074,7 +13080,7 @@
         <v>32</v>
       </c>
       <c r="B730" s="32"/>
-      <c r="C730" s="24" t="s">
+      <c r="C730" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D730" s="24" t="s">
@@ -13091,7 +13097,7 @@
         <v>32</v>
       </c>
       <c r="B731" s="32"/>
-      <c r="C731" s="25" t="s">
+      <c r="C731" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D731" s="25" t="s">
@@ -13108,7 +13114,7 @@
         <v>32</v>
       </c>
       <c r="B732" s="32"/>
-      <c r="C732" s="25" t="s">
+      <c r="C732" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D732" s="25" t="s">
@@ -13125,7 +13131,7 @@
         <v>32</v>
       </c>
       <c r="B733" s="32"/>
-      <c r="C733" s="25" t="s">
+      <c r="C733" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D733" s="25" t="s">
@@ -13142,7 +13148,7 @@
         <v>32</v>
       </c>
       <c r="B734" s="32"/>
-      <c r="C734" s="25" t="s">
+      <c r="C734" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D734" s="25" t="s">
@@ -13159,7 +13165,7 @@
         <v>32</v>
       </c>
       <c r="B735" s="32"/>
-      <c r="C735" s="25" t="s">
+      <c r="C735" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D735" s="25" t="s">
@@ -13176,7 +13182,7 @@
         <v>32</v>
       </c>
       <c r="B736" s="32"/>
-      <c r="C736" s="25" t="s">
+      <c r="C736" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D736" s="25" t="s">
@@ -13193,7 +13199,7 @@
         <v>32</v>
       </c>
       <c r="B737" s="32"/>
-      <c r="C737" s="25" t="s">
+      <c r="C737" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D737" s="25" t="s">
@@ -13210,7 +13216,7 @@
         <v>32</v>
       </c>
       <c r="B738" s="32"/>
-      <c r="C738" s="25" t="s">
+      <c r="C738" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D738" s="25" t="s">
@@ -13227,7 +13233,7 @@
         <v>32</v>
       </c>
       <c r="B739" s="32"/>
-      <c r="C739" s="25" t="s">
+      <c r="C739" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D739" s="25" t="s">
@@ -13244,7 +13250,7 @@
         <v>32</v>
       </c>
       <c r="B740" s="32"/>
-      <c r="C740" s="24" t="s">
+      <c r="C740" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D740" s="24" t="s">
@@ -13261,7 +13267,7 @@
         <v>32</v>
       </c>
       <c r="B741" s="32"/>
-      <c r="C741" s="24" t="s">
+      <c r="C741" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D741" s="24" t="s">
@@ -13278,7 +13284,7 @@
         <v>32</v>
       </c>
       <c r="B742" s="32"/>
-      <c r="C742" s="25" t="s">
+      <c r="C742" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D742" s="25" t="s">
@@ -13295,7 +13301,7 @@
         <v>32</v>
       </c>
       <c r="B743" s="32"/>
-      <c r="C743" s="25" t="s">
+      <c r="C743" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D743" s="25" t="s">
@@ -13312,7 +13318,7 @@
         <v>32</v>
       </c>
       <c r="B744" s="32"/>
-      <c r="C744" s="25" t="s">
+      <c r="C744" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D744" s="25" t="s">
@@ -13329,7 +13335,7 @@
         <v>32</v>
       </c>
       <c r="B745" s="32"/>
-      <c r="C745" s="25" t="s">
+      <c r="C745" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D745" s="25" t="s">
@@ -13346,7 +13352,7 @@
         <v>32</v>
       </c>
       <c r="B746" s="32"/>
-      <c r="C746" s="25" t="s">
+      <c r="C746" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D746" s="25" t="s">
@@ -13363,7 +13369,7 @@
         <v>32</v>
       </c>
       <c r="B747" s="32"/>
-      <c r="C747" s="25" t="s">
+      <c r="C747" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D747" s="25" t="s">
@@ -13380,7 +13386,7 @@
         <v>32</v>
       </c>
       <c r="B748" s="32"/>
-      <c r="C748" s="25" t="s">
+      <c r="C748" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D748" s="25" t="s">
@@ -13397,7 +13403,7 @@
         <v>32</v>
       </c>
       <c r="B749" s="32"/>
-      <c r="C749" s="25" t="s">
+      <c r="C749" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D749" s="25" t="s">
@@ -13414,7 +13420,7 @@
         <v>32</v>
       </c>
       <c r="B750" s="32"/>
-      <c r="C750" s="25" t="s">
+      <c r="C750" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D750" s="25" t="s">
@@ -13431,7 +13437,7 @@
         <v>32</v>
       </c>
       <c r="B751" s="32"/>
-      <c r="C751" s="24" t="s">
+      <c r="C751" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D751" s="24" t="s">
@@ -13448,7 +13454,7 @@
         <v>32</v>
       </c>
       <c r="B752" s="32"/>
-      <c r="C752" s="24" t="s">
+      <c r="C752" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D752" s="24" t="s">
@@ -13465,7 +13471,7 @@
         <v>32</v>
       </c>
       <c r="B753" s="32"/>
-      <c r="C753" s="25" t="s">
+      <c r="C753" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D753" s="25" t="s">
@@ -13482,7 +13488,7 @@
         <v>32</v>
       </c>
       <c r="B754" s="32"/>
-      <c r="C754" s="25" t="s">
+      <c r="C754" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D754" s="25" t="s">
@@ -13499,7 +13505,7 @@
         <v>32</v>
       </c>
       <c r="B755" s="32"/>
-      <c r="C755" s="25" t="s">
+      <c r="C755" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D755" s="25" t="s">
@@ -13516,7 +13522,7 @@
         <v>32</v>
       </c>
       <c r="B756" s="32"/>
-      <c r="C756" s="25" t="s">
+      <c r="C756" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D756" s="25" t="s">
@@ -13533,7 +13539,7 @@
         <v>32</v>
       </c>
       <c r="B757" s="32"/>
-      <c r="C757" s="25" t="s">
+      <c r="C757" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D757" s="25" t="s">
@@ -13550,7 +13556,7 @@
         <v>32</v>
       </c>
       <c r="B758" s="32"/>
-      <c r="C758" s="25" t="s">
+      <c r="C758" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D758" s="25" t="s">
@@ -13567,7 +13573,7 @@
         <v>32</v>
       </c>
       <c r="B759" s="32"/>
-      <c r="C759" s="25" t="s">
+      <c r="C759" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D759" s="25" t="s">
@@ -13584,7 +13590,7 @@
         <v>32</v>
       </c>
       <c r="B760" s="32"/>
-      <c r="C760" s="25" t="s">
+      <c r="C760" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D760" s="25" t="s">
@@ -13601,7 +13607,7 @@
         <v>32</v>
       </c>
       <c r="B761" s="32"/>
-      <c r="C761" s="25" t="s">
+      <c r="C761" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D761" s="25" t="s">
@@ -13618,7 +13624,7 @@
         <v>32</v>
       </c>
       <c r="B762" s="32"/>
-      <c r="C762" s="24" t="s">
+      <c r="C762" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D762" s="24" t="s">
@@ -13635,7 +13641,7 @@
         <v>32</v>
       </c>
       <c r="B763" s="32"/>
-      <c r="C763" s="24" t="s">
+      <c r="C763" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D763" s="24" t="s">
@@ -13652,7 +13658,7 @@
         <v>32</v>
       </c>
       <c r="B764" s="32"/>
-      <c r="C764" s="25" t="s">
+      <c r="C764" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D764" s="25" t="s">
@@ -13669,7 +13675,7 @@
         <v>32</v>
       </c>
       <c r="B765" s="32"/>
-      <c r="C765" s="25" t="s">
+      <c r="C765" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D765" s="25" t="s">
@@ -13686,7 +13692,7 @@
         <v>32</v>
       </c>
       <c r="B766" s="32"/>
-      <c r="C766" s="25" t="s">
+      <c r="C766" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D766" s="25" t="s">
@@ -13703,7 +13709,7 @@
         <v>32</v>
       </c>
       <c r="B767" s="32"/>
-      <c r="C767" s="25" t="s">
+      <c r="C767" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D767" s="25" t="s">
@@ -13720,7 +13726,7 @@
         <v>32</v>
       </c>
       <c r="B768" s="32"/>
-      <c r="C768" s="25" t="s">
+      <c r="C768" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D768" s="25" t="s">
@@ -13737,7 +13743,7 @@
         <v>32</v>
       </c>
       <c r="B769" s="32"/>
-      <c r="C769" s="25" t="s">
+      <c r="C769" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D769" s="25" t="s">
@@ -13754,7 +13760,7 @@
         <v>32</v>
       </c>
       <c r="B770" s="32"/>
-      <c r="C770" s="25" t="s">
+      <c r="C770" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D770" s="25" t="s">
@@ -13771,7 +13777,7 @@
         <v>32</v>
       </c>
       <c r="B771" s="32"/>
-      <c r="C771" s="25" t="s">
+      <c r="C771" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D771" s="25" t="s">
@@ -13788,7 +13794,7 @@
         <v>32</v>
       </c>
       <c r="B772" s="32"/>
-      <c r="C772" s="25" t="s">
+      <c r="C772" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D772" s="25" t="s">
@@ -13805,7 +13811,7 @@
         <v>32</v>
       </c>
       <c r="B773" s="32"/>
-      <c r="C773" s="24" t="s">
+      <c r="C773" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D773" s="24" t="s">
@@ -13822,7 +13828,7 @@
         <v>32</v>
       </c>
       <c r="B774" s="32"/>
-      <c r="C774" s="24" t="s">
+      <c r="C774" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D774" s="24" t="s">
@@ -13839,7 +13845,7 @@
         <v>32</v>
       </c>
       <c r="B775" s="32"/>
-      <c r="C775" s="25" t="s">
+      <c r="C775" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D775" s="25" t="s">
@@ -13856,7 +13862,7 @@
         <v>32</v>
       </c>
       <c r="B776" s="32"/>
-      <c r="C776" s="25" t="s">
+      <c r="C776" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D776" s="25" t="s">
@@ -13873,7 +13879,7 @@
         <v>32</v>
       </c>
       <c r="B777" s="32"/>
-      <c r="C777" s="25" t="s">
+      <c r="C777" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D777" s="25" t="s">
@@ -13890,7 +13896,7 @@
         <v>32</v>
       </c>
       <c r="B778" s="32"/>
-      <c r="C778" s="25" t="s">
+      <c r="C778" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D778" s="25" t="s">
@@ -13907,7 +13913,7 @@
         <v>32</v>
       </c>
       <c r="B779" s="32"/>
-      <c r="C779" s="25" t="s">
+      <c r="C779" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D779" s="25" t="s">
@@ -13924,7 +13930,7 @@
         <v>32</v>
       </c>
       <c r="B780" s="32"/>
-      <c r="C780" s="25" t="s">
+      <c r="C780" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D780" s="25" t="s">
@@ -13941,7 +13947,7 @@
         <v>32</v>
       </c>
       <c r="B781" s="32"/>
-      <c r="C781" s="25" t="s">
+      <c r="C781" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D781" s="25" t="s">
@@ -13958,7 +13964,7 @@
         <v>32</v>
       </c>
       <c r="B782" s="32"/>
-      <c r="C782" s="25" t="s">
+      <c r="C782" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D782" s="25" t="s">
@@ -13975,7 +13981,7 @@
         <v>32</v>
       </c>
       <c r="B783" s="32"/>
-      <c r="C783" s="25" t="s">
+      <c r="C783" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D783" s="25" t="s">
@@ -13992,7 +13998,7 @@
         <v>32</v>
       </c>
       <c r="B784" s="32"/>
-      <c r="C784" s="24" t="s">
+      <c r="C784" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D784" s="24" t="s">
@@ -14007,7 +14013,7 @@
     <row r="785" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A785" s="22"/>
       <c r="B785" s="32"/>
-      <c r="C785" s="24" t="s">
+      <c r="C785" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D785" s="24" t="s">
@@ -14024,7 +14030,7 @@
         <v>32</v>
       </c>
       <c r="B786" s="32"/>
-      <c r="C786" s="25" t="s">
+      <c r="C786" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D786" s="25" t="s">
@@ -14041,7 +14047,7 @@
         <v>32</v>
       </c>
       <c r="B787" s="32"/>
-      <c r="C787" s="25" t="s">
+      <c r="C787" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D787" s="25" t="s">
@@ -14058,7 +14064,7 @@
         <v>32</v>
       </c>
       <c r="B788" s="32"/>
-      <c r="C788" s="25" t="s">
+      <c r="C788" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D788" s="25" t="s">
@@ -14075,7 +14081,7 @@
         <v>32</v>
       </c>
       <c r="B789" s="32"/>
-      <c r="C789" s="25" t="s">
+      <c r="C789" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D789" s="25" t="s">
@@ -14092,7 +14098,7 @@
         <v>32</v>
       </c>
       <c r="B790" s="32"/>
-      <c r="C790" s="25" t="s">
+      <c r="C790" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D790" s="25" t="s">
@@ -14109,7 +14115,7 @@
         <v>32</v>
       </c>
       <c r="B791" s="32"/>
-      <c r="C791" s="25" t="s">
+      <c r="C791" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D791" s="25" t="s">
@@ -14126,7 +14132,7 @@
         <v>32</v>
       </c>
       <c r="B792" s="32"/>
-      <c r="C792" s="25" t="s">
+      <c r="C792" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D792" s="25" t="s">
@@ -14143,7 +14149,7 @@
         <v>32</v>
       </c>
       <c r="B793" s="32"/>
-      <c r="C793" s="25" t="s">
+      <c r="C793" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D793" s="25" t="s">
@@ -14160,7 +14166,7 @@
         <v>32</v>
       </c>
       <c r="B794" s="32"/>
-      <c r="C794" s="25" t="s">
+      <c r="C794" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D794" s="25" t="s">
@@ -14177,7 +14183,7 @@
         <v>32</v>
       </c>
       <c r="B795" s="32"/>
-      <c r="C795" s="24" t="s">
+      <c r="C795" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D795" s="24" t="s">
@@ -14194,7 +14200,7 @@
         <v>32</v>
       </c>
       <c r="B796" s="32"/>
-      <c r="C796" s="24" t="s">
+      <c r="C796" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D796" s="24" t="s">
@@ -14211,7 +14217,7 @@
         <v>32</v>
       </c>
       <c r="B797" s="32"/>
-      <c r="C797" s="25" t="s">
+      <c r="C797" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D797" s="25" t="s">
@@ -14228,7 +14234,7 @@
         <v>32</v>
       </c>
       <c r="B798" s="32"/>
-      <c r="C798" s="25" t="s">
+      <c r="C798" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D798" s="25" t="s">
@@ -14245,7 +14251,7 @@
         <v>32</v>
       </c>
       <c r="B799" s="32"/>
-      <c r="C799" s="25" t="s">
+      <c r="C799" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D799" s="25" t="s">
@@ -14262,7 +14268,7 @@
         <v>32</v>
       </c>
       <c r="B800" s="32"/>
-      <c r="C800" s="25" t="s">
+      <c r="C800" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D800" s="25" t="s">
@@ -14279,7 +14285,7 @@
         <v>32</v>
       </c>
       <c r="B801" s="32"/>
-      <c r="C801" s="25" t="s">
+      <c r="C801" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D801" s="25" t="s">
@@ -14296,7 +14302,7 @@
         <v>32</v>
       </c>
       <c r="B802" s="32"/>
-      <c r="C802" s="25" t="s">
+      <c r="C802" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D802" s="25" t="s">
@@ -14313,7 +14319,7 @@
         <v>32</v>
       </c>
       <c r="B803" s="32"/>
-      <c r="C803" s="25" t="s">
+      <c r="C803" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D803" s="25" t="s">
@@ -14330,7 +14336,7 @@
         <v>32</v>
       </c>
       <c r="B804" s="32"/>
-      <c r="C804" s="25" t="s">
+      <c r="C804" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D804" s="25" t="s">
@@ -14347,7 +14353,7 @@
         <v>32</v>
       </c>
       <c r="B805" s="32"/>
-      <c r="C805" s="25" t="s">
+      <c r="C805" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D805" s="25" t="s">
@@ -14364,7 +14370,7 @@
         <v>32</v>
       </c>
       <c r="B806" s="32"/>
-      <c r="C806" s="24" t="s">
+      <c r="C806" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D806" s="24" t="s">
@@ -14381,7 +14387,7 @@
         <v>32</v>
       </c>
       <c r="B807" s="32"/>
-      <c r="C807" s="24" t="s">
+      <c r="C807" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D807" s="24" t="s">
@@ -14398,7 +14404,7 @@
         <v>32</v>
       </c>
       <c r="B808" s="32"/>
-      <c r="C808" s="25" t="s">
+      <c r="C808" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D808" s="25" t="s">
@@ -14415,7 +14421,7 @@
         <v>32</v>
       </c>
       <c r="B809" s="32"/>
-      <c r="C809" s="25" t="s">
+      <c r="C809" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D809" s="25" t="s">
@@ -14432,7 +14438,7 @@
         <v>32</v>
       </c>
       <c r="B810" s="32"/>
-      <c r="C810" s="25" t="s">
+      <c r="C810" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D810" s="25" t="s">
@@ -14449,7 +14455,7 @@
         <v>32</v>
       </c>
       <c r="B811" s="32"/>
-      <c r="C811" s="25" t="s">
+      <c r="C811" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D811" s="25" t="s">
@@ -14466,7 +14472,7 @@
         <v>32</v>
       </c>
       <c r="B812" s="32"/>
-      <c r="C812" s="25" t="s">
+      <c r="C812" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D812" s="25" t="s">
@@ -14483,7 +14489,7 @@
         <v>32</v>
       </c>
       <c r="B813" s="32"/>
-      <c r="C813" s="25" t="s">
+      <c r="C813" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D813" s="25" t="s">
@@ -14500,7 +14506,7 @@
         <v>32</v>
       </c>
       <c r="B814" s="32"/>
-      <c r="C814" s="25" t="s">
+      <c r="C814" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D814" s="25" t="s">
@@ -14517,7 +14523,7 @@
         <v>32</v>
       </c>
       <c r="B815" s="32"/>
-      <c r="C815" s="25" t="s">
+      <c r="C815" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D815" s="25" t="s">
@@ -14532,7 +14538,7 @@
     <row r="816" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A816" s="22"/>
       <c r="B816" s="32"/>
-      <c r="C816" s="25" t="s">
+      <c r="C816" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D816" s="25" t="s">
@@ -14549,7 +14555,7 @@
         <v>32</v>
       </c>
       <c r="B817" s="32"/>
-      <c r="C817" s="24" t="s">
+      <c r="C817" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D817" s="24" t="s">
@@ -14566,7 +14572,7 @@
         <v>32</v>
       </c>
       <c r="B818" s="32"/>
-      <c r="C818" s="24" t="s">
+      <c r="C818" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D818" s="24" t="s">
@@ -14583,7 +14589,7 @@
         <v>32</v>
       </c>
       <c r="B819" s="32"/>
-      <c r="C819" s="25" t="s">
+      <c r="C819" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D819" s="25" t="s">
@@ -14600,7 +14606,7 @@
         <v>32</v>
       </c>
       <c r="B820" s="32"/>
-      <c r="C820" s="25" t="s">
+      <c r="C820" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D820" s="25" t="s">
@@ -14617,7 +14623,7 @@
         <v>32</v>
       </c>
       <c r="B821" s="32"/>
-      <c r="C821" s="25" t="s">
+      <c r="C821" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D821" s="25" t="s">
@@ -14634,7 +14640,7 @@
         <v>32</v>
       </c>
       <c r="B822" s="32"/>
-      <c r="C822" s="25" t="s">
+      <c r="C822" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D822" s="25" t="s">
@@ -14651,7 +14657,7 @@
         <v>32</v>
       </c>
       <c r="B823" s="32"/>
-      <c r="C823" s="25" t="s">
+      <c r="C823" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D823" s="25" t="s">
@@ -14668,7 +14674,7 @@
         <v>32</v>
       </c>
       <c r="B824" s="32"/>
-      <c r="C824" s="25" t="s">
+      <c r="C824" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D824" s="25" t="s">
@@ -14685,7 +14691,7 @@
         <v>32</v>
       </c>
       <c r="B825" s="32"/>
-      <c r="C825" s="25" t="s">
+      <c r="C825" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D825" s="25" t="s">
@@ -14702,7 +14708,7 @@
         <v>32</v>
       </c>
       <c r="B826" s="32"/>
-      <c r="C826" s="25" t="s">
+      <c r="C826" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D826" s="25" t="s">
@@ -14719,7 +14725,7 @@
         <v>32</v>
       </c>
       <c r="B827" s="32"/>
-      <c r="C827" s="25" t="s">
+      <c r="C827" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D827" s="25" t="s">
@@ -14736,7 +14742,7 @@
         <v>32</v>
       </c>
       <c r="B828" s="32"/>
-      <c r="C828" s="24" t="s">
+      <c r="C828" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D828" s="24" t="s">
@@ -14753,7 +14759,7 @@
         <v>32</v>
       </c>
       <c r="B829" s="32"/>
-      <c r="C829" s="24" t="s">
+      <c r="C829" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D829" s="24" t="s">
@@ -14770,7 +14776,7 @@
         <v>32</v>
       </c>
       <c r="B830" s="32"/>
-      <c r="C830" s="25" t="s">
+      <c r="C830" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D830" s="25" t="s">
@@ -14787,7 +14793,7 @@
         <v>32</v>
       </c>
       <c r="B831" s="32"/>
-      <c r="C831" s="25" t="s">
+      <c r="C831" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D831" s="25" t="s">
@@ -14804,7 +14810,7 @@
         <v>32</v>
       </c>
       <c r="B832" s="32"/>
-      <c r="C832" s="25" t="s">
+      <c r="C832" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D832" s="25" t="s">
@@ -14821,7 +14827,7 @@
         <v>32</v>
       </c>
       <c r="B833" s="32"/>
-      <c r="C833" s="25" t="s">
+      <c r="C833" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D833" s="25" t="s">
@@ -14838,7 +14844,7 @@
         <v>32</v>
       </c>
       <c r="B834" s="32"/>
-      <c r="C834" s="25" t="s">
+      <c r="C834" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D834" s="25" t="s">
@@ -14855,7 +14861,7 @@
         <v>32</v>
       </c>
       <c r="B835" s="32"/>
-      <c r="C835" s="25" t="s">
+      <c r="C835" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D835" s="25" t="s">
@@ -14872,7 +14878,7 @@
         <v>32</v>
       </c>
       <c r="B836" s="32"/>
-      <c r="C836" s="25" t="s">
+      <c r="C836" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D836" s="25" t="s">
@@ -14889,7 +14895,7 @@
         <v>32</v>
       </c>
       <c r="B837" s="32"/>
-      <c r="C837" s="25" t="s">
+      <c r="C837" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D837" s="25" t="s">
@@ -14906,7 +14912,7 @@
         <v>32</v>
       </c>
       <c r="B838" s="32"/>
-      <c r="C838" s="25" t="s">
+      <c r="C838" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D838" s="25" t="s">
@@ -14923,7 +14929,7 @@
         <v>32</v>
       </c>
       <c r="B839" s="32"/>
-      <c r="C839" s="24" t="s">
+      <c r="C839" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D839" s="24" t="s">
@@ -14940,7 +14946,7 @@
         <v>32</v>
       </c>
       <c r="B840" s="32"/>
-      <c r="C840" s="24" t="s">
+      <c r="C840" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D840" s="24" t="s">
@@ -14957,7 +14963,7 @@
         <v>32</v>
       </c>
       <c r="B841" s="32"/>
-      <c r="C841" s="25" t="s">
+      <c r="C841" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D841" s="25" t="s">
@@ -14974,7 +14980,7 @@
         <v>32</v>
       </c>
       <c r="B842" s="32"/>
-      <c r="C842" s="25" t="s">
+      <c r="C842" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D842" s="25" t="s">
@@ -14991,7 +14997,7 @@
         <v>32</v>
       </c>
       <c r="B843" s="32"/>
-      <c r="C843" s="25" t="s">
+      <c r="C843" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D843" s="25" t="s">
@@ -15008,7 +15014,7 @@
         <v>32</v>
       </c>
       <c r="B844" s="32"/>
-      <c r="C844" s="25" t="s">
+      <c r="C844" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D844" s="25" t="s">
@@ -15025,7 +15031,7 @@
         <v>32</v>
       </c>
       <c r="B845" s="32"/>
-      <c r="C845" s="25" t="s">
+      <c r="C845" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D845" s="25" t="s">
@@ -15042,7 +15048,7 @@
         <v>32</v>
       </c>
       <c r="B846" s="32"/>
-      <c r="C846" s="25" t="s">
+      <c r="C846" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D846" s="25" t="s">
@@ -15057,7 +15063,7 @@
     <row r="847" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A847" s="22"/>
       <c r="B847" s="32"/>
-      <c r="C847" s="25" t="s">
+      <c r="C847" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D847" s="25" t="s">
@@ -15074,7 +15080,7 @@
         <v>32</v>
       </c>
       <c r="B848" s="32"/>
-      <c r="C848" s="25" t="s">
+      <c r="C848" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D848" s="25" t="s">
@@ -15091,7 +15097,7 @@
         <v>32</v>
       </c>
       <c r="B849" s="32"/>
-      <c r="C849" s="25" t="s">
+      <c r="C849" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D849" s="25" t="s">
@@ -15108,7 +15114,7 @@
         <v>32</v>
       </c>
       <c r="B850" s="32"/>
-      <c r="C850" s="24" t="s">
+      <c r="C850" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D850" s="24" t="s">
@@ -15125,7 +15131,7 @@
         <v>32</v>
       </c>
       <c r="B851" s="32"/>
-      <c r="C851" s="24" t="s">
+      <c r="C851" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D851" s="24" t="s">
@@ -15142,7 +15148,7 @@
         <v>32</v>
       </c>
       <c r="B852" s="32"/>
-      <c r="C852" s="25" t="s">
+      <c r="C852" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D852" s="25" t="s">
@@ -15159,7 +15165,7 @@
         <v>32</v>
       </c>
       <c r="B853" s="32"/>
-      <c r="C853" s="25" t="s">
+      <c r="C853" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D853" s="25" t="s">
@@ -15176,7 +15182,7 @@
         <v>32</v>
       </c>
       <c r="B854" s="32"/>
-      <c r="C854" s="25" t="s">
+      <c r="C854" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D854" s="25" t="s">
@@ -15193,7 +15199,7 @@
         <v>32</v>
       </c>
       <c r="B855" s="32"/>
-      <c r="C855" s="25" t="s">
+      <c r="C855" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D855" s="25" t="s">
@@ -15210,7 +15216,7 @@
         <v>32</v>
       </c>
       <c r="B856" s="32"/>
-      <c r="C856" s="25" t="s">
+      <c r="C856" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D856" s="25" t="s">
@@ -15227,7 +15233,7 @@
         <v>32</v>
       </c>
       <c r="B857" s="32"/>
-      <c r="C857" s="25" t="s">
+      <c r="C857" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D857" s="25" t="s">
@@ -15244,7 +15250,7 @@
         <v>32</v>
       </c>
       <c r="B858" s="32"/>
-      <c r="C858" s="25" t="s">
+      <c r="C858" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D858" s="25" t="s">
@@ -15261,7 +15267,7 @@
         <v>32</v>
       </c>
       <c r="B859" s="32"/>
-      <c r="C859" s="25" t="s">
+      <c r="C859" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D859" s="25" t="s">
@@ -15278,7 +15284,7 @@
         <v>32</v>
       </c>
       <c r="B860" s="32"/>
-      <c r="C860" s="25" t="s">
+      <c r="C860" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D860" s="25" t="s">
@@ -15297,7 +15303,7 @@
       <c r="B861" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C861" s="24" t="s">
+      <c r="C861" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D861" s="24" t="s">
@@ -15316,7 +15322,7 @@
       <c r="B862" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C862" s="24" t="s">
+      <c r="C862" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D862" s="24" t="s">
@@ -15335,7 +15341,7 @@
       <c r="B863" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C863" s="25" t="s">
+      <c r="C863" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D863" s="25" t="s">
@@ -15354,7 +15360,7 @@
       <c r="B864" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C864" s="25" t="s">
+      <c r="C864" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D864" s="25" t="s">
@@ -15373,7 +15379,7 @@
       <c r="B865" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C865" s="25" t="s">
+      <c r="C865" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D865" s="25" t="s">
@@ -15392,7 +15398,7 @@
       <c r="B866" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C866" s="25" t="s">
+      <c r="C866" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D866" s="25" t="s">
@@ -15411,7 +15417,7 @@
       <c r="B867" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C867" s="25" t="s">
+      <c r="C867" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D867" s="25" t="s">
@@ -15430,7 +15436,7 @@
       <c r="B868" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C868" s="25" t="s">
+      <c r="C868" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D868" s="25" t="s">
@@ -15449,7 +15455,7 @@
       <c r="B869" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C869" s="25" t="s">
+      <c r="C869" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D869" s="25" t="s">
@@ -15468,7 +15474,7 @@
       <c r="B870" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C870" s="25" t="s">
+      <c r="C870" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D870" s="25" t="s">
@@ -15487,7 +15493,7 @@
       <c r="B871" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C871" s="25" t="s">
+      <c r="C871" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D871" s="25" t="s">
@@ -15506,7 +15512,7 @@
       <c r="B872" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C872" s="24" t="s">
+      <c r="C872" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D872" s="24" t="s">
@@ -15525,7 +15531,7 @@
       <c r="B873" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C873" s="24" t="s">
+      <c r="C873" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D873" s="24" t="s">
@@ -15544,7 +15550,7 @@
       <c r="B874" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C874" s="25" t="s">
+      <c r="C874" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D874" s="25" t="s">
@@ -15563,7 +15569,7 @@
       <c r="B875" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C875" s="25" t="s">
+      <c r="C875" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D875" s="25" t="s">
@@ -15582,7 +15588,7 @@
       <c r="B876" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C876" s="25" t="s">
+      <c r="C876" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D876" s="25" t="s">
@@ -15601,7 +15607,7 @@
       <c r="B877" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C877" s="25" t="s">
+      <c r="C877" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D877" s="25" t="s">
@@ -15618,7 +15624,7 @@
       <c r="B878" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C878" s="25" t="s">
+      <c r="C878" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D878" s="25" t="s">
@@ -15637,7 +15643,7 @@
       <c r="B879" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C879" s="25" t="s">
+      <c r="C879" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D879" s="25" t="s">
@@ -15656,7 +15662,7 @@
       <c r="B880" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C880" s="25" t="s">
+      <c r="C880" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D880" s="25" t="s">
@@ -15675,7 +15681,7 @@
       <c r="B881" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C881" s="25" t="s">
+      <c r="C881" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D881" s="25" t="s">
@@ -15694,7 +15700,7 @@
       <c r="B882" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C882" s="25" t="s">
+      <c r="C882" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D882" s="25" t="s">
@@ -15713,7 +15719,7 @@
       <c r="B883" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C883" s="24" t="s">
+      <c r="C883" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D883" s="24" t="s">
@@ -15732,7 +15738,7 @@
       <c r="B884" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C884" s="24" t="s">
+      <c r="C884" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D884" s="24" t="s">
@@ -15751,7 +15757,7 @@
       <c r="B885" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C885" s="25" t="s">
+      <c r="C885" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D885" s="25" t="s">
@@ -15770,7 +15776,7 @@
       <c r="B886" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C886" s="25" t="s">
+      <c r="C886" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D886" s="25" t="s">
@@ -15789,7 +15795,7 @@
       <c r="B887" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C887" s="25" t="s">
+      <c r="C887" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D887" s="25" t="s">
@@ -15808,7 +15814,7 @@
       <c r="B888" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C888" s="25" t="s">
+      <c r="C888" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D888" s="25" t="s">
@@ -15827,7 +15833,7 @@
       <c r="B889" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C889" s="25" t="s">
+      <c r="C889" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D889" s="25" t="s">
@@ -15846,7 +15852,7 @@
       <c r="B890" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C890" s="25" t="s">
+      <c r="C890" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D890" s="25" t="s">
@@ -15865,7 +15871,7 @@
       <c r="B891" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C891" s="25" t="s">
+      <c r="C891" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D891" s="25" t="s">
@@ -15884,7 +15890,7 @@
       <c r="B892" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C892" s="25" t="s">
+      <c r="C892" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D892" s="25" t="s">
@@ -15903,7 +15909,7 @@
       <c r="B893" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C893" s="25" t="s">
+      <c r="C893" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D893" s="25" t="s">
@@ -15922,7 +15928,7 @@
       <c r="B894" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C894" s="24" t="s">
+      <c r="C894" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D894" s="24" t="s">
@@ -15941,7 +15947,7 @@
       <c r="B895" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C895" s="24" t="s">
+      <c r="C895" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D895" s="24" t="s">
@@ -15960,7 +15966,7 @@
       <c r="B896" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C896" s="25" t="s">
+      <c r="C896" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D896" s="25" t="s">
@@ -15979,7 +15985,7 @@
       <c r="B897" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C897" s="25" t="s">
+      <c r="C897" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D897" s="25" t="s">
@@ -15998,7 +16004,7 @@
       <c r="B898" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C898" s="25" t="s">
+      <c r="C898" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D898" s="25" t="s">
@@ -16017,7 +16023,7 @@
       <c r="B899" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C899" s="25" t="s">
+      <c r="C899" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D899" s="25" t="s">
@@ -16036,7 +16042,7 @@
       <c r="B900" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C900" s="25" t="s">
+      <c r="C900" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D900" s="25" t="s">
@@ -16055,7 +16061,7 @@
       <c r="B901" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C901" s="25" t="s">
+      <c r="C901" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D901" s="25" t="s">
@@ -16074,7 +16080,7 @@
       <c r="B902" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C902" s="25" t="s">
+      <c r="C902" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D902" s="25" t="s">
@@ -16093,7 +16099,7 @@
       <c r="B903" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C903" s="25" t="s">
+      <c r="C903" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D903" s="25" t="s">
@@ -16112,7 +16118,7 @@
       <c r="B904" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C904" s="25" t="s">
+      <c r="C904" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D904" s="25" t="s">
@@ -16131,7 +16137,7 @@
       <c r="B905" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C905" s="24" t="s">
+      <c r="C905" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D905" s="24" t="s">
@@ -16150,7 +16156,7 @@
       <c r="B906" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C906" s="24" t="s">
+      <c r="C906" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D906" s="24" t="s">
@@ -16169,7 +16175,7 @@
       <c r="B907" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C907" s="25" t="s">
+      <c r="C907" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D907" s="25" t="s">
@@ -16188,7 +16194,7 @@
       <c r="B908" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C908" s="25" t="s">
+      <c r="C908" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D908" s="25" t="s">
@@ -16205,7 +16211,7 @@
       <c r="B909" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C909" s="25" t="s">
+      <c r="C909" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D909" s="25" t="s">
@@ -16224,7 +16230,7 @@
       <c r="B910" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C910" s="25" t="s">
+      <c r="C910" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D910" s="25" t="s">
@@ -16243,7 +16249,7 @@
       <c r="B911" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C911" s="25" t="s">
+      <c r="C911" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D911" s="25" t="s">
@@ -16262,7 +16268,7 @@
       <c r="B912" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C912" s="25" t="s">
+      <c r="C912" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D912" s="25" t="s">
@@ -16281,7 +16287,7 @@
       <c r="B913" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C913" s="25" t="s">
+      <c r="C913" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D913" s="25" t="s">
@@ -16300,7 +16306,7 @@
       <c r="B914" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C914" s="25" t="s">
+      <c r="C914" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D914" s="25" t="s">
@@ -16319,7 +16325,7 @@
       <c r="B915" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C915" s="25" t="s">
+      <c r="C915" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D915" s="25" t="s">
@@ -16338,7 +16344,7 @@
       <c r="B916" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C916" s="24" t="s">
+      <c r="C916" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D916" s="24" t="s">
@@ -16357,7 +16363,7 @@
       <c r="B917" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C917" s="24" t="s">
+      <c r="C917" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D917" s="24" t="s">
@@ -16376,7 +16382,7 @@
       <c r="B918" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C918" s="25" t="s">
+      <c r="C918" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D918" s="25" t="s">
@@ -16395,7 +16401,7 @@
       <c r="B919" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C919" s="25" t="s">
+      <c r="C919" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D919" s="25" t="s">
@@ -16414,7 +16420,7 @@
       <c r="B920" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C920" s="25" t="s">
+      <c r="C920" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D920" s="25" t="s">
@@ -16433,7 +16439,7 @@
       <c r="B921" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C921" s="25" t="s">
+      <c r="C921" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D921" s="25" t="s">
@@ -16452,7 +16458,7 @@
       <c r="B922" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C922" s="25" t="s">
+      <c r="C922" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D922" s="25" t="s">
@@ -16471,7 +16477,7 @@
       <c r="B923" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C923" s="25" t="s">
+      <c r="C923" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D923" s="25" t="s">
@@ -16490,7 +16496,7 @@
       <c r="B924" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C924" s="25" t="s">
+      <c r="C924" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D924" s="25" t="s">
@@ -16509,7 +16515,7 @@
       <c r="B925" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C925" s="25" t="s">
+      <c r="C925" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D925" s="25" t="s">
@@ -16528,7 +16534,7 @@
       <c r="B926" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C926" s="25" t="s">
+      <c r="C926" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D926" s="25" t="s">
@@ -16547,7 +16553,7 @@
       <c r="B927" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C927" s="24" t="s">
+      <c r="C927" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D927" s="24" t="s">
@@ -16566,7 +16572,7 @@
       <c r="B928" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C928" s="24" t="s">
+      <c r="C928" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D928" s="24" t="s">
@@ -16585,7 +16591,7 @@
       <c r="B929" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C929" s="25" t="s">
+      <c r="C929" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D929" s="25" t="s">
@@ -16604,7 +16610,7 @@
       <c r="B930" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C930" s="25" t="s">
+      <c r="C930" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D930" s="25" t="s">
@@ -16623,7 +16629,7 @@
       <c r="B931" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C931" s="25" t="s">
+      <c r="C931" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D931" s="25" t="s">
@@ -16642,7 +16648,7 @@
       <c r="B932" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C932" s="25" t="s">
+      <c r="C932" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D932" s="25" t="s">
@@ -16661,7 +16667,7 @@
       <c r="B933" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C933" s="25" t="s">
+      <c r="C933" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D933" s="25" t="s">
@@ -16680,7 +16686,7 @@
       <c r="B934" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C934" s="25" t="s">
+      <c r="C934" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D934" s="25" t="s">
@@ -16699,7 +16705,7 @@
       <c r="B935" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C935" s="25" t="s">
+      <c r="C935" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D935" s="25" t="s">
@@ -16718,7 +16724,7 @@
       <c r="B936" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C936" s="25" t="s">
+      <c r="C936" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D936" s="25" t="s">
@@ -16737,7 +16743,7 @@
       <c r="B937" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C937" s="25" t="s">
+      <c r="C937" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D937" s="25" t="s">
@@ -16756,7 +16762,7 @@
       <c r="B938" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C938" s="24" t="s">
+      <c r="C938" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D938" s="24" t="s">
@@ -16775,7 +16781,7 @@
       <c r="B939" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C939" s="24" t="s">
+      <c r="C939" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D939" s="24" t="s">
@@ -16794,7 +16800,7 @@
       <c r="B940" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C940" s="25" t="s">
+      <c r="C940" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D940" s="25" t="s">
@@ -16813,7 +16819,7 @@
       <c r="B941" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C941" s="25" t="s">
+      <c r="C941" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D941" s="25" t="s">
@@ -16832,7 +16838,7 @@
       <c r="B942" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C942" s="25" t="s">
+      <c r="C942" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D942" s="25" t="s">
@@ -16851,7 +16857,7 @@
       <c r="B943" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C943" s="25" t="s">
+      <c r="C943" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D943" s="25" t="s">
@@ -16870,7 +16876,7 @@
       <c r="B944" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C944" s="25" t="s">
+      <c r="C944" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D944" s="25" t="s">
@@ -16889,7 +16895,7 @@
       <c r="B945" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C945" s="25" t="s">
+      <c r="C945" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D945" s="25" t="s">
@@ -16908,7 +16914,7 @@
       <c r="B946" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C946" s="25" t="s">
+      <c r="C946" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D946" s="25" t="s">
@@ -16927,7 +16933,7 @@
       <c r="B947" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C947" s="25" t="s">
+      <c r="C947" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D947" s="25" t="s">
@@ -16946,7 +16952,7 @@
       <c r="B948" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C948" s="25" t="s">
+      <c r="C948" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D948" s="25" t="s">
@@ -16965,7 +16971,7 @@
       <c r="B949" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C949" s="24" t="s">
+      <c r="C949" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D949" s="24" t="s">
@@ -16984,7 +16990,7 @@
       <c r="B950" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C950" s="24" t="s">
+      <c r="C950" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D950" s="24" t="s">
@@ -17003,7 +17009,7 @@
       <c r="B951" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C951" s="25" t="s">
+      <c r="C951" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D951" s="25" t="s">
@@ -17022,7 +17028,7 @@
       <c r="B952" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C952" s="25" t="s">
+      <c r="C952" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D952" s="25" t="s">
@@ -17041,7 +17047,7 @@
       <c r="B953" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C953" s="25" t="s">
+      <c r="C953" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D953" s="25" t="s">
@@ -17060,7 +17066,7 @@
       <c r="B954" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C954" s="25" t="s">
+      <c r="C954" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D954" s="25" t="s">
@@ -17079,7 +17085,7 @@
       <c r="B955" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C955" s="25" t="s">
+      <c r="C955" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D955" s="25" t="s">
@@ -17098,7 +17104,7 @@
       <c r="B956" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C956" s="25" t="s">
+      <c r="C956" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D956" s="25" t="s">
@@ -17117,7 +17123,7 @@
       <c r="B957" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C957" s="25" t="s">
+      <c r="C957" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D957" s="25" t="s">
@@ -17136,7 +17142,7 @@
       <c r="B958" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C958" s="25" t="s">
+      <c r="C958" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D958" s="25" t="s">
@@ -17155,7 +17161,7 @@
       <c r="B959" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C959" s="25" t="s">
+      <c r="C959" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D959" s="25" t="s">
@@ -17174,7 +17180,7 @@
       <c r="B960" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C960" s="24" t="s">
+      <c r="C960" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D960" s="24" t="s">
@@ -17193,7 +17199,7 @@
       <c r="B961" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C961" s="24" t="s">
+      <c r="C961" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D961" s="24" t="s">
@@ -17212,7 +17218,7 @@
       <c r="B962" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C962" s="25" t="s">
+      <c r="C962" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D962" s="25" t="s">
@@ -17231,7 +17237,7 @@
       <c r="B963" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C963" s="25" t="s">
+      <c r="C963" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D963" s="25" t="s">
@@ -17250,7 +17256,7 @@
       <c r="B964" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C964" s="25" t="s">
+      <c r="C964" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D964" s="25" t="s">
@@ -17269,7 +17275,7 @@
       <c r="B965" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C965" s="25" t="s">
+      <c r="C965" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D965" s="25" t="s">
@@ -17288,7 +17294,7 @@
       <c r="B966" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C966" s="25" t="s">
+      <c r="C966" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D966" s="25" t="s">
@@ -17307,7 +17313,7 @@
       <c r="B967" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C967" s="25" t="s">
+      <c r="C967" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D967" s="25" t="s">
@@ -17326,7 +17332,7 @@
       <c r="B968" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C968" s="25" t="s">
+      <c r="C968" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D968" s="25" t="s">
@@ -17343,7 +17349,7 @@
       <c r="B969" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C969" s="25" t="s">
+      <c r="C969" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D969" s="25" t="s">
@@ -17362,7 +17368,7 @@
       <c r="B970" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C970" s="25" t="s">
+      <c r="C970" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D970" s="25" t="s">
@@ -17381,7 +17387,7 @@
       <c r="B971" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C971" s="24" t="s">
+      <c r="C971" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D971" s="24" t="s">
@@ -17400,7 +17406,7 @@
       <c r="B972" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C972" s="24" t="s">
+      <c r="C972" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D972" s="24" t="s">
@@ -17419,7 +17425,7 @@
       <c r="B973" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C973" s="25" t="s">
+      <c r="C973" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D973" s="25" t="s">
@@ -17438,7 +17444,7 @@
       <c r="B974" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C974" s="25" t="s">
+      <c r="C974" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D974" s="25" t="s">
@@ -17457,7 +17463,7 @@
       <c r="B975" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C975" s="25" t="s">
+      <c r="C975" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D975" s="25" t="s">
@@ -17476,7 +17482,7 @@
       <c r="B976" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C976" s="25" t="s">
+      <c r="C976" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D976" s="25" t="s">
@@ -17495,7 +17501,7 @@
       <c r="B977" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C977" s="25" t="s">
+      <c r="C977" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D977" s="25" t="s">
@@ -17514,7 +17520,7 @@
       <c r="B978" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C978" s="25" t="s">
+      <c r="C978" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D978" s="25" t="s">
@@ -17533,7 +17539,7 @@
       <c r="B979" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C979" s="25" t="s">
+      <c r="C979" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D979" s="25" t="s">
@@ -17552,7 +17558,7 @@
       <c r="B980" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C980" s="25" t="s">
+      <c r="C980" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D980" s="25" t="s">
@@ -17571,7 +17577,7 @@
       <c r="B981" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C981" s="25" t="s">
+      <c r="C981" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D981" s="25" t="s">
@@ -17590,7 +17596,7 @@
       <c r="B982" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C982" s="24" t="s">
+      <c r="C982" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D982" s="24" t="s">
@@ -17609,7 +17615,7 @@
       <c r="B983" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C983" s="24" t="s">
+      <c r="C983" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D983" s="24" t="s">
@@ -17628,7 +17634,7 @@
       <c r="B984" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C984" s="25" t="s">
+      <c r="C984" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D984" s="25" t="s">
@@ -17647,7 +17653,7 @@
       <c r="B985" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C985" s="25" t="s">
+      <c r="C985" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D985" s="25" t="s">
@@ -17666,7 +17672,7 @@
       <c r="B986" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C986" s="25" t="s">
+      <c r="C986" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D986" s="25" t="s">
@@ -17685,7 +17691,7 @@
       <c r="B987" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C987" s="25" t="s">
+      <c r="C987" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D987" s="25" t="s">
@@ -17704,7 +17710,7 @@
       <c r="B988" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C988" s="25" t="s">
+      <c r="C988" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D988" s="25" t="s">
@@ -17723,7 +17729,7 @@
       <c r="B989" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C989" s="25" t="s">
+      <c r="C989" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D989" s="25" t="s">
@@ -17742,7 +17748,7 @@
       <c r="B990" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C990" s="25" t="s">
+      <c r="C990" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D990" s="25" t="s">
@@ -17761,7 +17767,7 @@
       <c r="B991" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C991" s="25" t="s">
+      <c r="C991" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D991" s="25" t="s">
@@ -17780,7 +17786,7 @@
       <c r="B992" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C992" s="25" t="s">
+      <c r="C992" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D992" s="25" t="s">
@@ -17799,7 +17805,7 @@
       <c r="B993" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C993" s="24" t="s">
+      <c r="C993" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D993" s="24" t="s">
@@ -17818,7 +17824,7 @@
       <c r="B994" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C994" s="24" t="s">
+      <c r="C994" s="32" t="s">
         <v>32</v>
       </c>
       <c r="D994" s="24" t="s">
@@ -17837,7 +17843,7 @@
       <c r="B995" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C995" s="25" t="s">
+      <c r="C995" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D995" s="25" t="s">
@@ -17856,7 +17862,7 @@
       <c r="B996" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C996" s="25" t="s">
+      <c r="C996" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D996" s="25" t="s">
@@ -17875,7 +17881,7 @@
       <c r="B997" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C997" s="25" t="s">
+      <c r="C997" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D997" s="25" t="s">
@@ -17894,7 +17900,7 @@
       <c r="B998" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C998" s="25" t="s">
+      <c r="C998" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D998" s="25" t="s">
@@ -17913,7 +17919,7 @@
       <c r="B999" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C999" s="25" t="s">
+      <c r="C999" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D999" s="25" t="s">
@@ -17930,7 +17936,7 @@
       <c r="B1000" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1000" s="25" t="s">
+      <c r="C1000" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D1000" s="25" t="s">
@@ -17949,7 +17955,7 @@
       <c r="B1001" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1001" s="25" t="s">
+      <c r="C1001" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D1001" s="25" t="s">
@@ -17968,7 +17974,7 @@
       <c r="B1002" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1002" s="25" t="s">
+      <c r="C1002" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D1002" s="25" t="s">
@@ -17987,7 +17993,7 @@
       <c r="B1003" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1003" s="26"/>
+      <c r="C1003" s="34"/>
       <c r="D1003" s="26"/>
       <c r="E1003" s="22"/>
       <c r="F1003" s="22"/>
@@ -18002,7 +18008,7 @@
       <c r="B1004" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1004" s="26"/>
+      <c r="C1004" s="34"/>
       <c r="D1004" s="26"/>
       <c r="E1004" s="22"/>
       <c r="F1004" s="22"/>
@@ -18017,7 +18023,7 @@
       <c r="B1005" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1005" s="26"/>
+      <c r="C1005" s="34"/>
       <c r="D1005" s="26"/>
       <c r="E1005" s="22"/>
       <c r="F1005" s="22"/>
@@ -18032,7 +18038,7 @@
       <c r="B1006" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1006" s="26"/>
+      <c r="C1006" s="34"/>
       <c r="D1006" s="26"/>
       <c r="E1006" s="22"/>
       <c r="F1006" s="22"/>
@@ -18047,7 +18053,7 @@
       <c r="B1007" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1007" s="26"/>
+      <c r="C1007" s="34"/>
       <c r="D1007" s="26"/>
       <c r="E1007" s="22"/>
       <c r="F1007" s="22"/>
@@ -18062,7 +18068,7 @@
       <c r="B1008" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1008" s="26"/>
+      <c r="C1008" s="34"/>
       <c r="D1008" s="26"/>
       <c r="E1008" s="22"/>
       <c r="F1008" s="22"/>
@@ -18077,7 +18083,7 @@
       <c r="B1009" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1009" s="26"/>
+      <c r="C1009" s="34"/>
       <c r="D1009" s="26"/>
       <c r="E1009" s="22"/>
       <c r="F1009" s="22"/>
@@ -18092,7 +18098,7 @@
       <c r="B1010" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1010" s="26"/>
+      <c r="C1010" s="34"/>
       <c r="D1010" s="26"/>
       <c r="E1010" s="22"/>
       <c r="F1010" s="22"/>
@@ -18107,7 +18113,7 @@
       <c r="B1011" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1011" s="26"/>
+      <c r="C1011" s="34"/>
       <c r="D1011" s="26"/>
       <c r="E1011" s="22"/>
       <c r="F1011" s="22"/>
@@ -18122,7 +18128,7 @@
       <c r="B1012" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1012" s="26"/>
+      <c r="C1012" s="34"/>
       <c r="D1012" s="26"/>
       <c r="E1012" s="22"/>
       <c r="F1012" s="22"/>
@@ -18137,7 +18143,7 @@
       <c r="B1013" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1013" s="26"/>
+      <c r="C1013" s="34"/>
       <c r="D1013" s="26"/>
       <c r="E1013" s="22"/>
       <c r="F1013" s="22"/>
@@ -18152,7 +18158,7 @@
       <c r="B1014" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1014" s="26"/>
+      <c r="C1014" s="34"/>
       <c r="D1014" s="26"/>
       <c r="E1014" s="22"/>
       <c r="F1014" s="22"/>
@@ -18167,7 +18173,7 @@
       <c r="B1015" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1015" s="26"/>
+      <c r="C1015" s="34"/>
       <c r="D1015" s="26"/>
       <c r="E1015" s="22"/>
       <c r="F1015" s="22"/>
@@ -18182,7 +18188,7 @@
       <c r="B1016" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1016" s="26"/>
+      <c r="C1016" s="34"/>
       <c r="D1016" s="26"/>
       <c r="E1016" s="22"/>
       <c r="F1016" s="22"/>
@@ -18197,7 +18203,7 @@
       <c r="B1017" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1017" s="26"/>
+      <c r="C1017" s="34"/>
       <c r="D1017" s="26"/>
       <c r="E1017" s="22"/>
       <c r="F1017" s="22"/>
@@ -18212,7 +18218,7 @@
       <c r="B1018" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1018" s="26"/>
+      <c r="C1018" s="34"/>
       <c r="D1018" s="26"/>
       <c r="E1018" s="22"/>
       <c r="F1018" s="22"/>
@@ -18227,7 +18233,7 @@
       <c r="B1019" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1019" s="26"/>
+      <c r="C1019" s="34"/>
       <c r="D1019" s="26"/>
       <c r="E1019" s="22"/>
       <c r="F1019" s="22"/>
@@ -18242,7 +18248,7 @@
       <c r="B1020" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1020" s="26"/>
+      <c r="C1020" s="34"/>
       <c r="D1020" s="26"/>
       <c r="E1020" s="22"/>
       <c r="F1020" s="22"/>
@@ -18257,7 +18263,7 @@
       <c r="B1021" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1021" s="26"/>
+      <c r="C1021" s="34"/>
       <c r="D1021" s="26"/>
       <c r="E1021" s="22"/>
       <c r="F1021" s="22"/>
@@ -18272,7 +18278,7 @@
       <c r="B1022" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1022" s="26"/>
+      <c r="C1022" s="34"/>
       <c r="D1022" s="26"/>
       <c r="E1022" s="22"/>
       <c r="F1022" s="22"/>
@@ -18287,7 +18293,7 @@
       <c r="B1023" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1023" s="26"/>
+      <c r="C1023" s="34"/>
       <c r="D1023" s="26"/>
       <c r="E1023" s="22"/>
       <c r="F1023" s="22"/>
@@ -18302,7 +18308,7 @@
       <c r="B1024" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1024" s="26"/>
+      <c r="C1024" s="34"/>
       <c r="D1024" s="26"/>
       <c r="E1024" s="22"/>
       <c r="F1024" s="22"/>
@@ -18316,7 +18322,7 @@
       <c r="B1025" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1025" s="26"/>
+      <c r="C1025" s="34"/>
       <c r="D1025" s="26"/>
       <c r="E1025" s="22"/>
       <c r="F1025" s="22"/>
@@ -18330,7 +18336,7 @@
       <c r="B1026" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1026" s="26"/>
+      <c r="C1026" s="34"/>
       <c r="D1026" s="26"/>
       <c r="E1026" s="22"/>
       <c r="F1026" s="22"/>
@@ -18344,7 +18350,7 @@
       <c r="B1027" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1027" s="26"/>
+      <c r="C1027" s="34"/>
       <c r="D1027" s="26"/>
       <c r="E1027" s="22"/>
       <c r="F1027" s="22"/>
@@ -18358,7 +18364,7 @@
       <c r="B1028" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1028" s="26"/>
+      <c r="C1028" s="34"/>
       <c r="D1028" s="26"/>
       <c r="E1028" s="22"/>
       <c r="F1028" s="22"/>
@@ -18372,7 +18378,7 @@
       <c r="B1029" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1029" s="26"/>
+      <c r="C1029" s="34"/>
       <c r="D1029" s="26"/>
       <c r="E1029" s="22"/>
       <c r="F1029" s="22"/>
@@ -18386,7 +18392,7 @@
       <c r="B1030" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1030" s="26"/>
+      <c r="C1030" s="34"/>
       <c r="D1030" s="26"/>
       <c r="E1030" s="22"/>
       <c r="F1030" s="22"/>
@@ -18398,7 +18404,7 @@
       <c r="B1031" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1031" s="26"/>
+      <c r="C1031" s="34"/>
       <c r="D1031" s="26"/>
       <c r="E1031" s="22"/>
       <c r="F1031" s="22"/>
@@ -18412,7 +18418,7 @@
       <c r="B1032" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1032" s="26"/>
+      <c r="C1032" s="34"/>
       <c r="D1032" s="26"/>
       <c r="E1032" s="22"/>
       <c r="F1032" s="22"/>
@@ -18426,7 +18432,7 @@
       <c r="B1033" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1033" s="26"/>
+      <c r="C1033" s="34"/>
       <c r="D1033" s="26"/>
       <c r="E1033" s="22"/>
       <c r="F1033" s="22"/>
@@ -18440,7 +18446,7 @@
       <c r="B1034" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1034" s="26"/>
+      <c r="C1034" s="34"/>
       <c r="D1034" s="26"/>
       <c r="E1034" s="22"/>
       <c r="F1034" s="22"/>
@@ -18454,7 +18460,7 @@
       <c r="B1035" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1035" s="26"/>
+      <c r="C1035" s="34"/>
       <c r="D1035" s="26"/>
       <c r="E1035" s="22"/>
       <c r="F1035" s="22"/>
@@ -18468,7 +18474,7 @@
       <c r="B1036" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1036" s="26"/>
+      <c r="C1036" s="34"/>
       <c r="D1036" s="26"/>
       <c r="E1036" s="22"/>
       <c r="F1036" s="22"/>
@@ -18482,7 +18488,7 @@
       <c r="B1037" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1037" s="26"/>
+      <c r="C1037" s="34"/>
       <c r="D1037" s="26"/>
       <c r="E1037" s="22"/>
       <c r="F1037" s="22"/>
@@ -18496,7 +18502,7 @@
       <c r="B1038" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1038" s="26"/>
+      <c r="C1038" s="34"/>
       <c r="D1038" s="26"/>
       <c r="E1038" s="22"/>
       <c r="F1038" s="22"/>
@@ -18510,7 +18516,7 @@
       <c r="B1039" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1039" s="26"/>
+      <c r="C1039" s="34"/>
       <c r="D1039" s="26"/>
       <c r="E1039" s="22"/>
       <c r="G1039" s="22"/>
@@ -18523,7 +18529,7 @@
       <c r="B1040" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1040" s="26"/>
+      <c r="C1040" s="34"/>
       <c r="D1040" s="26"/>
       <c r="E1040" s="22"/>
       <c r="G1040" s="22"/>
@@ -18536,7 +18542,7 @@
       <c r="B1041" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1041" s="26"/>
+      <c r="C1041" s="34"/>
       <c r="D1041" s="26"/>
       <c r="E1041" s="22"/>
       <c r="G1041" s="22"/>
@@ -18549,7 +18555,7 @@
       <c r="B1042" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1042" s="26"/>
+      <c r="C1042" s="34"/>
       <c r="D1042" s="26"/>
       <c r="E1042" s="22"/>
       <c r="G1042" s="22"/>
@@ -18562,7 +18568,7 @@
       <c r="B1043" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1043" s="26"/>
+      <c r="C1043" s="34"/>
       <c r="D1043" s="26"/>
       <c r="E1043" s="22"/>
       <c r="G1043" s="22"/>
@@ -18575,7 +18581,7 @@
       <c r="B1044" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1044" s="26"/>
+      <c r="C1044" s="34"/>
       <c r="D1044" s="26"/>
       <c r="E1044" s="22"/>
       <c r="G1044" s="22"/>
@@ -18588,7 +18594,7 @@
       <c r="B1045" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1045" s="26"/>
+      <c r="C1045" s="34"/>
       <c r="D1045" s="26"/>
       <c r="E1045" s="22"/>
       <c r="G1045" s="22"/>
@@ -18601,7 +18607,7 @@
       <c r="B1046" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1046" s="26"/>
+      <c r="C1046" s="34"/>
       <c r="D1046" s="26"/>
       <c r="E1046" s="22"/>
       <c r="G1046" s="22"/>
@@ -18614,7 +18620,7 @@
       <c r="B1047" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1047" s="26"/>
+      <c r="C1047" s="34"/>
       <c r="D1047" s="26"/>
       <c r="E1047" s="22"/>
       <c r="G1047" s="22"/>
@@ -18627,7 +18633,7 @@
       <c r="B1048" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1048" s="26"/>
+      <c r="C1048" s="34"/>
       <c r="D1048" s="26"/>
       <c r="E1048" s="22"/>
       <c r="G1048" s="22"/>
@@ -18640,7 +18646,7 @@
       <c r="B1049" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1049" s="26"/>
+      <c r="C1049" s="34"/>
       <c r="D1049" s="26"/>
       <c r="E1049" s="22"/>
       <c r="G1049" s="22"/>
@@ -18653,7 +18659,7 @@
       <c r="B1050" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1050" s="26"/>
+      <c r="C1050" s="34"/>
       <c r="D1050" s="26"/>
       <c r="E1050" s="22"/>
       <c r="G1050" s="22"/>
@@ -18664,7 +18670,7 @@
         <v>32</v>
       </c>
       <c r="B1051" s="25"/>
-      <c r="C1051" s="26"/>
+      <c r="C1051" s="34"/>
       <c r="D1051" s="26"/>
       <c r="E1051" s="22"/>
       <c r="G1051" s="22"/>
@@ -18675,7 +18681,7 @@
         <v>32</v>
       </c>
       <c r="B1052" s="25"/>
-      <c r="C1052" s="26"/>
+      <c r="C1052" s="34"/>
       <c r="D1052" s="26"/>
       <c r="E1052" s="22"/>
       <c r="G1052" s="22"/>
@@ -18685,7 +18691,7 @@
         <v>32</v>
       </c>
       <c r="B1053" s="25"/>
-      <c r="C1053" s="26"/>
+      <c r="C1053" s="34"/>
       <c r="D1053" s="26"/>
       <c r="E1053" s="22"/>
       <c r="G1053" s="22"/>
@@ -18694,7 +18700,7 @@
       <c r="A1054" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1054" s="26"/>
+      <c r="C1054" s="34"/>
       <c r="D1054" s="26"/>
       <c r="E1054" s="22"/>
       <c r="G1054" s="22"/>
@@ -18703,7 +18709,7 @@
       <c r="A1055" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1055" s="26"/>
+      <c r="C1055" s="34"/>
       <c r="D1055" s="26"/>
       <c r="E1055" s="22"/>
       <c r="G1055" s="22"/>

--- a/rtw_excel_report/report_quotation/quotation.xlsx
+++ b/rtw_excel_report/report_quotation/quotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_quotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4EA3E1-5BBF-4D5A-8889-81B7899FDD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD6BD32-59FB-4F14-9D21-0A765181ACBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="645" windowWidth="17535" windowHeight="13710" xr2:uid="{5E9C89EF-36F0-4FE6-B8F9-DD354E317999}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E9C89EF-36F0-4FE6-B8F9-DD354E317999}"/>
   </bookViews>
   <sheets>
     <sheet name="御見積書" sheetId="1" r:id="rId1"/>
@@ -779,8 +779,8 @@
   </sheetPr>
   <dimension ref="A1:I1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/rtw_excel_report/report_quotation/quotation.xlsx
+++ b/rtw_excel_report/report_quotation/quotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_quotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD6BD32-59FB-4F14-9D21-0A765181ACBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CC6F27-69CF-40EB-BF60-CDFAD533BF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E9C89EF-36F0-4FE6-B8F9-DD354E317999}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E9C89EF-36F0-4FE6-B8F9-DD354E317999}"/>
   </bookViews>
   <sheets>
     <sheet name="御見積書" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,7 @@
   <dimension ref="A1:I1059"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -939,7 +939,7 @@
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -974,7 +974,7 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="39"/>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -18744,7 +18744,6 @@
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E10:G13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
@@ -18752,6 +18751,7 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E10:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" r:id="rId1"/>
